--- a/inst/extdata/template.xlsx
+++ b/inst/extdata/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Classification Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="1108">
   <si>
     <t xml:space="preserve">Classification based on ACMG/AMP Variant Interpretation Guidelines</t>
   </si>
@@ -17745,61 +17745,23 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Conclusion
-</t>
-    </r>
+    <t xml:space="preserve">Conclusion
+</t>
   </si>
   <si>
     <t xml:space="preserve">Ex: Based on currently available information, the variant c.1545T&gt;C should be considered a likely benign variant.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="22"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Comments
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Things to add in comments:
+    <t xml:space="preserve">Comments
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Things to add in comments:
 - No  PAT/PPAT observed at the same residue 
 - Not in Parsons
 - Not in  Guidugli nor in Hart or Lyra
 - Not in BRCA Exchange*
-- Codes and cancers (age) of our patients where the variant has been detected (not necessary if it is a frequent variant, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">unless that this allows to classify the variant).</t>
-    </r>
+- Codes and cancers (age) of our patients where the variant has been detected (not necessary if it is a frequent variant, unless that this allows to classify the variant).</t>
   </si>
   <si>
     <t xml:space="preserve">Conclusion</t>
@@ -18353,39 +18315,195 @@
     <t xml:space="preserve">Premature Termination Codon</t>
   </si>
   <si>
+    <t xml:space="preserve">Transcript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic variant position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cDNA variant position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variant exon (or in intronic the nearest exon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop codon exon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nr of codons to stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cDNA stop codon position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Nr of gene exons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMD Predicted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicted splicing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*For splicing variants, it shows the number of codons until a stop is generated; for the rest, it shows the number of codons until a stop is generated.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Canson et al. (2023)</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  SpliceAI-10k calculator for the prediction of pseudoexonization, intron retention, and exon deletion. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org/10.1093/bioinformatics/btad179</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1093/bioinformatics/btad179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS_AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS_AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS_DG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS_DL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP_AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP_AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP_DG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP_DL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used_RefSeq_Transcript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cryptic_Acceptor_activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cryptic_Donor_activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any_splicing_aberration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bp_5prime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bp_3prime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial_intron_retention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial_exon_deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial_exon_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial_exon_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial_frameshift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial_intron_retention_aaseq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial_exon_deletion_aaseq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gained_exon_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudoexon_activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudoexon_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudoexon_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudoexon_frameshift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudoexon_intron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudoexon_activation_aaseq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exon_skipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost_exons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exon_skipping_frameshift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exon_skipping_aaseq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retained_intron_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intron_retention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retained_intron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intron_retention_frameshift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intron_retention_aaseq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tayoun Decision Tree (DT):</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exon positions</t>
   </si>
   <si>
-    <t xml:space="preserve">Transcript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genomic variant position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cDNA variant position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variant exon (or in intronic the nearest exon)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stop codon exon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nr of codons to stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cDNA stop codon position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Nr of gene exons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMD Predicted?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predicted splicing?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exon</t>
   </si>
   <si>
@@ -18405,12 +18523,6 @@
   </si>
   <si>
     <t xml:space="preserve">start (cDNA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*For splicing variants, it shows the number of codons until a stop is generated; for the rest, it shows the number of codons until a stop is generated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tayoun Decision Tree (DT):</t>
   </si>
   <si>
     <t xml:space="preserve">Gene-specific modifications of Tayoun DT for Frameshift and Nonsense variants:</t>
@@ -20213,7 +20325,7 @@
     <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="171" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="118">
+  <fonts count="115">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -20847,32 +20959,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -21119,7 +21211,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="55">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -21147,12 +21239,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7F807C"/>
-        <bgColor rgb="FF729FD0"/>
+        <bgColor rgb="FF548235"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA8A8A8"/>
+        <fgColor rgb="FFA9A6A8"/>
         <bgColor rgb="FF8EA9DB"/>
       </patternFill>
     </fill>
@@ -21170,14 +21262,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFFFF2D2"/>
         <bgColor rgb="FFFFEBEB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFF4646"/>
-        <bgColor rgb="FFFF787B"/>
+        <fgColor rgb="FFFE4949"/>
+        <bgColor rgb="FFFF7C7E"/>
       </patternFill>
     </fill>
     <fill>
@@ -21188,14 +21280,14 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFF787B"/>
+        <fgColor rgb="FFFF7C7E"/>
         <bgColor rgb="FFFF9999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
-        <bgColor rgb="FFFF787B"/>
+        <bgColor rgb="FFFF7C7E"/>
       </patternFill>
     </fill>
     <fill>
@@ -21205,9 +21297,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FF246997"/>
-        <bgColor rgb="FF3574BF"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A6CAB"/>
+        <bgColor rgb="FF006FC0"/>
       </patternFill>
     </fill>
     <fill>
@@ -21243,13 +21335,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEFF2E6"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F3F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEBEB"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F3F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -21290,37 +21382,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFF2F3F2"/>
         <bgColor rgb="FFEFF2E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF246997"/>
-        <bgColor rgb="FF3574BF"/>
+        <fgColor rgb="FF2A6CAB"/>
+        <bgColor rgb="FF006FC0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF74319D"/>
-        <bgColor rgb="FF246997"/>
+        <fgColor rgb="FF77319B"/>
+        <bgColor rgb="FF2A6CAB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="mediumGray">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFE8EEF4"/>
+        <fgColor rgb="FFE8EEF4"/>
+        <bgColor rgb="FFF2F3F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAE96A"/>
-        <bgColor rgb="FFE8F2A1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor rgb="FFF7F9F0"/>
+        <fgColor rgb="FFF2F3F2"/>
         <bgColor rgb="FFEFF2E6"/>
       </patternFill>
     </fill>
@@ -21355,33 +21441,33 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FFFFF2D2"/>
+        <bgColor rgb="FFFFEBEB"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="mediumGray">
-        <fgColor rgb="FFFFEBEB"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFA9A6A8"/>
+        <bgColor rgb="FFFF7C7E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFF4646"/>
+        <fgColor rgb="FFFE4949"/>
         <bgColor rgb="FFCA1814"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFF787B"/>
-        <bgColor rgb="FFFF4646"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD8D4"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFF7C7E"/>
+        <bgColor rgb="FFFE4949"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9F0"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F3F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -21400,12 +21486,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFA8D08D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFF2E6"/>
-        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -22116,7 +22196,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="89" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="86" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -22170,7 +22250,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="617">
+  <cellXfs count="619">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -23155,7 +23235,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="83" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="82" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -23227,11 +23307,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="86" fillId="28" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="83" fillId="28" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="87" fillId="30" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="84" fillId="30" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -23423,82 +23503,82 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="33" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="5" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="34" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="88" fillId="5" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="88" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="64" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="18" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="35" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -23619,11 +23699,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="55" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="55" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -23647,11 +23727,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -23675,11 +23755,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -23703,11 +23783,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="37" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="36" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="37" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -23715,163 +23795,187 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="55" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="55" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="86" fillId="0" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="55" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="55" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="51" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="89" fillId="0" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="27" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="39" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -23879,18 +23983,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -23903,7 +23995,43 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="41" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="42" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="34" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="43" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -23911,46 +24039,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="41" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="42" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="43" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="44" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="28" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -23971,23 +24059,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="45" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="42" fillId="44" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="92" fillId="45" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="89" fillId="44" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24087,39 +24175,39 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="44" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="96" fillId="46" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="93" fillId="45" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="97" fillId="46" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="94" fillId="45" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="97" fillId="46" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="94" fillId="45" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="98" fillId="46" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="95" fillId="45" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="97" fillId="47" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="94" fillId="46" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="98" fillId="46" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="95" fillId="45" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24127,43 +24215,43 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="99" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="96" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="100" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="97" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="101" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="98" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="100" fillId="47" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="97" fillId="46" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="102" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="99" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="102" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="99" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="103" fillId="38" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="100" fillId="37" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="95" fillId="48" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="92" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24219,7 +24307,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="106" fillId="45" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="103" fillId="44" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24227,11 +24315,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24255,11 +24343,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24271,11 +24359,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="110" fillId="39" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="107" fillId="38" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="111" fillId="39" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="108" fillId="38" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24291,27 +24379,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="111" fillId="39" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="108" fillId="38" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="112" fillId="49" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="109" fillId="47" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="112" fillId="49" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="109" fillId="47" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="112" fillId="49" borderId="70" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="109" fillId="47" borderId="70" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="112" fillId="49" borderId="71" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="109" fillId="47" borderId="71" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24323,11 +24411,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="113" fillId="49" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="110" fillId="47" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="114" fillId="50" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="111" fillId="48" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24339,7 +24427,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="92" fillId="0" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="89" fillId="0" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24351,15 +24439,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="92" fillId="50" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="89" fillId="48" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="50" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="48" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="50" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="21" fillId="48" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24375,39 +24463,39 @@
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="112" fillId="51" borderId="74" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="109" fillId="49" borderId="74" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="112" fillId="51" borderId="75" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="109" fillId="49" borderId="75" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="112" fillId="51" borderId="76" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="109" fillId="49" borderId="76" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="113" fillId="51" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="110" fillId="49" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="114" fillId="52" borderId="77" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="111" fillId="50" borderId="77" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="114" fillId="52" borderId="78" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="111" fillId="50" borderId="78" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="116" fillId="52" borderId="78" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="113" fillId="50" borderId="78" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="92" fillId="0" borderId="77" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="89" fillId="0" borderId="77" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24423,19 +24511,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="92" fillId="52" borderId="77" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="89" fillId="50" borderId="77" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="52" borderId="78" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="50" borderId="78" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="52" borderId="78" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="21" fillId="50" borderId="78" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="52" borderId="78" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="21" fillId="50" borderId="78" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24443,11 +24531,11 @@
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="39" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="38" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="39" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24467,7 +24555,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="53" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="51" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24491,7 +24579,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="53" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="51" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24507,7 +24595,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="53" borderId="61" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="51" borderId="61" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24523,7 +24611,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="53" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="51" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24539,7 +24627,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="52" fillId="53" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="52" fillId="51" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24575,7 +24663,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24583,7 +24671,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="89" fillId="0" borderId="43" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="86" fillId="0" borderId="43" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24595,7 +24683,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="85" fillId="0" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24615,15 +24703,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="54" borderId="83" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="52" borderId="83" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="89" fillId="0" borderId="31" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="86" fillId="0" borderId="31" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="54" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="52" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24635,7 +24723,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="89" fillId="0" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="86" fillId="0" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -25163,18 +25251,18 @@
       <rgbColor rgb="FFA8D08D"/>
       <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF006300"/>
-      <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FF70AD47"/>
+      <rgbColor rgb="FFF2F3F2"/>
+      <rgbColor rgb="FF548235"/>
       <rgbColor rgb="FFDCE6F2"/>
-      <rgbColor rgb="FF246997"/>
+      <rgbColor rgb="FF729FD0"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF7F807C"/>
       <rgbColor rgb="FF8EA9DB"/>
-      <rgbColor rgb="FF74319D"/>
-      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FF77319B"/>
+      <rgbColor rgb="FFFFF2D2"/>
       <rgbColor rgb="FFDEEBF7"/>
       <rgbColor rgb="FFEBE7F1"/>
-      <rgbColor rgb="FFFF787B"/>
+      <rgbColor rgb="FFFF7C7E"/>
       <rgbColor rgb="FF006FC0"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FFF7F9F0"/>
@@ -25183,7 +25271,7 @@
       <rgbColor rgb="FFC6EFCE"/>
       <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FFFFEBEB"/>
-      <rgbColor rgb="FF729FD0"/>
+      <rgbColor rgb="FF70AD47"/>
       <rgbColor rgb="FFEFF2E6"/>
       <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FFE8EEF4"/>
@@ -25193,14 +25281,14 @@
       <rgbColor rgb="FFFF9999"/>
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3574BF"/>
+      <rgbColor rgb="FF2A6CAB"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FFE0C2CD"/>
-      <rgbColor rgb="FFFF4646"/>
+      <rgbColor rgb="FFFE4949"/>
       <rgbColor rgb="FF538AD0"/>
-      <rgbColor rgb="FFA8A8A8"/>
+      <rgbColor rgb="FFA9A6A8"/>
       <rgbColor rgb="FFE2EFD9"/>
       <rgbColor rgb="FF04A756"/>
       <rgbColor rgb="FFE2F0D9"/>
@@ -25219,15 +25307,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57240</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:colOff>47520</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>253080</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1463040</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25240,8 +25328,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57240" y="2584440"/>
-          <a:ext cx="13581360" cy="2493000"/>
+          <a:off x="47520" y="5616360"/>
+          <a:ext cx="9077400" cy="2000160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25274,9 +25362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>241920</xdr:colOff>
+      <xdr:colOff>241560</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25290,7 +25378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="76320" y="1902960"/>
-          <a:ext cx="16032960" cy="1189080"/>
+          <a:ext cx="16032600" cy="1188720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26526,7 +26614,7 @@
   <dimension ref="A1:AZ136"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O24" activeCellId="0" sqref="O24"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26554,7 +26642,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="102"/>
-      <c r="D1" s="449"/>
+      <c r="D1" s="451"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="104" t="s">
@@ -26568,377 +26656,377 @@
       </c>
       <c r="B3" s="107"/>
       <c r="D3" s="111" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" s="100" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="450" t="s">
-        <v>627</v>
-      </c>
-      <c r="B5" s="451"/>
-      <c r="C5" s="451"/>
-      <c r="D5" s="451"/>
-      <c r="E5" s="451"/>
-      <c r="F5" s="452"/>
-      <c r="G5" s="452"/>
-      <c r="H5" s="452"/>
-      <c r="I5" s="451"/>
-      <c r="J5" s="452"/>
-      <c r="K5" s="452"/>
-      <c r="L5" s="452"/>
-      <c r="M5" s="452"/>
-      <c r="N5" s="452"/>
-      <c r="O5" s="451"/>
-      <c r="P5" s="453"/>
-      <c r="Q5" s="452"/>
-      <c r="R5" s="454" t="s">
-        <v>628</v>
-      </c>
-      <c r="S5" s="454"/>
-      <c r="T5" s="454"/>
-      <c r="U5" s="454"/>
-      <c r="V5" s="454"/>
-      <c r="W5" s="454"/>
+      <c r="A5" s="452" t="s">
+        <v>667</v>
+      </c>
+      <c r="B5" s="453"/>
+      <c r="C5" s="453"/>
+      <c r="D5" s="453"/>
+      <c r="E5" s="453"/>
+      <c r="F5" s="454"/>
+      <c r="G5" s="454"/>
+      <c r="H5" s="454"/>
+      <c r="I5" s="453"/>
+      <c r="J5" s="454"/>
+      <c r="K5" s="454"/>
+      <c r="L5" s="454"/>
+      <c r="M5" s="454"/>
+      <c r="N5" s="454"/>
+      <c r="O5" s="453"/>
+      <c r="P5" s="455"/>
+      <c r="Q5" s="454"/>
+      <c r="R5" s="456" t="s">
+        <v>668</v>
+      </c>
+      <c r="S5" s="456"/>
+      <c r="T5" s="456"/>
+      <c r="U5" s="456"/>
+      <c r="V5" s="456"/>
+      <c r="W5" s="456"/>
       <c r="Y5" s="100" t="s">
-        <v>629</v>
-      </c>
-      <c r="AK5" s="455"/>
-      <c r="AN5" s="456"/>
-    </row>
-    <row r="6" s="468" customFormat="true" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="457" t="s">
+        <v>669</v>
+      </c>
+      <c r="AK5" s="457"/>
+      <c r="AN5" s="458"/>
+    </row>
+    <row r="6" s="470" customFormat="true" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="459" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="457" t="s">
-        <v>630</v>
-      </c>
-      <c r="C6" s="457" t="s">
-        <v>631</v>
-      </c>
-      <c r="D6" s="457" t="s">
-        <v>632</v>
-      </c>
-      <c r="E6" s="457" t="s">
-        <v>633</v>
-      </c>
-      <c r="F6" s="457" t="s">
-        <v>634</v>
-      </c>
-      <c r="G6" s="457" t="s">
-        <v>635</v>
-      </c>
-      <c r="H6" s="457" t="s">
-        <v>636</v>
-      </c>
-      <c r="I6" s="457" t="s">
-        <v>637</v>
-      </c>
-      <c r="J6" s="457" t="s">
-        <v>638</v>
-      </c>
-      <c r="K6" s="457" t="s">
-        <v>639</v>
-      </c>
-      <c r="L6" s="457" t="s">
-        <v>640</v>
-      </c>
-      <c r="M6" s="457" t="s">
-        <v>641</v>
-      </c>
-      <c r="N6" s="457" t="s">
-        <v>642</v>
-      </c>
-      <c r="O6" s="458" t="s">
-        <v>643</v>
-      </c>
-      <c r="P6" s="459" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q6" s="459" t="s">
-        <v>645</v>
-      </c>
-      <c r="R6" s="459" t="s">
-        <v>646</v>
-      </c>
-      <c r="S6" s="457" t="s">
-        <v>647</v>
-      </c>
-      <c r="T6" s="457" t="s">
-        <v>648</v>
-      </c>
-      <c r="U6" s="460" t="s">
-        <v>649</v>
-      </c>
-      <c r="V6" s="460" t="s">
-        <v>650</v>
-      </c>
-      <c r="W6" s="459" t="s">
-        <v>651</v>
-      </c>
-      <c r="X6" s="459" t="s">
-        <v>652</v>
-      </c>
-      <c r="Y6" s="459" t="s">
-        <v>653</v>
-      </c>
-      <c r="Z6" s="459" t="s">
-        <v>654</v>
-      </c>
-      <c r="AA6" s="459" t="s">
-        <v>655</v>
-      </c>
-      <c r="AB6" s="459" t="s">
-        <v>656</v>
-      </c>
-      <c r="AC6" s="461" t="s">
-        <v>657</v>
-      </c>
-      <c r="AD6" s="462" t="s">
-        <v>658</v>
-      </c>
-      <c r="AE6" s="459" t="s">
-        <v>659</v>
-      </c>
-      <c r="AF6" s="459" t="s">
-        <v>660</v>
-      </c>
-      <c r="AG6" s="463" t="s">
-        <v>661</v>
-      </c>
-      <c r="AH6" s="459" t="s">
-        <v>662</v>
-      </c>
-      <c r="AI6" s="459" t="s">
-        <v>663</v>
-      </c>
-      <c r="AJ6" s="464" t="s">
-        <v>664</v>
-      </c>
-      <c r="AK6" s="465" t="s">
-        <v>665</v>
-      </c>
-      <c r="AL6" s="466" t="s">
-        <v>666</v>
-      </c>
-      <c r="AM6" s="466" t="s">
-        <v>667</v>
-      </c>
-      <c r="AN6" s="467" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="7" s="478" customFormat="true" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="469"/>
-      <c r="B7" s="470" t="s">
-        <v>669</v>
-      </c>
-      <c r="C7" s="469"/>
-      <c r="D7" s="469" t="s">
+      <c r="B6" s="459" t="s">
         <v>670</v>
       </c>
-      <c r="E7" s="469" t="s">
+      <c r="C6" s="459" t="s">
         <v>671</v>
       </c>
-      <c r="F7" s="471" t="s">
+      <c r="D6" s="459" t="s">
         <v>672</v>
       </c>
-      <c r="G7" s="471" t="s">
-        <v>672</v>
-      </c>
-      <c r="H7" s="471" t="s">
+      <c r="E6" s="459" t="s">
         <v>673</v>
       </c>
-      <c r="I7" s="471" t="s">
-        <v>673</v>
-      </c>
-      <c r="J7" s="471" t="s">
+      <c r="F6" s="459" t="s">
         <v>674</v>
       </c>
-      <c r="K7" s="471"/>
-      <c r="L7" s="471"/>
-      <c r="M7" s="471"/>
-      <c r="N7" s="471" t="s">
+      <c r="G6" s="459" t="s">
         <v>675</v>
       </c>
-      <c r="O7" s="471"/>
-      <c r="P7" s="469"/>
-      <c r="Q7" s="472"/>
-      <c r="R7" s="472"/>
-      <c r="S7" s="469"/>
-      <c r="T7" s="469"/>
-      <c r="U7" s="473" t="s">
+      <c r="H6" s="459" t="s">
         <v>676</v>
       </c>
-      <c r="V7" s="473" t="s">
-        <v>676</v>
-      </c>
-      <c r="W7" s="473" t="s">
+      <c r="I6" s="459" t="s">
         <v>677</v>
       </c>
-      <c r="X7" s="473" t="s">
-        <v>677</v>
-      </c>
-      <c r="Y7" s="473" t="s">
-        <v>677</v>
-      </c>
-      <c r="Z7" s="472" t="s">
+      <c r="J6" s="459" t="s">
         <v>678</v>
       </c>
-      <c r="AA7" s="472" t="s">
-        <v>678</v>
-      </c>
-      <c r="AB7" s="472" t="s">
+      <c r="K6" s="459" t="s">
         <v>679</v>
       </c>
-      <c r="AC7" s="472" t="s">
+      <c r="L6" s="459" t="s">
         <v>680</v>
       </c>
-      <c r="AD7" s="474" t="s">
+      <c r="M6" s="459" t="s">
         <v>681</v>
       </c>
-      <c r="AE7" s="472"/>
-      <c r="AF7" s="475"/>
-      <c r="AG7" s="475"/>
-      <c r="AH7" s="472"/>
-      <c r="AI7" s="472" t="s">
+      <c r="N6" s="459" t="s">
         <v>682</v>
       </c>
-      <c r="AJ7" s="472" t="s">
+      <c r="O6" s="460" t="s">
         <v>683</v>
       </c>
-      <c r="AK7" s="476"/>
-      <c r="AL7" s="475"/>
-      <c r="AM7" s="475"/>
-      <c r="AN7" s="477"/>
+      <c r="P6" s="461" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q6" s="461" t="s">
+        <v>685</v>
+      </c>
+      <c r="R6" s="461" t="s">
+        <v>686</v>
+      </c>
+      <c r="S6" s="459" t="s">
+        <v>687</v>
+      </c>
+      <c r="T6" s="459" t="s">
+        <v>688</v>
+      </c>
+      <c r="U6" s="462" t="s">
+        <v>689</v>
+      </c>
+      <c r="V6" s="462" t="s">
+        <v>690</v>
+      </c>
+      <c r="W6" s="461" t="s">
+        <v>691</v>
+      </c>
+      <c r="X6" s="461" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y6" s="461" t="s">
+        <v>693</v>
+      </c>
+      <c r="Z6" s="461" t="s">
+        <v>694</v>
+      </c>
+      <c r="AA6" s="461" t="s">
+        <v>695</v>
+      </c>
+      <c r="AB6" s="461" t="s">
+        <v>696</v>
+      </c>
+      <c r="AC6" s="463" t="s">
+        <v>697</v>
+      </c>
+      <c r="AD6" s="464" t="s">
+        <v>698</v>
+      </c>
+      <c r="AE6" s="461" t="s">
+        <v>699</v>
+      </c>
+      <c r="AF6" s="461" t="s">
+        <v>700</v>
+      </c>
+      <c r="AG6" s="465" t="s">
+        <v>701</v>
+      </c>
+      <c r="AH6" s="461" t="s">
+        <v>702</v>
+      </c>
+      <c r="AI6" s="461" t="s">
+        <v>703</v>
+      </c>
+      <c r="AJ6" s="466" t="s">
+        <v>704</v>
+      </c>
+      <c r="AK6" s="467" t="s">
+        <v>705</v>
+      </c>
+      <c r="AL6" s="468" t="s">
+        <v>706</v>
+      </c>
+      <c r="AM6" s="468" t="s">
+        <v>707</v>
+      </c>
+      <c r="AN6" s="469" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" s="480" customFormat="true" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="471"/>
+      <c r="B7" s="472" t="s">
+        <v>709</v>
+      </c>
+      <c r="C7" s="471"/>
+      <c r="D7" s="471" t="s">
+        <v>710</v>
+      </c>
+      <c r="E7" s="471" t="s">
+        <v>711</v>
+      </c>
+      <c r="F7" s="473" t="s">
+        <v>712</v>
+      </c>
+      <c r="G7" s="473" t="s">
+        <v>712</v>
+      </c>
+      <c r="H7" s="473" t="s">
+        <v>713</v>
+      </c>
+      <c r="I7" s="473" t="s">
+        <v>713</v>
+      </c>
+      <c r="J7" s="473" t="s">
+        <v>714</v>
+      </c>
+      <c r="K7" s="473"/>
+      <c r="L7" s="473"/>
+      <c r="M7" s="473"/>
+      <c r="N7" s="473" t="s">
+        <v>715</v>
+      </c>
+      <c r="O7" s="473"/>
+      <c r="P7" s="471"/>
+      <c r="Q7" s="474"/>
+      <c r="R7" s="474"/>
+      <c r="S7" s="471"/>
+      <c r="T7" s="471"/>
+      <c r="U7" s="475" t="s">
+        <v>716</v>
+      </c>
+      <c r="V7" s="475" t="s">
+        <v>716</v>
+      </c>
+      <c r="W7" s="475" t="s">
+        <v>717</v>
+      </c>
+      <c r="X7" s="475" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y7" s="475" t="s">
+        <v>717</v>
+      </c>
+      <c r="Z7" s="474" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA7" s="474" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB7" s="474" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC7" s="474" t="s">
+        <v>720</v>
+      </c>
+      <c r="AD7" s="476" t="s">
+        <v>721</v>
+      </c>
+      <c r="AE7" s="474"/>
+      <c r="AF7" s="477"/>
+      <c r="AG7" s="477"/>
+      <c r="AH7" s="474"/>
+      <c r="AI7" s="474" t="s">
+        <v>722</v>
+      </c>
+      <c r="AJ7" s="474" t="s">
+        <v>723</v>
+      </c>
+      <c r="AK7" s="478"/>
+      <c r="AL7" s="477"/>
+      <c r="AM7" s="477"/>
+      <c r="AN7" s="479"/>
     </row>
     <row r="10" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="450" t="s">
-        <v>684</v>
-      </c>
-      <c r="B11" s="479"/>
-      <c r="C11" s="479"/>
-      <c r="D11" s="479"/>
-      <c r="E11" s="479"/>
-      <c r="F11" s="479"/>
-      <c r="G11" s="479"/>
-      <c r="H11" s="479"/>
-      <c r="I11" s="479"/>
-      <c r="J11" s="479"/>
-      <c r="K11" s="479"/>
-      <c r="L11" s="479"/>
-      <c r="M11" s="479"/>
-      <c r="N11" s="479"/>
-      <c r="O11" s="479"/>
-      <c r="P11" s="479"/>
-      <c r="Q11" s="479"/>
-      <c r="R11" s="454" t="s">
-        <v>685</v>
-      </c>
-      <c r="S11" s="454"/>
-      <c r="T11" s="454"/>
-      <c r="U11" s="454"/>
-      <c r="V11" s="454"/>
-      <c r="W11" s="454"/>
+      <c r="A11" s="452" t="s">
+        <v>724</v>
+      </c>
+      <c r="B11" s="481"/>
+      <c r="C11" s="481"/>
+      <c r="D11" s="481"/>
+      <c r="E11" s="481"/>
+      <c r="F11" s="481"/>
+      <c r="G11" s="481"/>
+      <c r="H11" s="481"/>
+      <c r="I11" s="481"/>
+      <c r="J11" s="481"/>
+      <c r="K11" s="481"/>
+      <c r="L11" s="481"/>
+      <c r="M11" s="481"/>
+      <c r="N11" s="481"/>
+      <c r="O11" s="481"/>
+      <c r="P11" s="481"/>
+      <c r="Q11" s="481"/>
+      <c r="R11" s="456" t="s">
+        <v>725</v>
+      </c>
+      <c r="S11" s="456"/>
+      <c r="T11" s="456"/>
+      <c r="U11" s="456"/>
+      <c r="V11" s="456"/>
+      <c r="W11" s="456"/>
       <c r="Y11" s="0" t="s">
-        <v>686</v>
+        <v>726</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="2.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="480"/>
+      <c r="A12" s="482"/>
       <c r="AC12" s="0" t="s">
-        <v>687</v>
+        <v>727</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>688</v>
+        <v>728</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="AI12" s="481"/>
+        <v>728</v>
+      </c>
+      <c r="AI12" s="483"/>
     </row>
     <row r="13" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="482" t="s">
-        <v>689</v>
-      </c>
-      <c r="B13" s="483"/>
-      <c r="C13" s="483"/>
-      <c r="D13" s="483"/>
-      <c r="E13" s="483"/>
-      <c r="F13" s="483"/>
-      <c r="G13" s="483"/>
-      <c r="H13" s="483"/>
-      <c r="I13" s="483"/>
-      <c r="J13" s="484" t="s">
-        <v>690</v>
-      </c>
-      <c r="K13" s="484" t="s">
-        <v>691</v>
-      </c>
-      <c r="L13" s="485" t="s">
-        <v>692</v>
-      </c>
-      <c r="M13" s="485" t="s">
-        <v>693</v>
-      </c>
-      <c r="N13" s="485" t="s">
-        <v>694</v>
-      </c>
-      <c r="O13" s="485" t="s">
-        <v>695</v>
-      </c>
-      <c r="P13" s="485" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q13" s="485" t="s">
-        <v>697</v>
-      </c>
-      <c r="R13" s="484" t="s">
-        <v>698</v>
-      </c>
-      <c r="S13" s="485" t="s">
-        <v>699</v>
-      </c>
-      <c r="T13" s="485" t="s">
-        <v>700</v>
-      </c>
-      <c r="U13" s="485" t="s">
-        <v>701</v>
-      </c>
-      <c r="V13" s="485" t="s">
-        <v>702</v>
-      </c>
-      <c r="W13" s="485" t="s">
-        <v>703</v>
-      </c>
-      <c r="X13" s="485" t="s">
-        <v>704</v>
-      </c>
-      <c r="Y13" s="485" t="s">
-        <v>705</v>
-      </c>
-      <c r="Z13" s="484" t="s">
-        <v>706</v>
-      </c>
-      <c r="AA13" s="485" t="s">
-        <v>707</v>
-      </c>
-      <c r="AB13" s="485" t="s">
-        <v>708</v>
-      </c>
-      <c r="AC13" s="486" t="s">
-        <v>709</v>
-      </c>
-      <c r="AD13" s="487" t="s">
-        <v>710</v>
-      </c>
-      <c r="AE13" s="487" t="s">
-        <v>711</v>
+      <c r="A13" s="484" t="s">
+        <v>729</v>
+      </c>
+      <c r="B13" s="485"/>
+      <c r="C13" s="485"/>
+      <c r="D13" s="485"/>
+      <c r="E13" s="485"/>
+      <c r="F13" s="485"/>
+      <c r="G13" s="485"/>
+      <c r="H13" s="485"/>
+      <c r="I13" s="485"/>
+      <c r="J13" s="486" t="s">
+        <v>730</v>
+      </c>
+      <c r="K13" s="486" t="s">
+        <v>731</v>
+      </c>
+      <c r="L13" s="487" t="s">
+        <v>732</v>
+      </c>
+      <c r="M13" s="487" t="s">
+        <v>733</v>
+      </c>
+      <c r="N13" s="487" t="s">
+        <v>734</v>
+      </c>
+      <c r="O13" s="487" t="s">
+        <v>735</v>
+      </c>
+      <c r="P13" s="487" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q13" s="487" t="s">
+        <v>737</v>
+      </c>
+      <c r="R13" s="486" t="s">
+        <v>738</v>
+      </c>
+      <c r="S13" s="487" t="s">
+        <v>739</v>
+      </c>
+      <c r="T13" s="487" t="s">
+        <v>740</v>
+      </c>
+      <c r="U13" s="487" t="s">
+        <v>741</v>
+      </c>
+      <c r="V13" s="487" t="s">
+        <v>742</v>
+      </c>
+      <c r="W13" s="487" t="s">
+        <v>743</v>
+      </c>
+      <c r="X13" s="487" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y13" s="487" t="s">
+        <v>745</v>
+      </c>
+      <c r="Z13" s="486" t="s">
+        <v>746</v>
+      </c>
+      <c r="AA13" s="487" t="s">
+        <v>747</v>
+      </c>
+      <c r="AB13" s="487" t="s">
+        <v>748</v>
+      </c>
+      <c r="AC13" s="488" t="s">
+        <v>749</v>
+      </c>
+      <c r="AD13" s="489" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE13" s="489" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I14" s="488" t="s">
-        <v>712</v>
+      <c r="I14" s="490" t="s">
+        <v>752</v>
       </c>
       <c r="J14" s="276" t="n">
         <v>102</v>
@@ -27006,691 +27094,691 @@
       <c r="AE14" s="276" t="n">
         <v>1013</v>
       </c>
-      <c r="AJ14" s="481"/>
-      <c r="AK14" s="489" t="s">
-        <v>713</v>
-      </c>
-      <c r="AL14" s="489"/>
-      <c r="AM14" s="489"/>
-      <c r="AN14" s="489"/>
-      <c r="AO14" s="489"/>
-      <c r="AP14" s="489"/>
-      <c r="AQ14" s="489"/>
-      <c r="AR14" s="489"/>
-      <c r="AS14" s="489"/>
-      <c r="AT14" s="489"/>
-      <c r="AU14" s="489"/>
-      <c r="AV14" s="489"/>
-      <c r="AW14" s="489"/>
-      <c r="AX14" s="489"/>
-      <c r="AY14" s="489"/>
-      <c r="AZ14" s="489"/>
-    </row>
-    <row r="15" s="497" customFormat="true" ht="26.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="490" t="s">
-        <v>578</v>
-      </c>
-      <c r="B15" s="490" t="s">
-        <v>714</v>
-      </c>
-      <c r="C15" s="490" t="s">
-        <v>715</v>
-      </c>
-      <c r="D15" s="490" t="s">
-        <v>716</v>
-      </c>
-      <c r="E15" s="491" t="s">
-        <v>717</v>
-      </c>
-      <c r="F15" s="490" t="s">
-        <v>718</v>
-      </c>
-      <c r="G15" s="492" t="s">
-        <v>719</v>
-      </c>
-      <c r="H15" s="490" t="s">
-        <v>720</v>
-      </c>
-      <c r="I15" s="490" t="s">
-        <v>721</v>
-      </c>
-      <c r="J15" s="493" t="s">
-        <v>722</v>
-      </c>
-      <c r="K15" s="493" t="s">
-        <v>723</v>
-      </c>
-      <c r="L15" s="493" t="s">
-        <v>724</v>
-      </c>
-      <c r="M15" s="493" t="s">
-        <v>725</v>
-      </c>
-      <c r="N15" s="493" t="s">
-        <v>726</v>
-      </c>
-      <c r="O15" s="493" t="s">
-        <v>727</v>
-      </c>
-      <c r="P15" s="493" t="s">
-        <v>728</v>
-      </c>
-      <c r="Q15" s="493" t="s">
-        <v>729</v>
-      </c>
-      <c r="R15" s="493" t="s">
-        <v>730</v>
-      </c>
-      <c r="S15" s="493" t="s">
-        <v>731</v>
-      </c>
-      <c r="T15" s="493" t="s">
-        <v>732</v>
-      </c>
-      <c r="U15" s="493" t="s">
-        <v>733</v>
-      </c>
-      <c r="V15" s="493" t="s">
-        <v>734</v>
-      </c>
-      <c r="W15" s="493" t="s">
-        <v>735</v>
-      </c>
-      <c r="X15" s="493" t="s">
-        <v>736</v>
-      </c>
-      <c r="Y15" s="493" t="s">
-        <v>737</v>
-      </c>
-      <c r="Z15" s="493" t="s">
-        <v>738</v>
-      </c>
-      <c r="AA15" s="493" t="s">
-        <v>739</v>
-      </c>
-      <c r="AB15" s="493" t="s">
-        <v>740</v>
-      </c>
-      <c r="AC15" s="493" t="s">
-        <v>741</v>
-      </c>
-      <c r="AD15" s="493" t="s">
-        <v>742</v>
-      </c>
-      <c r="AE15" s="493" t="s">
-        <v>743</v>
-      </c>
-      <c r="AF15" s="493" t="s">
-        <v>744</v>
-      </c>
-      <c r="AG15" s="493" t="s">
-        <v>745</v>
-      </c>
-      <c r="AH15" s="494" t="s">
-        <v>746</v>
-      </c>
-      <c r="AI15" s="495" t="s">
-        <v>747</v>
-      </c>
-      <c r="AJ15" s="496" t="s">
-        <v>748</v>
-      </c>
-      <c r="AK15" s="497" t="s">
-        <v>749</v>
-      </c>
-      <c r="AL15" s="497" t="s">
-        <v>750</v>
-      </c>
-      <c r="AM15" s="497" t="s">
-        <v>751</v>
-      </c>
-      <c r="AN15" s="497" t="s">
-        <v>752</v>
-      </c>
-      <c r="AO15" s="497" t="s">
+      <c r="AJ14" s="483"/>
+      <c r="AK14" s="491" t="s">
         <v>753</v>
       </c>
-      <c r="AP15" s="497" t="s">
+      <c r="AL14" s="491"/>
+      <c r="AM14" s="491"/>
+      <c r="AN14" s="491"/>
+      <c r="AO14" s="491"/>
+      <c r="AP14" s="491"/>
+      <c r="AQ14" s="491"/>
+      <c r="AR14" s="491"/>
+      <c r="AS14" s="491"/>
+      <c r="AT14" s="491"/>
+      <c r="AU14" s="491"/>
+      <c r="AV14" s="491"/>
+      <c r="AW14" s="491"/>
+      <c r="AX14" s="491"/>
+      <c r="AY14" s="491"/>
+      <c r="AZ14" s="491"/>
+    </row>
+    <row r="15" s="499" customFormat="true" ht="26.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="492" t="s">
+        <v>620</v>
+      </c>
+      <c r="B15" s="492" t="s">
         <v>754</v>
       </c>
-      <c r="AQ15" s="497" t="s">
+      <c r="C15" s="492" t="s">
         <v>755</v>
       </c>
-      <c r="AR15" s="497" t="s">
+      <c r="D15" s="492" t="s">
         <v>756</v>
       </c>
-      <c r="AS15" s="497" t="s">
+      <c r="E15" s="493" t="s">
         <v>757</v>
       </c>
-      <c r="AT15" s="497" t="s">
+      <c r="F15" s="492" t="s">
         <v>758</v>
       </c>
-      <c r="AU15" s="497" t="s">
+      <c r="G15" s="494" t="s">
         <v>759</v>
       </c>
-      <c r="AV15" s="497" t="s">
+      <c r="H15" s="492" t="s">
         <v>760</v>
       </c>
-      <c r="AW15" s="497" t="s">
+      <c r="I15" s="492" t="s">
         <v>761</v>
       </c>
-      <c r="AX15" s="497" t="s">
+      <c r="J15" s="495" t="s">
         <v>762</v>
       </c>
-      <c r="AY15" s="497" t="s">
+      <c r="K15" s="495" t="s">
         <v>763</v>
       </c>
+      <c r="L15" s="495" t="s">
+        <v>764</v>
+      </c>
+      <c r="M15" s="495" t="s">
+        <v>765</v>
+      </c>
+      <c r="N15" s="495" t="s">
+        <v>766</v>
+      </c>
+      <c r="O15" s="495" t="s">
+        <v>767</v>
+      </c>
+      <c r="P15" s="495" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q15" s="495" t="s">
+        <v>769</v>
+      </c>
+      <c r="R15" s="495" t="s">
+        <v>770</v>
+      </c>
+      <c r="S15" s="495" t="s">
+        <v>771</v>
+      </c>
+      <c r="T15" s="495" t="s">
+        <v>772</v>
+      </c>
+      <c r="U15" s="495" t="s">
+        <v>773</v>
+      </c>
+      <c r="V15" s="495" t="s">
+        <v>774</v>
+      </c>
+      <c r="W15" s="495" t="s">
+        <v>775</v>
+      </c>
+      <c r="X15" s="495" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y15" s="495" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z15" s="495" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA15" s="495" t="s">
+        <v>779</v>
+      </c>
+      <c r="AB15" s="495" t="s">
+        <v>780</v>
+      </c>
+      <c r="AC15" s="495" t="s">
+        <v>781</v>
+      </c>
+      <c r="AD15" s="495" t="s">
+        <v>782</v>
+      </c>
+      <c r="AE15" s="495" t="s">
+        <v>783</v>
+      </c>
+      <c r="AF15" s="495" t="s">
+        <v>784</v>
+      </c>
+      <c r="AG15" s="495" t="s">
+        <v>785</v>
+      </c>
+      <c r="AH15" s="496" t="s">
+        <v>786</v>
+      </c>
+      <c r="AI15" s="497" t="s">
+        <v>787</v>
+      </c>
+      <c r="AJ15" s="498" t="s">
+        <v>788</v>
+      </c>
+      <c r="AK15" s="499" t="s">
+        <v>789</v>
+      </c>
+      <c r="AL15" s="499" t="s">
+        <v>790</v>
+      </c>
+      <c r="AM15" s="499" t="s">
+        <v>791</v>
+      </c>
+      <c r="AN15" s="499" t="s">
+        <v>792</v>
+      </c>
+      <c r="AO15" s="499" t="s">
+        <v>793</v>
+      </c>
+      <c r="AP15" s="499" t="s">
+        <v>794</v>
+      </c>
+      <c r="AQ15" s="499" t="s">
+        <v>795</v>
+      </c>
+      <c r="AR15" s="499" t="s">
+        <v>796</v>
+      </c>
+      <c r="AS15" s="499" t="s">
+        <v>797</v>
+      </c>
+      <c r="AT15" s="499" t="s">
+        <v>798</v>
+      </c>
+      <c r="AU15" s="499" t="s">
+        <v>799</v>
+      </c>
+      <c r="AV15" s="499" t="s">
+        <v>800</v>
+      </c>
+      <c r="AW15" s="499" t="s">
+        <v>801</v>
+      </c>
+      <c r="AX15" s="499" t="s">
+        <v>802</v>
+      </c>
+      <c r="AY15" s="499" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AF16" s="498"/>
-      <c r="AG16" s="498"/>
+      <c r="AF16" s="500"/>
+      <c r="AG16" s="500"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="479" t="s">
-        <v>764</v>
-      </c>
-      <c r="B19" s="479"/>
-      <c r="C19" s="479"/>
-      <c r="D19" s="479"/>
-      <c r="E19" s="479"/>
-      <c r="F19" s="479"/>
-      <c r="G19" s="479"/>
-      <c r="H19" s="479"/>
-      <c r="I19" s="479"/>
-      <c r="J19" s="479"/>
-      <c r="K19" s="479"/>
-      <c r="L19" s="479"/>
-      <c r="M19" s="479"/>
-      <c r="N19" s="479"/>
-      <c r="O19" s="479"/>
-      <c r="P19" s="479"/>
-      <c r="Q19" s="479"/>
-      <c r="R19" s="479"/>
-      <c r="S19" s="479"/>
-      <c r="T19" s="479"/>
-      <c r="U19" s="479"/>
+      <c r="A19" s="481" t="s">
+        <v>804</v>
+      </c>
+      <c r="B19" s="481"/>
+      <c r="C19" s="481"/>
+      <c r="D19" s="481"/>
+      <c r="E19" s="481"/>
+      <c r="F19" s="481"/>
+      <c r="G19" s="481"/>
+      <c r="H19" s="481"/>
+      <c r="I19" s="481"/>
+      <c r="J19" s="481"/>
+      <c r="K19" s="481"/>
+      <c r="L19" s="481"/>
+      <c r="M19" s="481"/>
+      <c r="N19" s="481"/>
+      <c r="O19" s="481"/>
+      <c r="P19" s="481"/>
+      <c r="Q19" s="481"/>
+      <c r="R19" s="481"/>
+      <c r="S19" s="481"/>
+      <c r="T19" s="481"/>
+      <c r="U19" s="481"/>
       <c r="V19" s="0" t="s">
-        <v>765</v>
+        <v>805</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="479" t="s">
-        <v>766</v>
-      </c>
-      <c r="B20" s="479"/>
-      <c r="C20" s="479"/>
-      <c r="D20" s="479"/>
-      <c r="E20" s="479"/>
-      <c r="F20" s="479"/>
-      <c r="G20" s="479"/>
-      <c r="H20" s="479"/>
-      <c r="I20" s="479"/>
-      <c r="J20" s="479"/>
-      <c r="K20" s="479"/>
-      <c r="L20" s="479"/>
-      <c r="M20" s="479"/>
-      <c r="N20" s="479"/>
-      <c r="O20" s="479"/>
-      <c r="P20" s="479"/>
-      <c r="Q20" s="479"/>
-      <c r="R20" s="479"/>
-      <c r="S20" s="479"/>
-      <c r="T20" s="479"/>
-      <c r="U20" s="479"/>
+      <c r="A20" s="481" t="s">
+        <v>806</v>
+      </c>
+      <c r="B20" s="481"/>
+      <c r="C20" s="481"/>
+      <c r="D20" s="481"/>
+      <c r="E20" s="481"/>
+      <c r="F20" s="481"/>
+      <c r="G20" s="481"/>
+      <c r="H20" s="481"/>
+      <c r="I20" s="481"/>
+      <c r="J20" s="481"/>
+      <c r="K20" s="481"/>
+      <c r="L20" s="481"/>
+      <c r="M20" s="481"/>
+      <c r="N20" s="481"/>
+      <c r="O20" s="481"/>
+      <c r="P20" s="481"/>
+      <c r="Q20" s="481"/>
+      <c r="R20" s="481"/>
+      <c r="S20" s="481"/>
+      <c r="T20" s="481"/>
+      <c r="U20" s="481"/>
       <c r="V20" s="0" t="s">
-        <v>767</v>
+        <v>807</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="499" t="s">
-        <v>768</v>
-      </c>
-      <c r="B21" s="499" t="s">
-        <v>769</v>
-      </c>
-      <c r="C21" s="499" t="s">
+      <c r="A21" s="501" t="s">
+        <v>808</v>
+      </c>
+      <c r="B21" s="501" t="s">
+        <v>809</v>
+      </c>
+      <c r="C21" s="501" t="s">
         <v>556</v>
       </c>
-      <c r="D21" s="499" t="s">
-        <v>770</v>
-      </c>
-      <c r="E21" s="499" t="s">
-        <v>771</v>
-      </c>
-      <c r="F21" s="499" t="s">
-        <v>772</v>
-      </c>
-      <c r="G21" s="499" t="s">
-        <v>773</v>
-      </c>
-      <c r="H21" s="499" t="s">
-        <v>774</v>
-      </c>
-      <c r="I21" s="499" t="s">
-        <v>775</v>
-      </c>
-      <c r="J21" s="499" t="s">
-        <v>776</v>
-      </c>
-      <c r="K21" s="499" t="s">
-        <v>777</v>
+      <c r="D21" s="501" t="s">
+        <v>810</v>
+      </c>
+      <c r="E21" s="501" t="s">
+        <v>811</v>
+      </c>
+      <c r="F21" s="501" t="s">
+        <v>812</v>
+      </c>
+      <c r="G21" s="501" t="s">
+        <v>813</v>
+      </c>
+      <c r="H21" s="501" t="s">
+        <v>814</v>
+      </c>
+      <c r="I21" s="501" t="s">
+        <v>815</v>
+      </c>
+      <c r="J21" s="501" t="s">
+        <v>816</v>
+      </c>
+      <c r="K21" s="501" t="s">
+        <v>817</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>778</v>
+        <v>818</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M22" s="0" t="s">
-        <v>779</v>
+        <v>819</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M23" s="0" t="s">
-        <v>780</v>
+        <v>820</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="450" t="s">
-        <v>781</v>
-      </c>
-      <c r="B25" s="479"/>
-      <c r="C25" s="479"/>
-      <c r="D25" s="479"/>
-      <c r="E25" s="479"/>
-      <c r="F25" s="479"/>
-      <c r="G25" s="479"/>
-      <c r="H25" s="479"/>
-      <c r="I25" s="479"/>
-      <c r="J25" s="479"/>
-      <c r="K25" s="479"/>
-      <c r="L25" s="479"/>
+      <c r="A25" s="452" t="s">
+        <v>821</v>
+      </c>
+      <c r="B25" s="481"/>
+      <c r="C25" s="481"/>
+      <c r="D25" s="481"/>
+      <c r="E25" s="481"/>
+      <c r="F25" s="481"/>
+      <c r="G25" s="481"/>
+      <c r="H25" s="481"/>
+      <c r="I25" s="481"/>
+      <c r="J25" s="481"/>
+      <c r="K25" s="481"/>
+      <c r="L25" s="481"/>
       <c r="V25" s="100" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="26" s="455" customFormat="true" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="499" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="26" s="457" customFormat="true" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="501" t="s">
         <v>556</v>
       </c>
-      <c r="B26" s="499" t="s">
-        <v>783</v>
-      </c>
-      <c r="C26" s="499" t="s">
-        <v>784</v>
-      </c>
-      <c r="D26" s="499" t="s">
-        <v>785</v>
-      </c>
-      <c r="E26" s="499" t="s">
-        <v>786</v>
-      </c>
-      <c r="F26" s="499" t="s">
-        <v>787</v>
-      </c>
-      <c r="G26" s="499" t="s">
-        <v>788</v>
-      </c>
-      <c r="H26" s="499" t="s">
-        <v>789</v>
-      </c>
-      <c r="I26" s="499" t="s">
-        <v>790</v>
-      </c>
-      <c r="J26" s="499" t="s">
-        <v>791</v>
-      </c>
-      <c r="K26" s="499" t="s">
-        <v>792</v>
-      </c>
-      <c r="L26" s="499" t="s">
-        <v>793</v>
-      </c>
-      <c r="M26" s="499" t="s">
-        <v>794</v>
-      </c>
-      <c r="N26" s="499" t="s">
-        <v>795</v>
-      </c>
-      <c r="O26" s="500" t="s">
-        <v>796</v>
-      </c>
-      <c r="P26" s="501" t="s">
-        <v>797</v>
-      </c>
-      <c r="Q26" s="501" t="s">
-        <v>798</v>
-      </c>
-      <c r="R26" s="501" t="s">
-        <v>799</v>
-      </c>
-      <c r="S26" s="499" t="s">
-        <v>800</v>
-      </c>
-      <c r="T26" s="499" t="s">
-        <v>801</v>
-      </c>
-      <c r="U26" s="502" t="s">
-        <v>802</v>
-      </c>
-      <c r="V26" s="502" t="s">
-        <v>803</v>
-      </c>
-      <c r="W26" s="503" t="s">
-        <v>804</v>
-      </c>
-      <c r="X26" s="501" t="s">
-        <v>805</v>
-      </c>
-      <c r="Y26" s="501" t="s">
-        <v>806</v>
-      </c>
-      <c r="Z26" s="501" t="s">
-        <v>807</v>
-      </c>
-      <c r="AA26" s="501"/>
-      <c r="AB26" s="501"/>
-      <c r="AC26" s="504"/>
-      <c r="AD26" s="505"/>
-      <c r="AE26" s="501"/>
-      <c r="AF26" s="501"/>
-      <c r="AG26" s="506"/>
-      <c r="AH26" s="501"/>
-      <c r="AI26" s="501"/>
-      <c r="AJ26" s="507"/>
-      <c r="AK26" s="508"/>
-      <c r="AL26" s="509"/>
-      <c r="AM26" s="509"/>
-      <c r="AN26" s="510"/>
+      <c r="B26" s="501" t="s">
+        <v>823</v>
+      </c>
+      <c r="C26" s="501" t="s">
+        <v>824</v>
+      </c>
+      <c r="D26" s="501" t="s">
+        <v>825</v>
+      </c>
+      <c r="E26" s="501" t="s">
+        <v>826</v>
+      </c>
+      <c r="F26" s="501" t="s">
+        <v>827</v>
+      </c>
+      <c r="G26" s="501" t="s">
+        <v>828</v>
+      </c>
+      <c r="H26" s="501" t="s">
+        <v>829</v>
+      </c>
+      <c r="I26" s="501" t="s">
+        <v>830</v>
+      </c>
+      <c r="J26" s="501" t="s">
+        <v>831</v>
+      </c>
+      <c r="K26" s="501" t="s">
+        <v>832</v>
+      </c>
+      <c r="L26" s="501" t="s">
+        <v>833</v>
+      </c>
+      <c r="M26" s="501" t="s">
+        <v>834</v>
+      </c>
+      <c r="N26" s="501" t="s">
+        <v>835</v>
+      </c>
+      <c r="O26" s="502" t="s">
+        <v>836</v>
+      </c>
+      <c r="P26" s="503" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q26" s="503" t="s">
+        <v>838</v>
+      </c>
+      <c r="R26" s="503" t="s">
+        <v>839</v>
+      </c>
+      <c r="S26" s="501" t="s">
+        <v>840</v>
+      </c>
+      <c r="T26" s="501" t="s">
+        <v>841</v>
+      </c>
+      <c r="U26" s="504" t="s">
+        <v>842</v>
+      </c>
+      <c r="V26" s="504" t="s">
+        <v>843</v>
+      </c>
+      <c r="W26" s="505" t="s">
+        <v>844</v>
+      </c>
+      <c r="X26" s="503" t="s">
+        <v>845</v>
+      </c>
+      <c r="Y26" s="503" t="s">
+        <v>846</v>
+      </c>
+      <c r="Z26" s="503" t="s">
+        <v>847</v>
+      </c>
+      <c r="AA26" s="503"/>
+      <c r="AB26" s="503"/>
+      <c r="AC26" s="506"/>
+      <c r="AD26" s="507"/>
+      <c r="AE26" s="503"/>
+      <c r="AF26" s="503"/>
+      <c r="AG26" s="508"/>
+      <c r="AH26" s="503"/>
+      <c r="AI26" s="503"/>
+      <c r="AJ26" s="509"/>
+      <c r="AK26" s="510"/>
+      <c r="AL26" s="511"/>
+      <c r="AM26" s="511"/>
+      <c r="AN26" s="512"/>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="450" t="s">
+      <c r="A30" s="452" t="s">
+        <v>848</v>
+      </c>
+      <c r="B30" s="481"/>
+      <c r="C30" s="481"/>
+      <c r="D30" s="481"/>
+      <c r="E30" s="481"/>
+      <c r="F30" s="481"/>
+      <c r="G30" s="481"/>
+      <c r="H30" s="481"/>
+      <c r="I30" s="481"/>
+      <c r="J30" s="481"/>
+      <c r="K30" s="481"/>
+      <c r="L30" s="481"/>
+      <c r="V30" s="100"/>
+    </row>
+    <row r="31" customFormat="false" ht="49.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="501" t="s">
         <v>808</v>
       </c>
-      <c r="B30" s="479"/>
-      <c r="C30" s="479"/>
-      <c r="D30" s="479"/>
-      <c r="E30" s="479"/>
-      <c r="F30" s="479"/>
-      <c r="G30" s="479"/>
-      <c r="H30" s="479"/>
-      <c r="I30" s="479"/>
-      <c r="J30" s="479"/>
-      <c r="K30" s="479"/>
-      <c r="L30" s="479"/>
-      <c r="V30" s="100"/>
-    </row>
-    <row r="31" customFormat="false" ht="49.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="499" t="s">
-        <v>768</v>
-      </c>
-      <c r="B31" s="499" t="s">
-        <v>809</v>
-      </c>
-      <c r="C31" s="499" t="s">
-        <v>810</v>
-      </c>
-      <c r="D31" s="499" t="s">
-        <v>811</v>
-      </c>
-      <c r="E31" s="499" t="s">
-        <v>812</v>
-      </c>
-      <c r="F31" s="499" t="s">
-        <v>813</v>
-      </c>
-      <c r="G31" s="499" t="s">
-        <v>814</v>
-      </c>
-      <c r="H31" s="499" t="s">
-        <v>815</v>
-      </c>
-      <c r="I31" s="499" t="s">
-        <v>816</v>
-      </c>
-      <c r="J31" s="499" t="s">
-        <v>642</v>
-      </c>
-      <c r="K31" s="499" t="s">
-        <v>817</v>
-      </c>
-      <c r="L31" s="499" t="s">
-        <v>818</v>
-      </c>
-      <c r="M31" s="499" t="s">
-        <v>819</v>
-      </c>
-      <c r="N31" s="499" t="s">
-        <v>820</v>
-      </c>
-      <c r="O31" s="499" t="s">
-        <v>642</v>
-      </c>
-      <c r="P31" s="499" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q31" s="499" t="s">
-        <v>821</v>
+      <c r="B31" s="501" t="s">
+        <v>849</v>
+      </c>
+      <c r="C31" s="501" t="s">
+        <v>850</v>
+      </c>
+      <c r="D31" s="501" t="s">
+        <v>851</v>
+      </c>
+      <c r="E31" s="501" t="s">
+        <v>852</v>
+      </c>
+      <c r="F31" s="501" t="s">
+        <v>853</v>
+      </c>
+      <c r="G31" s="501" t="s">
+        <v>854</v>
+      </c>
+      <c r="H31" s="501" t="s">
+        <v>855</v>
+      </c>
+      <c r="I31" s="501" t="s">
+        <v>856</v>
+      </c>
+      <c r="J31" s="501" t="s">
+        <v>682</v>
+      </c>
+      <c r="K31" s="501" t="s">
+        <v>857</v>
+      </c>
+      <c r="L31" s="501" t="s">
+        <v>858</v>
+      </c>
+      <c r="M31" s="501" t="s">
+        <v>859</v>
+      </c>
+      <c r="N31" s="501" t="s">
+        <v>860</v>
+      </c>
+      <c r="O31" s="501" t="s">
+        <v>682</v>
+      </c>
+      <c r="P31" s="501" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q31" s="501" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="450" t="s">
-        <v>822</v>
-      </c>
-      <c r="B35" s="450"/>
-      <c r="C35" s="450"/>
-      <c r="D35" s="450"/>
-      <c r="E35" s="450"/>
-      <c r="F35" s="450"/>
-      <c r="G35" s="450"/>
-      <c r="H35" s="450"/>
-      <c r="I35" s="450"/>
-      <c r="J35" s="450"/>
-      <c r="K35" s="450"/>
-      <c r="L35" s="450"/>
+      <c r="A35" s="452" t="s">
+        <v>862</v>
+      </c>
+      <c r="B35" s="452"/>
+      <c r="C35" s="452"/>
+      <c r="D35" s="452"/>
+      <c r="E35" s="452"/>
+      <c r="F35" s="452"/>
+      <c r="G35" s="452"/>
+      <c r="H35" s="452"/>
+      <c r="I35" s="452"/>
+      <c r="J35" s="452"/>
+      <c r="K35" s="452"/>
+      <c r="L35" s="452"/>
     </row>
     <row r="36" s="250" customFormat="true" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="511"/>
-      <c r="B36" s="511"/>
-      <c r="C36" s="511"/>
-      <c r="D36" s="511"/>
-      <c r="E36" s="511"/>
-      <c r="F36" s="511"/>
-      <c r="G36" s="511"/>
-      <c r="H36" s="511"/>
-      <c r="I36" s="511"/>
-      <c r="J36" s="455"/>
-      <c r="K36" s="455"/>
-      <c r="L36" s="455"/>
-      <c r="M36" s="455"/>
-      <c r="N36" s="455"/>
-      <c r="O36" s="455"/>
-      <c r="P36" s="455"/>
-      <c r="Q36" s="455"/>
-      <c r="R36" s="455"/>
-      <c r="S36" s="455"/>
-      <c r="T36" s="455"/>
-      <c r="U36" s="455"/>
-      <c r="V36" s="455"/>
-      <c r="W36" s="455"/>
+      <c r="A36" s="513"/>
+      <c r="B36" s="513"/>
+      <c r="C36" s="513"/>
+      <c r="D36" s="513"/>
+      <c r="E36" s="513"/>
+      <c r="F36" s="513"/>
+      <c r="G36" s="513"/>
+      <c r="H36" s="513"/>
+      <c r="I36" s="513"/>
+      <c r="J36" s="457"/>
+      <c r="K36" s="457"/>
+      <c r="L36" s="457"/>
+      <c r="M36" s="457"/>
+      <c r="N36" s="457"/>
+      <c r="O36" s="457"/>
+      <c r="P36" s="457"/>
+      <c r="Q36" s="457"/>
+      <c r="R36" s="457"/>
+      <c r="S36" s="457"/>
+      <c r="T36" s="457"/>
+      <c r="U36" s="457"/>
+      <c r="V36" s="457"/>
+      <c r="W36" s="457"/>
     </row>
     <row r="37" s="250" customFormat="true" ht="48.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="455"/>
-      <c r="B37" s="455"/>
-      <c r="C37" s="455"/>
-      <c r="D37" s="455"/>
-      <c r="E37" s="455"/>
-      <c r="F37" s="455"/>
-      <c r="G37" s="455"/>
-      <c r="H37" s="455"/>
-      <c r="I37" s="455"/>
-      <c r="J37" s="455"/>
-      <c r="K37" s="455"/>
-      <c r="L37" s="455"/>
-      <c r="M37" s="455"/>
-      <c r="N37" s="455"/>
-      <c r="O37" s="455"/>
-      <c r="P37" s="455"/>
-      <c r="Q37" s="455"/>
-      <c r="R37" s="455"/>
-      <c r="S37" s="455"/>
-      <c r="T37" s="455"/>
-      <c r="U37" s="455"/>
-      <c r="V37" s="455"/>
-      <c r="W37" s="455"/>
+      <c r="A37" s="457"/>
+      <c r="B37" s="457"/>
+      <c r="C37" s="457"/>
+      <c r="D37" s="457"/>
+      <c r="E37" s="457"/>
+      <c r="F37" s="457"/>
+      <c r="G37" s="457"/>
+      <c r="H37" s="457"/>
+      <c r="I37" s="457"/>
+      <c r="J37" s="457"/>
+      <c r="K37" s="457"/>
+      <c r="L37" s="457"/>
+      <c r="M37" s="457"/>
+      <c r="N37" s="457"/>
+      <c r="O37" s="457"/>
+      <c r="P37" s="457"/>
+      <c r="Q37" s="457"/>
+      <c r="R37" s="457"/>
+      <c r="S37" s="457"/>
+      <c r="T37" s="457"/>
+      <c r="U37" s="457"/>
+      <c r="V37" s="457"/>
+      <c r="W37" s="457"/>
     </row>
     <row r="38" s="250" customFormat="true" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="511"/>
-      <c r="B38" s="511"/>
-      <c r="C38" s="511"/>
-      <c r="D38" s="511"/>
-      <c r="E38" s="511"/>
-      <c r="F38" s="511"/>
-      <c r="G38" s="511"/>
-      <c r="H38" s="511"/>
-      <c r="I38" s="455"/>
-      <c r="J38" s="455"/>
-      <c r="K38" s="455"/>
-      <c r="L38" s="455"/>
-      <c r="M38" s="455"/>
-      <c r="N38" s="455"/>
-      <c r="O38" s="455"/>
-      <c r="P38" s="455"/>
-      <c r="Q38" s="455"/>
-      <c r="R38" s="455"/>
-      <c r="S38" s="455"/>
-      <c r="T38" s="455"/>
-      <c r="U38" s="455"/>
-      <c r="V38" s="455"/>
-      <c r="W38" s="455"/>
+      <c r="A38" s="513"/>
+      <c r="B38" s="513"/>
+      <c r="C38" s="513"/>
+      <c r="D38" s="513"/>
+      <c r="E38" s="513"/>
+      <c r="F38" s="513"/>
+      <c r="G38" s="513"/>
+      <c r="H38" s="513"/>
+      <c r="I38" s="457"/>
+      <c r="J38" s="457"/>
+      <c r="K38" s="457"/>
+      <c r="L38" s="457"/>
+      <c r="M38" s="457"/>
+      <c r="N38" s="457"/>
+      <c r="O38" s="457"/>
+      <c r="P38" s="457"/>
+      <c r="Q38" s="457"/>
+      <c r="R38" s="457"/>
+      <c r="S38" s="457"/>
+      <c r="T38" s="457"/>
+      <c r="U38" s="457"/>
+      <c r="V38" s="457"/>
+      <c r="W38" s="457"/>
     </row>
     <row r="39" s="250" customFormat="true" ht="44.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="455"/>
-      <c r="B39" s="455"/>
-      <c r="C39" s="455"/>
-      <c r="D39" s="455"/>
-      <c r="E39" s="455"/>
-      <c r="F39" s="455"/>
-      <c r="G39" s="455"/>
-      <c r="H39" s="455"/>
-      <c r="I39" s="455"/>
-      <c r="J39" s="455"/>
-      <c r="K39" s="455"/>
-      <c r="L39" s="455"/>
-      <c r="M39" s="455"/>
-      <c r="N39" s="455"/>
-      <c r="O39" s="455"/>
-      <c r="P39" s="455"/>
-      <c r="Q39" s="455"/>
-      <c r="R39" s="455"/>
-      <c r="S39" s="455"/>
-      <c r="T39" s="455"/>
-      <c r="U39" s="455"/>
-      <c r="V39" s="455"/>
-      <c r="W39" s="455"/>
+      <c r="A39" s="457"/>
+      <c r="B39" s="457"/>
+      <c r="C39" s="457"/>
+      <c r="D39" s="457"/>
+      <c r="E39" s="457"/>
+      <c r="F39" s="457"/>
+      <c r="G39" s="457"/>
+      <c r="H39" s="457"/>
+      <c r="I39" s="457"/>
+      <c r="J39" s="457"/>
+      <c r="K39" s="457"/>
+      <c r="L39" s="457"/>
+      <c r="M39" s="457"/>
+      <c r="N39" s="457"/>
+      <c r="O39" s="457"/>
+      <c r="P39" s="457"/>
+      <c r="Q39" s="457"/>
+      <c r="R39" s="457"/>
+      <c r="S39" s="457"/>
+      <c r="T39" s="457"/>
+      <c r="U39" s="457"/>
+      <c r="V39" s="457"/>
+      <c r="W39" s="457"/>
     </row>
     <row r="40" s="250" customFormat="true" ht="35.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="511"/>
-      <c r="B40" s="511"/>
-      <c r="C40" s="511"/>
-      <c r="D40" s="511"/>
-      <c r="E40" s="511"/>
-      <c r="F40" s="511"/>
-      <c r="G40" s="511"/>
-      <c r="H40" s="455"/>
-      <c r="I40" s="455"/>
-      <c r="J40" s="455"/>
-      <c r="K40" s="455"/>
-      <c r="L40" s="455"/>
-      <c r="M40" s="455"/>
-      <c r="N40" s="455"/>
-      <c r="O40" s="455"/>
-      <c r="P40" s="455"/>
-      <c r="Q40" s="455"/>
-      <c r="R40" s="455"/>
-      <c r="S40" s="455"/>
-      <c r="T40" s="455"/>
-      <c r="U40" s="455"/>
-      <c r="V40" s="455"/>
-      <c r="W40" s="455"/>
+      <c r="A40" s="513"/>
+      <c r="B40" s="513"/>
+      <c r="C40" s="513"/>
+      <c r="D40" s="513"/>
+      <c r="E40" s="513"/>
+      <c r="F40" s="513"/>
+      <c r="G40" s="513"/>
+      <c r="H40" s="457"/>
+      <c r="I40" s="457"/>
+      <c r="J40" s="457"/>
+      <c r="K40" s="457"/>
+      <c r="L40" s="457"/>
+      <c r="M40" s="457"/>
+      <c r="N40" s="457"/>
+      <c r="O40" s="457"/>
+      <c r="P40" s="457"/>
+      <c r="Q40" s="457"/>
+      <c r="R40" s="457"/>
+      <c r="S40" s="457"/>
+      <c r="T40" s="457"/>
+      <c r="U40" s="457"/>
+      <c r="V40" s="457"/>
+      <c r="W40" s="457"/>
     </row>
     <row r="41" s="250" customFormat="true" ht="44.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="455"/>
-      <c r="B41" s="455"/>
-      <c r="C41" s="455"/>
-      <c r="D41" s="455"/>
-      <c r="E41" s="455"/>
-      <c r="F41" s="455"/>
-      <c r="G41" s="455"/>
-      <c r="H41" s="455"/>
-      <c r="I41" s="455"/>
-      <c r="J41" s="455"/>
-      <c r="K41" s="455"/>
-      <c r="L41" s="455"/>
-      <c r="M41" s="455"/>
-      <c r="N41" s="455"/>
-      <c r="O41" s="455"/>
-      <c r="P41" s="455"/>
-      <c r="Q41" s="455"/>
-      <c r="R41" s="455"/>
-      <c r="S41" s="455"/>
-      <c r="T41" s="455"/>
-      <c r="U41" s="455"/>
-      <c r="V41" s="455"/>
-      <c r="W41" s="455"/>
+      <c r="A41" s="457"/>
+      <c r="B41" s="457"/>
+      <c r="C41" s="457"/>
+      <c r="D41" s="457"/>
+      <c r="E41" s="457"/>
+      <c r="F41" s="457"/>
+      <c r="G41" s="457"/>
+      <c r="H41" s="457"/>
+      <c r="I41" s="457"/>
+      <c r="J41" s="457"/>
+      <c r="K41" s="457"/>
+      <c r="L41" s="457"/>
+      <c r="M41" s="457"/>
+      <c r="N41" s="457"/>
+      <c r="O41" s="457"/>
+      <c r="P41" s="457"/>
+      <c r="Q41" s="457"/>
+      <c r="R41" s="457"/>
+      <c r="S41" s="457"/>
+      <c r="T41" s="457"/>
+      <c r="U41" s="457"/>
+      <c r="V41" s="457"/>
+      <c r="W41" s="457"/>
     </row>
     <row r="42" s="250" customFormat="true" ht="41.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="511"/>
-      <c r="B42" s="511"/>
-      <c r="C42" s="511"/>
-      <c r="D42" s="511"/>
-      <c r="E42" s="511"/>
-      <c r="F42" s="511"/>
-      <c r="G42" s="511"/>
-      <c r="H42" s="511"/>
-      <c r="I42" s="511"/>
-      <c r="J42" s="511"/>
-      <c r="K42" s="511"/>
-      <c r="L42" s="511"/>
-      <c r="M42" s="511"/>
-      <c r="N42" s="511"/>
-      <c r="O42" s="511"/>
-      <c r="P42" s="511"/>
-      <c r="Q42" s="511"/>
-      <c r="R42" s="511"/>
-      <c r="S42" s="511"/>
-      <c r="T42" s="511"/>
-      <c r="U42" s="511"/>
-      <c r="V42" s="511"/>
-      <c r="W42" s="455"/>
+      <c r="A42" s="513"/>
+      <c r="B42" s="513"/>
+      <c r="C42" s="513"/>
+      <c r="D42" s="513"/>
+      <c r="E42" s="513"/>
+      <c r="F42" s="513"/>
+      <c r="G42" s="513"/>
+      <c r="H42" s="513"/>
+      <c r="I42" s="513"/>
+      <c r="J42" s="513"/>
+      <c r="K42" s="513"/>
+      <c r="L42" s="513"/>
+      <c r="M42" s="513"/>
+      <c r="N42" s="513"/>
+      <c r="O42" s="513"/>
+      <c r="P42" s="513"/>
+      <c r="Q42" s="513"/>
+      <c r="R42" s="513"/>
+      <c r="S42" s="513"/>
+      <c r="T42" s="513"/>
+      <c r="U42" s="513"/>
+      <c r="V42" s="513"/>
+      <c r="W42" s="457"/>
     </row>
     <row r="43" s="250" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="455"/>
-      <c r="B43" s="455"/>
-      <c r="C43" s="455"/>
-      <c r="D43" s="455"/>
-      <c r="E43" s="455"/>
-      <c r="F43" s="455"/>
-      <c r="G43" s="455"/>
-      <c r="H43" s="455"/>
-      <c r="I43" s="455"/>
-      <c r="J43" s="455"/>
-      <c r="K43" s="455"/>
-      <c r="L43" s="455"/>
-      <c r="M43" s="455"/>
-      <c r="N43" s="455"/>
-      <c r="O43" s="455"/>
-      <c r="P43" s="455"/>
-      <c r="Q43" s="455"/>
-      <c r="R43" s="455"/>
-      <c r="S43" s="455"/>
-      <c r="T43" s="455"/>
-      <c r="U43" s="455"/>
-      <c r="V43" s="455"/>
-      <c r="W43" s="455"/>
+      <c r="A43" s="457"/>
+      <c r="B43" s="457"/>
+      <c r="C43" s="457"/>
+      <c r="D43" s="457"/>
+      <c r="E43" s="457"/>
+      <c r="F43" s="457"/>
+      <c r="G43" s="457"/>
+      <c r="H43" s="457"/>
+      <c r="I43" s="457"/>
+      <c r="J43" s="457"/>
+      <c r="K43" s="457"/>
+      <c r="L43" s="457"/>
+      <c r="M43" s="457"/>
+      <c r="N43" s="457"/>
+      <c r="O43" s="457"/>
+      <c r="P43" s="457"/>
+      <c r="Q43" s="457"/>
+      <c r="R43" s="457"/>
+      <c r="S43" s="457"/>
+      <c r="T43" s="457"/>
+      <c r="U43" s="457"/>
+      <c r="V43" s="457"/>
+      <c r="W43" s="457"/>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="250"/>
@@ -27706,47 +27794,47 @@
       <c r="K44" s="250"/>
       <c r="L44" s="250"/>
     </row>
-    <row r="46" s="513" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="512" t="s">
-        <v>823</v>
-      </c>
-      <c r="B46" s="450"/>
-      <c r="C46" s="450"/>
-      <c r="D46" s="450"/>
-      <c r="E46" s="450"/>
-      <c r="F46" s="450"/>
-      <c r="G46" s="450"/>
+    <row r="46" s="515" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="514" t="s">
+        <v>863</v>
+      </c>
+      <c r="B46" s="452"/>
+      <c r="C46" s="452"/>
+      <c r="D46" s="452"/>
+      <c r="E46" s="452"/>
+      <c r="F46" s="452"/>
+      <c r="G46" s="452"/>
     </row>
     <row r="47" customFormat="false" ht="38.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="511" t="s">
-        <v>824</v>
-      </c>
-      <c r="B47" s="511" t="s">
-        <v>825</v>
-      </c>
-      <c r="C47" s="511" t="s">
-        <v>826</v>
-      </c>
-      <c r="D47" s="511" t="s">
-        <v>827</v>
-      </c>
-      <c r="E47" s="511" t="s">
-        <v>828</v>
-      </c>
-      <c r="F47" s="511" t="s">
-        <v>829</v>
-      </c>
-      <c r="G47" s="499" t="s">
-        <v>830</v>
-      </c>
-      <c r="H47" s="499" t="s">
-        <v>831</v>
-      </c>
-      <c r="I47" s="499" t="s">
-        <v>832</v>
-      </c>
-      <c r="J47" s="499" t="s">
-        <v>833</v>
+      <c r="A47" s="513" t="s">
+        <v>864</v>
+      </c>
+      <c r="B47" s="513" t="s">
+        <v>865</v>
+      </c>
+      <c r="C47" s="513" t="s">
+        <v>866</v>
+      </c>
+      <c r="D47" s="513" t="s">
+        <v>867</v>
+      </c>
+      <c r="E47" s="513" t="s">
+        <v>868</v>
+      </c>
+      <c r="F47" s="513" t="s">
+        <v>869</v>
+      </c>
+      <c r="G47" s="501" t="s">
+        <v>870</v>
+      </c>
+      <c r="H47" s="501" t="s">
+        <v>871</v>
+      </c>
+      <c r="I47" s="501" t="s">
+        <v>872</v>
+      </c>
+      <c r="J47" s="501" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="32.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27759,23 +27847,23 @@
       <c r="G48" s="250"/>
     </row>
     <row r="49" customFormat="false" ht="39.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="511" t="s">
-        <v>834</v>
-      </c>
-      <c r="B49" s="511"/>
-      <c r="C49" s="511"/>
-      <c r="D49" s="511"/>
-      <c r="E49" s="511"/>
-      <c r="F49" s="511"/>
-      <c r="G49" s="511"/>
-      <c r="H49" s="511"/>
-      <c r="I49" s="511"/>
-      <c r="J49" s="499"/>
-      <c r="K49" s="499"/>
-      <c r="L49" s="499"/>
-      <c r="M49" s="499"/>
-      <c r="N49" s="499"/>
-      <c r="O49" s="499"/>
+      <c r="A49" s="513" t="s">
+        <v>874</v>
+      </c>
+      <c r="B49" s="513"/>
+      <c r="C49" s="513"/>
+      <c r="D49" s="513"/>
+      <c r="E49" s="513"/>
+      <c r="F49" s="513"/>
+      <c r="G49" s="513"/>
+      <c r="H49" s="513"/>
+      <c r="I49" s="513"/>
+      <c r="J49" s="501"/>
+      <c r="K49" s="501"/>
+      <c r="L49" s="501"/>
+      <c r="M49" s="501"/>
+      <c r="N49" s="501"/>
+      <c r="O49" s="501"/>
     </row>
     <row r="50" customFormat="false" ht="32.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="250"/>
@@ -27793,817 +27881,817 @@
       <c r="M50" s="250"/>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="514" t="s">
-        <v>835</v>
+      <c r="A52" s="516" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>836</v>
+        <v>876</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="27.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>837</v>
+        <v>877</v>
       </c>
     </row>
     <row r="55" s="250" customFormat="true" ht="55.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="511"/>
-      <c r="B55" s="511"/>
-      <c r="C55" s="511"/>
-      <c r="D55" s="511"/>
-      <c r="E55" s="511"/>
-      <c r="F55" s="511"/>
-      <c r="G55" s="499"/>
+      <c r="A55" s="513"/>
+      <c r="B55" s="513"/>
+      <c r="C55" s="513"/>
+      <c r="D55" s="513"/>
+      <c r="E55" s="513"/>
+      <c r="F55" s="513"/>
+      <c r="G55" s="501"/>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="512" t="s">
-        <v>838</v>
-      </c>
-      <c r="B59" s="512"/>
-      <c r="C59" s="512"/>
-      <c r="D59" s="512"/>
-      <c r="E59" s="512"/>
-      <c r="F59" s="512"/>
-      <c r="G59" s="512"/>
-      <c r="H59" s="512"/>
-      <c r="I59" s="512"/>
-      <c r="J59" s="512"/>
-      <c r="K59" s="512"/>
-      <c r="L59" s="512"/>
-      <c r="M59" s="512"/>
+      <c r="A59" s="514" t="s">
+        <v>878</v>
+      </c>
+      <c r="B59" s="514"/>
+      <c r="C59" s="514"/>
+      <c r="D59" s="514"/>
+      <c r="E59" s="514"/>
+      <c r="F59" s="514"/>
+      <c r="G59" s="514"/>
+      <c r="H59" s="514"/>
+      <c r="I59" s="514"/>
+      <c r="J59" s="514"/>
+      <c r="K59" s="514"/>
+      <c r="L59" s="514"/>
+      <c r="M59" s="514"/>
     </row>
     <row r="60" customFormat="false" ht="28.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="515"/>
-      <c r="B60" s="515"/>
-      <c r="C60" s="515"/>
-      <c r="D60" s="499" t="s">
-        <v>839</v>
-      </c>
-      <c r="E60" s="499"/>
-      <c r="F60" s="499"/>
-      <c r="G60" s="499"/>
-      <c r="H60" s="499"/>
-      <c r="I60" s="499"/>
-      <c r="J60" s="499" t="s">
-        <v>840</v>
-      </c>
-      <c r="K60" s="499"/>
-      <c r="L60" s="499"/>
-      <c r="M60" s="499"/>
-      <c r="N60" s="499" t="s">
-        <v>841</v>
-      </c>
-      <c r="O60" s="516"/>
-      <c r="P60" s="516"/>
-      <c r="Q60" s="499" t="s">
-        <v>842</v>
-      </c>
-      <c r="R60" s="499"/>
-      <c r="S60" s="499"/>
-      <c r="T60" s="499"/>
-      <c r="U60" s="499"/>
+      <c r="A60" s="517"/>
+      <c r="B60" s="517"/>
+      <c r="C60" s="517"/>
+      <c r="D60" s="501" t="s">
+        <v>879</v>
+      </c>
+      <c r="E60" s="501"/>
+      <c r="F60" s="501"/>
+      <c r="G60" s="501"/>
+      <c r="H60" s="501"/>
+      <c r="I60" s="501"/>
+      <c r="J60" s="501" t="s">
+        <v>880</v>
+      </c>
+      <c r="K60" s="501"/>
+      <c r="L60" s="501"/>
+      <c r="M60" s="501"/>
+      <c r="N60" s="501" t="s">
+        <v>881</v>
+      </c>
+      <c r="O60" s="518"/>
+      <c r="P60" s="518"/>
+      <c r="Q60" s="501" t="s">
+        <v>882</v>
+      </c>
+      <c r="R60" s="501"/>
+      <c r="S60" s="501"/>
+      <c r="T60" s="501"/>
+      <c r="U60" s="501"/>
     </row>
     <row r="61" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="499" t="s">
-        <v>843</v>
-      </c>
-      <c r="B61" s="499" t="s">
-        <v>844</v>
-      </c>
-      <c r="C61" s="499" t="s">
-        <v>845</v>
-      </c>
-      <c r="D61" s="499" t="s">
-        <v>846</v>
-      </c>
-      <c r="E61" s="499" t="s">
-        <v>847</v>
-      </c>
-      <c r="F61" s="499" t="s">
-        <v>848</v>
-      </c>
-      <c r="H61" s="517" t="s">
-        <v>849</v>
-      </c>
-      <c r="I61" s="517" t="s">
-        <v>850</v>
-      </c>
-      <c r="J61" s="499" t="s">
-        <v>851</v>
-      </c>
-      <c r="K61" s="499" t="s">
-        <v>852</v>
-      </c>
-      <c r="L61" s="499" t="s">
-        <v>853</v>
-      </c>
-      <c r="M61" s="499" t="s">
-        <v>854</v>
-      </c>
-      <c r="N61" s="499" t="s">
-        <v>855</v>
-      </c>
-      <c r="O61" s="499" t="s">
-        <v>856</v>
-      </c>
-      <c r="P61" s="499" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q61" s="499" t="s">
-        <v>858</v>
-      </c>
-      <c r="R61" s="499" t="s">
-        <v>859</v>
-      </c>
-      <c r="S61" s="499" t="s">
-        <v>860</v>
-      </c>
-      <c r="T61" s="499" t="s">
-        <v>861</v>
-      </c>
-      <c r="U61" s="499" t="s">
-        <v>862</v>
-      </c>
-      <c r="V61" s="517" t="s">
-        <v>863</v>
-      </c>
-      <c r="W61" s="517" t="s">
-        <v>864</v>
+      <c r="A61" s="501" t="s">
+        <v>883</v>
+      </c>
+      <c r="B61" s="501" t="s">
+        <v>884</v>
+      </c>
+      <c r="C61" s="501" t="s">
+        <v>885</v>
+      </c>
+      <c r="D61" s="501" t="s">
+        <v>886</v>
+      </c>
+      <c r="E61" s="501" t="s">
+        <v>887</v>
+      </c>
+      <c r="F61" s="501" t="s">
+        <v>888</v>
+      </c>
+      <c r="H61" s="519" t="s">
+        <v>889</v>
+      </c>
+      <c r="I61" s="519" t="s">
+        <v>890</v>
+      </c>
+      <c r="J61" s="501" t="s">
+        <v>891</v>
+      </c>
+      <c r="K61" s="501" t="s">
+        <v>892</v>
+      </c>
+      <c r="L61" s="501" t="s">
+        <v>893</v>
+      </c>
+      <c r="M61" s="501" t="s">
+        <v>894</v>
+      </c>
+      <c r="N61" s="501" t="s">
+        <v>895</v>
+      </c>
+      <c r="O61" s="501" t="s">
+        <v>896</v>
+      </c>
+      <c r="P61" s="501" t="s">
+        <v>897</v>
+      </c>
+      <c r="Q61" s="501" t="s">
+        <v>898</v>
+      </c>
+      <c r="R61" s="501" t="s">
+        <v>899</v>
+      </c>
+      <c r="S61" s="501" t="s">
+        <v>900</v>
+      </c>
+      <c r="T61" s="501" t="s">
+        <v>901</v>
+      </c>
+      <c r="U61" s="501" t="s">
+        <v>902</v>
+      </c>
+      <c r="V61" s="519" t="s">
+        <v>903</v>
+      </c>
+      <c r="W61" s="519" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="62" s="250" customFormat="true" ht="38.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>865</v>
+        <v>905</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="264" t="s">
+        <v>906</v>
+      </c>
+      <c r="D65" s="520" t="s">
+        <v>907</v>
+      </c>
+      <c r="E65" s="521" t="s">
+        <v>908</v>
+      </c>
+      <c r="F65" s="521" t="s">
         <v>866</v>
       </c>
-      <c r="D65" s="518" t="s">
-        <v>867</v>
-      </c>
-      <c r="E65" s="519" t="s">
+      <c r="G65" s="358" t="s">
+        <v>909</v>
+      </c>
+      <c r="H65" s="521" t="s">
         <v>868</v>
       </c>
-      <c r="F65" s="519" t="s">
-        <v>826</v>
-      </c>
-      <c r="G65" s="358" t="s">
-        <v>869</v>
-      </c>
-      <c r="H65" s="519" t="s">
-        <v>828</v>
-      </c>
-      <c r="I65" s="518" t="s">
-        <v>870</v>
-      </c>
-      <c r="J65" s="518" t="s">
-        <v>871</v>
-      </c>
-      <c r="K65" s="518" t="s">
-        <v>872</v>
-      </c>
-      <c r="L65" s="518" t="s">
-        <v>873</v>
-      </c>
-      <c r="M65" s="518" t="s">
-        <v>874</v>
+      <c r="I65" s="520" t="s">
+        <v>910</v>
+      </c>
+      <c r="J65" s="520" t="s">
+        <v>911</v>
+      </c>
+      <c r="K65" s="520" t="s">
+        <v>912</v>
+      </c>
+      <c r="L65" s="520" t="s">
+        <v>913</v>
+      </c>
+      <c r="M65" s="520" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>875</v>
+        <v>915</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="518"/>
-      <c r="E68" s="519"/>
-      <c r="F68" s="519"/>
+      <c r="D68" s="520"/>
+      <c r="E68" s="521"/>
+      <c r="F68" s="521"/>
       <c r="G68" s="358"/>
-      <c r="H68" s="519"/>
-      <c r="I68" s="518"/>
-      <c r="J68" s="518"/>
-      <c r="K68" s="519"/>
-      <c r="L68" s="518"/>
-      <c r="M68" s="519"/>
-      <c r="N68" s="519"/>
+      <c r="H68" s="521"/>
+      <c r="I68" s="520"/>
+      <c r="J68" s="520"/>
+      <c r="K68" s="521"/>
+      <c r="L68" s="520"/>
+      <c r="M68" s="521"/>
+      <c r="N68" s="521"/>
       <c r="O68" s="358"/>
-      <c r="P68" s="519"/>
-      <c r="Q68" s="518"/>
-      <c r="R68" s="518"/>
+      <c r="P68" s="521"/>
+      <c r="Q68" s="520"/>
+      <c r="R68" s="520"/>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="479" t="s">
-        <v>876</v>
-      </c>
-      <c r="B71" s="479"/>
-      <c r="C71" s="479"/>
-      <c r="D71" s="479"/>
-      <c r="E71" s="479"/>
-      <c r="F71" s="479"/>
-      <c r="G71" s="479"/>
-      <c r="H71" s="479"/>
-      <c r="I71" s="479"/>
-      <c r="J71" s="479"/>
-      <c r="K71" s="479"/>
-      <c r="L71" s="479"/>
+      <c r="A71" s="481" t="s">
+        <v>916</v>
+      </c>
+      <c r="B71" s="481"/>
+      <c r="C71" s="481"/>
+      <c r="D71" s="481"/>
+      <c r="E71" s="481"/>
+      <c r="F71" s="481"/>
+      <c r="G71" s="481"/>
+      <c r="H71" s="481"/>
+      <c r="I71" s="481"/>
+      <c r="J71" s="481"/>
+      <c r="K71" s="481"/>
+      <c r="L71" s="481"/>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="499" t="s">
+      <c r="A72" s="501" t="s">
         <v>542</v>
       </c>
-      <c r="B72" s="499"/>
-      <c r="C72" s="499"/>
-      <c r="D72" s="499" t="s">
-        <v>877</v>
-      </c>
-      <c r="E72" s="499"/>
-      <c r="F72" s="499" t="s">
-        <v>878</v>
-      </c>
-      <c r="G72" s="499"/>
-      <c r="H72" s="499"/>
-      <c r="I72" s="499" t="s">
+      <c r="B72" s="501"/>
+      <c r="C72" s="501"/>
+      <c r="D72" s="501" t="s">
+        <v>917</v>
+      </c>
+      <c r="E72" s="501"/>
+      <c r="F72" s="501" t="s">
+        <v>918</v>
+      </c>
+      <c r="G72" s="501"/>
+      <c r="H72" s="501"/>
+      <c r="I72" s="501" t="s">
         <v>546</v>
       </c>
-      <c r="J72" s="499" t="s">
-        <v>879</v>
-      </c>
-      <c r="K72" s="499" t="s">
-        <v>880</v>
-      </c>
-      <c r="L72" s="499" t="s">
-        <v>881</v>
+      <c r="J72" s="501" t="s">
+        <v>919</v>
+      </c>
+      <c r="K72" s="501" t="s">
+        <v>920</v>
+      </c>
+      <c r="L72" s="501" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="520"/>
-      <c r="B73" s="520"/>
-      <c r="C73" s="520"/>
-      <c r="D73" s="520"/>
-      <c r="E73" s="520"/>
-      <c r="F73" s="520"/>
-      <c r="G73" s="520"/>
-      <c r="H73" s="520"/>
-      <c r="I73" s="520"/>
-      <c r="J73" s="520"/>
-      <c r="K73" s="520"/>
+      <c r="A73" s="522"/>
+      <c r="B73" s="522"/>
+      <c r="C73" s="522"/>
+      <c r="D73" s="522"/>
+      <c r="E73" s="522"/>
+      <c r="F73" s="522"/>
+      <c r="G73" s="522"/>
+      <c r="H73" s="522"/>
+      <c r="I73" s="522"/>
+      <c r="J73" s="522"/>
+      <c r="K73" s="522"/>
       <c r="L73" s="250"/>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="520"/>
-      <c r="B74" s="520"/>
-      <c r="C74" s="520"/>
-      <c r="D74" s="520"/>
-      <c r="E74" s="520"/>
-      <c r="F74" s="520"/>
-      <c r="G74" s="520"/>
-      <c r="H74" s="520"/>
-      <c r="I74" s="520"/>
-      <c r="J74" s="520"/>
-      <c r="K74" s="520"/>
+      <c r="A74" s="522"/>
+      <c r="B74" s="522"/>
+      <c r="C74" s="522"/>
+      <c r="D74" s="522"/>
+      <c r="E74" s="522"/>
+      <c r="F74" s="522"/>
+      <c r="G74" s="522"/>
+      <c r="H74" s="522"/>
+      <c r="I74" s="522"/>
+      <c r="J74" s="522"/>
+      <c r="K74" s="522"/>
       <c r="L74" s="250"/>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="520"/>
-      <c r="B75" s="520"/>
-      <c r="C75" s="520"/>
-      <c r="D75" s="520"/>
-      <c r="E75" s="520"/>
-      <c r="F75" s="520"/>
-      <c r="G75" s="520"/>
-      <c r="H75" s="520"/>
-      <c r="I75" s="520"/>
-      <c r="J75" s="520"/>
-      <c r="K75" s="520"/>
+      <c r="A75" s="522"/>
+      <c r="B75" s="522"/>
+      <c r="C75" s="522"/>
+      <c r="D75" s="522"/>
+      <c r="E75" s="522"/>
+      <c r="F75" s="522"/>
+      <c r="G75" s="522"/>
+      <c r="H75" s="522"/>
+      <c r="I75" s="522"/>
+      <c r="J75" s="522"/>
+      <c r="K75" s="522"/>
       <c r="L75" s="250"/>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="520"/>
-      <c r="B76" s="520"/>
-      <c r="C76" s="520"/>
-      <c r="D76" s="520"/>
-      <c r="E76" s="520"/>
-      <c r="F76" s="520"/>
-      <c r="G76" s="520"/>
-      <c r="H76" s="520"/>
-      <c r="I76" s="520"/>
-      <c r="J76" s="520"/>
-      <c r="K76" s="520"/>
+      <c r="A76" s="522"/>
+      <c r="B76" s="522"/>
+      <c r="C76" s="522"/>
+      <c r="D76" s="522"/>
+      <c r="E76" s="522"/>
+      <c r="F76" s="522"/>
+      <c r="G76" s="522"/>
+      <c r="H76" s="522"/>
+      <c r="I76" s="522"/>
+      <c r="J76" s="522"/>
+      <c r="K76" s="522"/>
       <c r="L76" s="250"/>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="520"/>
-      <c r="B77" s="520"/>
-      <c r="C77" s="520"/>
-      <c r="D77" s="520"/>
-      <c r="E77" s="520"/>
-      <c r="F77" s="520"/>
-      <c r="G77" s="520"/>
-      <c r="H77" s="520"/>
-      <c r="I77" s="520"/>
-      <c r="J77" s="520"/>
-      <c r="K77" s="520"/>
+      <c r="A77" s="522"/>
+      <c r="B77" s="522"/>
+      <c r="C77" s="522"/>
+      <c r="D77" s="522"/>
+      <c r="E77" s="522"/>
+      <c r="F77" s="522"/>
+      <c r="G77" s="522"/>
+      <c r="H77" s="522"/>
+      <c r="I77" s="522"/>
+      <c r="J77" s="522"/>
+      <c r="K77" s="522"/>
       <c r="L77" s="250"/>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="520"/>
-      <c r="B78" s="520"/>
-      <c r="C78" s="520"/>
-      <c r="D78" s="520"/>
-      <c r="E78" s="520"/>
-      <c r="F78" s="520"/>
-      <c r="G78" s="520"/>
-      <c r="H78" s="520"/>
-      <c r="I78" s="520"/>
-      <c r="J78" s="520"/>
-      <c r="K78" s="520"/>
+      <c r="A78" s="522"/>
+      <c r="B78" s="522"/>
+      <c r="C78" s="522"/>
+      <c r="D78" s="522"/>
+      <c r="E78" s="522"/>
+      <c r="F78" s="522"/>
+      <c r="G78" s="522"/>
+      <c r="H78" s="522"/>
+      <c r="I78" s="522"/>
+      <c r="J78" s="522"/>
+      <c r="K78" s="522"/>
       <c r="L78" s="250"/>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="520"/>
-      <c r="B79" s="520"/>
-      <c r="C79" s="520"/>
-      <c r="D79" s="520"/>
-      <c r="E79" s="520"/>
-      <c r="F79" s="520"/>
-      <c r="G79" s="520"/>
-      <c r="H79" s="520"/>
-      <c r="I79" s="520"/>
-      <c r="J79" s="520"/>
-      <c r="K79" s="520"/>
+      <c r="A79" s="522"/>
+      <c r="B79" s="522"/>
+      <c r="C79" s="522"/>
+      <c r="D79" s="522"/>
+      <c r="E79" s="522"/>
+      <c r="F79" s="522"/>
+      <c r="G79" s="522"/>
+      <c r="H79" s="522"/>
+      <c r="I79" s="522"/>
+      <c r="J79" s="522"/>
+      <c r="K79" s="522"/>
       <c r="L79" s="250"/>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="520"/>
-      <c r="B80" s="520"/>
-      <c r="C80" s="520"/>
-      <c r="D80" s="520"/>
-      <c r="E80" s="520"/>
-      <c r="F80" s="520"/>
-      <c r="G80" s="520"/>
-      <c r="H80" s="520"/>
-      <c r="I80" s="520"/>
-      <c r="J80" s="520"/>
-      <c r="K80" s="520"/>
+      <c r="A80" s="522"/>
+      <c r="B80" s="522"/>
+      <c r="C80" s="522"/>
+      <c r="D80" s="522"/>
+      <c r="E80" s="522"/>
+      <c r="F80" s="522"/>
+      <c r="G80" s="522"/>
+      <c r="H80" s="522"/>
+      <c r="I80" s="522"/>
+      <c r="J80" s="522"/>
+      <c r="K80" s="522"/>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="520"/>
-      <c r="B81" s="520"/>
-      <c r="C81" s="520"/>
-      <c r="D81" s="520"/>
-      <c r="E81" s="520"/>
-      <c r="F81" s="520"/>
-      <c r="G81" s="520"/>
-      <c r="H81" s="520"/>
-      <c r="I81" s="520"/>
-      <c r="J81" s="520"/>
-      <c r="K81" s="520"/>
+      <c r="A81" s="522"/>
+      <c r="B81" s="522"/>
+      <c r="C81" s="522"/>
+      <c r="D81" s="522"/>
+      <c r="E81" s="522"/>
+      <c r="F81" s="522"/>
+      <c r="G81" s="522"/>
+      <c r="H81" s="522"/>
+      <c r="I81" s="522"/>
+      <c r="J81" s="522"/>
+      <c r="K81" s="522"/>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="520"/>
-      <c r="B82" s="520"/>
-      <c r="C82" s="520"/>
-      <c r="D82" s="520"/>
-      <c r="E82" s="520"/>
-      <c r="F82" s="520"/>
-      <c r="G82" s="520"/>
-      <c r="H82" s="520"/>
-      <c r="I82" s="520"/>
-      <c r="J82" s="520"/>
-      <c r="K82" s="520"/>
+      <c r="A82" s="522"/>
+      <c r="B82" s="522"/>
+      <c r="C82" s="522"/>
+      <c r="D82" s="522"/>
+      <c r="E82" s="522"/>
+      <c r="F82" s="522"/>
+      <c r="G82" s="522"/>
+      <c r="H82" s="522"/>
+      <c r="I82" s="522"/>
+      <c r="J82" s="522"/>
+      <c r="K82" s="522"/>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="520"/>
-      <c r="B83" s="520"/>
-      <c r="C83" s="520"/>
-      <c r="D83" s="520"/>
-      <c r="E83" s="520"/>
-      <c r="F83" s="520"/>
-      <c r="G83" s="520"/>
-      <c r="H83" s="520"/>
-      <c r="I83" s="520"/>
-      <c r="J83" s="520"/>
-      <c r="K83" s="520"/>
+      <c r="A83" s="522"/>
+      <c r="B83" s="522"/>
+      <c r="C83" s="522"/>
+      <c r="D83" s="522"/>
+      <c r="E83" s="522"/>
+      <c r="F83" s="522"/>
+      <c r="G83" s="522"/>
+      <c r="H83" s="522"/>
+      <c r="I83" s="522"/>
+      <c r="J83" s="522"/>
+      <c r="K83" s="522"/>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="520"/>
-      <c r="B84" s="520"/>
-      <c r="C84" s="520"/>
-      <c r="D84" s="520"/>
-      <c r="E84" s="520"/>
-      <c r="F84" s="520"/>
-      <c r="G84" s="520"/>
-      <c r="H84" s="520"/>
-      <c r="I84" s="520"/>
-      <c r="J84" s="520"/>
-      <c r="K84" s="520"/>
+      <c r="A84" s="522"/>
+      <c r="B84" s="522"/>
+      <c r="C84" s="522"/>
+      <c r="D84" s="522"/>
+      <c r="E84" s="522"/>
+      <c r="F84" s="522"/>
+      <c r="G84" s="522"/>
+      <c r="H84" s="522"/>
+      <c r="I84" s="522"/>
+      <c r="J84" s="522"/>
+      <c r="K84" s="522"/>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="520"/>
-      <c r="B85" s="520"/>
-      <c r="C85" s="520"/>
-      <c r="D85" s="520"/>
-      <c r="E85" s="520"/>
-      <c r="F85" s="520"/>
-      <c r="G85" s="520"/>
-      <c r="H85" s="520"/>
-      <c r="I85" s="520"/>
-      <c r="J85" s="520"/>
-      <c r="K85" s="520"/>
+      <c r="A85" s="522"/>
+      <c r="B85" s="522"/>
+      <c r="C85" s="522"/>
+      <c r="D85" s="522"/>
+      <c r="E85" s="522"/>
+      <c r="F85" s="522"/>
+      <c r="G85" s="522"/>
+      <c r="H85" s="522"/>
+      <c r="I85" s="522"/>
+      <c r="J85" s="522"/>
+      <c r="K85" s="522"/>
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="520"/>
-      <c r="B86" s="520"/>
-      <c r="C86" s="520"/>
-      <c r="D86" s="520"/>
-      <c r="E86" s="520"/>
-      <c r="F86" s="520"/>
-      <c r="G86" s="520"/>
-      <c r="H86" s="520"/>
-      <c r="I86" s="520"/>
-      <c r="J86" s="520"/>
-      <c r="K86" s="520"/>
+      <c r="A86" s="522"/>
+      <c r="B86" s="522"/>
+      <c r="C86" s="522"/>
+      <c r="D86" s="522"/>
+      <c r="E86" s="522"/>
+      <c r="F86" s="522"/>
+      <c r="G86" s="522"/>
+      <c r="H86" s="522"/>
+      <c r="I86" s="522"/>
+      <c r="J86" s="522"/>
+      <c r="K86" s="522"/>
     </row>
     <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="520"/>
-      <c r="B87" s="520"/>
-      <c r="C87" s="520"/>
-      <c r="D87" s="520"/>
-      <c r="E87" s="520"/>
-      <c r="F87" s="520"/>
-      <c r="G87" s="520"/>
-      <c r="H87" s="520"/>
-      <c r="I87" s="520"/>
-      <c r="J87" s="520"/>
-      <c r="K87" s="520"/>
+      <c r="A87" s="522"/>
+      <c r="B87" s="522"/>
+      <c r="C87" s="522"/>
+      <c r="D87" s="522"/>
+      <c r="E87" s="522"/>
+      <c r="F87" s="522"/>
+      <c r="G87" s="522"/>
+      <c r="H87" s="522"/>
+      <c r="I87" s="522"/>
+      <c r="J87" s="522"/>
+      <c r="K87" s="522"/>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="520"/>
-      <c r="B88" s="520"/>
-      <c r="C88" s="520"/>
-      <c r="D88" s="520"/>
-      <c r="E88" s="520"/>
-      <c r="F88" s="520"/>
-      <c r="G88" s="520"/>
-      <c r="H88" s="520"/>
-      <c r="I88" s="520"/>
-      <c r="J88" s="520"/>
-      <c r="K88" s="520"/>
+      <c r="A88" s="522"/>
+      <c r="B88" s="522"/>
+      <c r="C88" s="522"/>
+      <c r="D88" s="522"/>
+      <c r="E88" s="522"/>
+      <c r="F88" s="522"/>
+      <c r="G88" s="522"/>
+      <c r="H88" s="522"/>
+      <c r="I88" s="522"/>
+      <c r="J88" s="522"/>
+      <c r="K88" s="522"/>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="520"/>
-      <c r="B89" s="520"/>
-      <c r="C89" s="520"/>
-      <c r="D89" s="520"/>
-      <c r="E89" s="520"/>
-      <c r="F89" s="520"/>
-      <c r="G89" s="520"/>
-      <c r="H89" s="520"/>
-      <c r="I89" s="520"/>
-      <c r="J89" s="520"/>
-      <c r="K89" s="520"/>
+      <c r="A89" s="522"/>
+      <c r="B89" s="522"/>
+      <c r="C89" s="522"/>
+      <c r="D89" s="522"/>
+      <c r="E89" s="522"/>
+      <c r="F89" s="522"/>
+      <c r="G89" s="522"/>
+      <c r="H89" s="522"/>
+      <c r="I89" s="522"/>
+      <c r="J89" s="522"/>
+      <c r="K89" s="522"/>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="520"/>
-      <c r="B90" s="520"/>
-      <c r="C90" s="520"/>
-      <c r="D90" s="520"/>
-      <c r="E90" s="520"/>
-      <c r="F90" s="520"/>
-      <c r="G90" s="520"/>
-      <c r="H90" s="520"/>
-      <c r="I90" s="520"/>
-      <c r="J90" s="520"/>
-      <c r="K90" s="520"/>
+      <c r="A90" s="522"/>
+      <c r="B90" s="522"/>
+      <c r="C90" s="522"/>
+      <c r="D90" s="522"/>
+      <c r="E90" s="522"/>
+      <c r="F90" s="522"/>
+      <c r="G90" s="522"/>
+      <c r="H90" s="522"/>
+      <c r="I90" s="522"/>
+      <c r="J90" s="522"/>
+      <c r="K90" s="522"/>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="520"/>
-      <c r="B91" s="520"/>
-      <c r="C91" s="520"/>
-      <c r="D91" s="520"/>
-      <c r="E91" s="520"/>
-      <c r="F91" s="520"/>
-      <c r="G91" s="520"/>
-      <c r="H91" s="520"/>
-      <c r="I91" s="520"/>
-      <c r="J91" s="520"/>
-      <c r="K91" s="520"/>
+      <c r="A91" s="522"/>
+      <c r="B91" s="522"/>
+      <c r="C91" s="522"/>
+      <c r="D91" s="522"/>
+      <c r="E91" s="522"/>
+      <c r="F91" s="522"/>
+      <c r="G91" s="522"/>
+      <c r="H91" s="522"/>
+      <c r="I91" s="522"/>
+      <c r="J91" s="522"/>
+      <c r="K91" s="522"/>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="520"/>
-      <c r="B92" s="520"/>
-      <c r="C92" s="520"/>
-      <c r="D92" s="520"/>
-      <c r="E92" s="520"/>
-      <c r="F92" s="520"/>
-      <c r="G92" s="520"/>
-      <c r="H92" s="520"/>
-      <c r="I92" s="520"/>
-      <c r="J92" s="520"/>
-      <c r="K92" s="520"/>
+      <c r="A92" s="522"/>
+      <c r="B92" s="522"/>
+      <c r="C92" s="522"/>
+      <c r="D92" s="522"/>
+      <c r="E92" s="522"/>
+      <c r="F92" s="522"/>
+      <c r="G92" s="522"/>
+      <c r="H92" s="522"/>
+      <c r="I92" s="522"/>
+      <c r="J92" s="522"/>
+      <c r="K92" s="522"/>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="520"/>
-      <c r="B93" s="520"/>
-      <c r="C93" s="520"/>
-      <c r="D93" s="520"/>
-      <c r="E93" s="520"/>
-      <c r="F93" s="520"/>
-      <c r="G93" s="520"/>
-      <c r="H93" s="520"/>
-      <c r="I93" s="520"/>
-      <c r="J93" s="520"/>
-      <c r="K93" s="520"/>
+      <c r="A93" s="522"/>
+      <c r="B93" s="522"/>
+      <c r="C93" s="522"/>
+      <c r="D93" s="522"/>
+      <c r="E93" s="522"/>
+      <c r="F93" s="522"/>
+      <c r="G93" s="522"/>
+      <c r="H93" s="522"/>
+      <c r="I93" s="522"/>
+      <c r="J93" s="522"/>
+      <c r="K93" s="522"/>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="520"/>
-      <c r="B94" s="520"/>
-      <c r="C94" s="520"/>
-      <c r="D94" s="520"/>
-      <c r="E94" s="520"/>
-      <c r="F94" s="520"/>
-      <c r="G94" s="520"/>
-      <c r="H94" s="520"/>
-      <c r="I94" s="520"/>
-      <c r="J94" s="520"/>
-      <c r="K94" s="520"/>
+      <c r="A94" s="522"/>
+      <c r="B94" s="522"/>
+      <c r="C94" s="522"/>
+      <c r="D94" s="522"/>
+      <c r="E94" s="522"/>
+      <c r="F94" s="522"/>
+      <c r="G94" s="522"/>
+      <c r="H94" s="522"/>
+      <c r="I94" s="522"/>
+      <c r="J94" s="522"/>
+      <c r="K94" s="522"/>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="520"/>
-      <c r="B95" s="520"/>
-      <c r="C95" s="520"/>
-      <c r="D95" s="520"/>
-      <c r="E95" s="520"/>
-      <c r="F95" s="520"/>
-      <c r="G95" s="520"/>
-      <c r="H95" s="520"/>
-      <c r="I95" s="520"/>
-      <c r="J95" s="520"/>
-      <c r="K95" s="520"/>
+      <c r="A95" s="522"/>
+      <c r="B95" s="522"/>
+      <c r="C95" s="522"/>
+      <c r="D95" s="522"/>
+      <c r="E95" s="522"/>
+      <c r="F95" s="522"/>
+      <c r="G95" s="522"/>
+      <c r="H95" s="522"/>
+      <c r="I95" s="522"/>
+      <c r="J95" s="522"/>
+      <c r="K95" s="522"/>
     </row>
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="520"/>
-      <c r="B96" s="520"/>
-      <c r="C96" s="520"/>
-      <c r="D96" s="520"/>
-      <c r="E96" s="520"/>
-      <c r="F96" s="520"/>
-      <c r="G96" s="520"/>
-      <c r="H96" s="520"/>
-      <c r="I96" s="520"/>
-      <c r="J96" s="520"/>
-      <c r="K96" s="520"/>
+      <c r="A96" s="522"/>
+      <c r="B96" s="522"/>
+      <c r="C96" s="522"/>
+      <c r="D96" s="522"/>
+      <c r="E96" s="522"/>
+      <c r="F96" s="522"/>
+      <c r="G96" s="522"/>
+      <c r="H96" s="522"/>
+      <c r="I96" s="522"/>
+      <c r="J96" s="522"/>
+      <c r="K96" s="522"/>
     </row>
     <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="520"/>
-      <c r="B97" s="520"/>
-      <c r="C97" s="520"/>
-      <c r="D97" s="520"/>
-      <c r="E97" s="520"/>
-      <c r="F97" s="520"/>
-      <c r="G97" s="520"/>
-      <c r="H97" s="520"/>
-      <c r="I97" s="520"/>
-      <c r="J97" s="520"/>
-      <c r="K97" s="520"/>
+      <c r="A97" s="522"/>
+      <c r="B97" s="522"/>
+      <c r="C97" s="522"/>
+      <c r="D97" s="522"/>
+      <c r="E97" s="522"/>
+      <c r="F97" s="522"/>
+      <c r="G97" s="522"/>
+      <c r="H97" s="522"/>
+      <c r="I97" s="522"/>
+      <c r="J97" s="522"/>
+      <c r="K97" s="522"/>
     </row>
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="520"/>
-      <c r="B98" s="520"/>
-      <c r="C98" s="520"/>
-      <c r="D98" s="520"/>
-      <c r="E98" s="520"/>
-      <c r="F98" s="520"/>
-      <c r="G98" s="520"/>
-      <c r="H98" s="520"/>
-      <c r="I98" s="520"/>
-      <c r="J98" s="520"/>
-      <c r="K98" s="520"/>
+      <c r="A98" s="522"/>
+      <c r="B98" s="522"/>
+      <c r="C98" s="522"/>
+      <c r="D98" s="522"/>
+      <c r="E98" s="522"/>
+      <c r="F98" s="522"/>
+      <c r="G98" s="522"/>
+      <c r="H98" s="522"/>
+      <c r="I98" s="522"/>
+      <c r="J98" s="522"/>
+      <c r="K98" s="522"/>
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="520"/>
-      <c r="B99" s="520"/>
-      <c r="C99" s="520"/>
-      <c r="D99" s="520"/>
-      <c r="E99" s="520"/>
-      <c r="F99" s="520"/>
-      <c r="G99" s="520"/>
-      <c r="H99" s="520"/>
-      <c r="I99" s="520"/>
-      <c r="J99" s="520"/>
-      <c r="K99" s="520"/>
+      <c r="A99" s="522"/>
+      <c r="B99" s="522"/>
+      <c r="C99" s="522"/>
+      <c r="D99" s="522"/>
+      <c r="E99" s="522"/>
+      <c r="F99" s="522"/>
+      <c r="G99" s="522"/>
+      <c r="H99" s="522"/>
+      <c r="I99" s="522"/>
+      <c r="J99" s="522"/>
+      <c r="K99" s="522"/>
     </row>
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="520"/>
-      <c r="B100" s="520"/>
-      <c r="C100" s="520"/>
-      <c r="D100" s="520"/>
-      <c r="E100" s="520"/>
-      <c r="F100" s="520"/>
-      <c r="G100" s="520"/>
-      <c r="H100" s="520"/>
-      <c r="I100" s="520"/>
-      <c r="J100" s="520"/>
-      <c r="K100" s="520"/>
+      <c r="A100" s="522"/>
+      <c r="B100" s="522"/>
+      <c r="C100" s="522"/>
+      <c r="D100" s="522"/>
+      <c r="E100" s="522"/>
+      <c r="F100" s="522"/>
+      <c r="G100" s="522"/>
+      <c r="H100" s="522"/>
+      <c r="I100" s="522"/>
+      <c r="J100" s="522"/>
+      <c r="K100" s="522"/>
     </row>
     <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="520"/>
-      <c r="B101" s="520"/>
-      <c r="C101" s="520"/>
-      <c r="D101" s="520"/>
-      <c r="E101" s="520"/>
-      <c r="F101" s="520"/>
-      <c r="G101" s="520"/>
-      <c r="H101" s="520"/>
-      <c r="I101" s="520"/>
-      <c r="J101" s="520"/>
-      <c r="K101" s="520"/>
+      <c r="A101" s="522"/>
+      <c r="B101" s="522"/>
+      <c r="C101" s="522"/>
+      <c r="D101" s="522"/>
+      <c r="E101" s="522"/>
+      <c r="F101" s="522"/>
+      <c r="G101" s="522"/>
+      <c r="H101" s="522"/>
+      <c r="I101" s="522"/>
+      <c r="J101" s="522"/>
+      <c r="K101" s="522"/>
     </row>
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="520"/>
-      <c r="B102" s="520"/>
-      <c r="C102" s="520"/>
-      <c r="D102" s="520"/>
-      <c r="E102" s="520"/>
-      <c r="F102" s="520"/>
-      <c r="G102" s="520"/>
-      <c r="H102" s="520"/>
-      <c r="I102" s="520"/>
-      <c r="J102" s="520"/>
-      <c r="K102" s="520"/>
+      <c r="A102" s="522"/>
+      <c r="B102" s="522"/>
+      <c r="C102" s="522"/>
+      <c r="D102" s="522"/>
+      <c r="E102" s="522"/>
+      <c r="F102" s="522"/>
+      <c r="G102" s="522"/>
+      <c r="H102" s="522"/>
+      <c r="I102" s="522"/>
+      <c r="J102" s="522"/>
+      <c r="K102" s="522"/>
     </row>
     <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="520"/>
-      <c r="B103" s="520"/>
-      <c r="C103" s="520"/>
-      <c r="D103" s="520"/>
-      <c r="E103" s="520"/>
-      <c r="F103" s="520"/>
-      <c r="G103" s="520"/>
-      <c r="H103" s="520"/>
-      <c r="I103" s="520"/>
-      <c r="J103" s="520"/>
-      <c r="K103" s="520"/>
+      <c r="A103" s="522"/>
+      <c r="B103" s="522"/>
+      <c r="C103" s="522"/>
+      <c r="D103" s="522"/>
+      <c r="E103" s="522"/>
+      <c r="F103" s="522"/>
+      <c r="G103" s="522"/>
+      <c r="H103" s="522"/>
+      <c r="I103" s="522"/>
+      <c r="J103" s="522"/>
+      <c r="K103" s="522"/>
     </row>
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="520"/>
-      <c r="B104" s="520"/>
-      <c r="C104" s="520"/>
-      <c r="D104" s="520"/>
-      <c r="E104" s="520"/>
-      <c r="F104" s="520"/>
-      <c r="G104" s="520"/>
-      <c r="H104" s="520"/>
-      <c r="I104" s="520"/>
-      <c r="J104" s="520"/>
-      <c r="K104" s="520"/>
+      <c r="A104" s="522"/>
+      <c r="B104" s="522"/>
+      <c r="C104" s="522"/>
+      <c r="D104" s="522"/>
+      <c r="E104" s="522"/>
+      <c r="F104" s="522"/>
+      <c r="G104" s="522"/>
+      <c r="H104" s="522"/>
+      <c r="I104" s="522"/>
+      <c r="J104" s="522"/>
+      <c r="K104" s="522"/>
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="520"/>
-      <c r="B105" s="520"/>
-      <c r="C105" s="520"/>
-      <c r="D105" s="520"/>
-      <c r="E105" s="520"/>
-      <c r="F105" s="520"/>
-      <c r="G105" s="520"/>
-      <c r="H105" s="520"/>
-      <c r="I105" s="520"/>
-      <c r="J105" s="520"/>
-      <c r="K105" s="520"/>
+      <c r="A105" s="522"/>
+      <c r="B105" s="522"/>
+      <c r="C105" s="522"/>
+      <c r="D105" s="522"/>
+      <c r="E105" s="522"/>
+      <c r="F105" s="522"/>
+      <c r="G105" s="522"/>
+      <c r="H105" s="522"/>
+      <c r="I105" s="522"/>
+      <c r="J105" s="522"/>
+      <c r="K105" s="522"/>
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="520"/>
-      <c r="B106" s="520"/>
-      <c r="C106" s="520"/>
-      <c r="D106" s="520"/>
-      <c r="E106" s="520"/>
-      <c r="F106" s="520"/>
-      <c r="G106" s="520"/>
-      <c r="H106" s="520"/>
-      <c r="I106" s="520"/>
-      <c r="J106" s="520"/>
-      <c r="K106" s="520"/>
+      <c r="A106" s="522"/>
+      <c r="B106" s="522"/>
+      <c r="C106" s="522"/>
+      <c r="D106" s="522"/>
+      <c r="E106" s="522"/>
+      <c r="F106" s="522"/>
+      <c r="G106" s="522"/>
+      <c r="H106" s="522"/>
+      <c r="I106" s="522"/>
+      <c r="J106" s="522"/>
+      <c r="K106" s="522"/>
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="520"/>
-      <c r="B107" s="520"/>
-      <c r="C107" s="520"/>
-      <c r="D107" s="520"/>
-      <c r="E107" s="520"/>
-      <c r="F107" s="520"/>
-      <c r="G107" s="520"/>
-      <c r="H107" s="520"/>
-      <c r="I107" s="520"/>
-      <c r="J107" s="520"/>
-      <c r="K107" s="520"/>
+      <c r="A107" s="522"/>
+      <c r="B107" s="522"/>
+      <c r="C107" s="522"/>
+      <c r="D107" s="522"/>
+      <c r="E107" s="522"/>
+      <c r="F107" s="522"/>
+      <c r="G107" s="522"/>
+      <c r="H107" s="522"/>
+      <c r="I107" s="522"/>
+      <c r="J107" s="522"/>
+      <c r="K107" s="522"/>
     </row>
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="520"/>
-      <c r="B108" s="520"/>
-      <c r="C108" s="520"/>
-      <c r="D108" s="520"/>
-      <c r="E108" s="520"/>
-      <c r="F108" s="520"/>
-      <c r="G108" s="520"/>
-      <c r="H108" s="520"/>
-      <c r="I108" s="520"/>
-      <c r="J108" s="520"/>
-      <c r="K108" s="520"/>
+      <c r="A108" s="522"/>
+      <c r="B108" s="522"/>
+      <c r="C108" s="522"/>
+      <c r="D108" s="522"/>
+      <c r="E108" s="522"/>
+      <c r="F108" s="522"/>
+      <c r="G108" s="522"/>
+      <c r="H108" s="522"/>
+      <c r="I108" s="522"/>
+      <c r="J108" s="522"/>
+      <c r="K108" s="522"/>
     </row>
     <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="520"/>
-      <c r="B109" s="520"/>
-      <c r="C109" s="520"/>
-      <c r="D109" s="520"/>
-      <c r="E109" s="520"/>
-      <c r="F109" s="520"/>
-      <c r="G109" s="520"/>
-      <c r="H109" s="520"/>
-      <c r="I109" s="520"/>
-      <c r="J109" s="520"/>
-      <c r="K109" s="520"/>
+      <c r="A109" s="522"/>
+      <c r="B109" s="522"/>
+      <c r="C109" s="522"/>
+      <c r="D109" s="522"/>
+      <c r="E109" s="522"/>
+      <c r="F109" s="522"/>
+      <c r="G109" s="522"/>
+      <c r="H109" s="522"/>
+      <c r="I109" s="522"/>
+      <c r="J109" s="522"/>
+      <c r="K109" s="522"/>
     </row>
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="520"/>
-      <c r="B110" s="520"/>
-      <c r="C110" s="520"/>
-      <c r="D110" s="520"/>
-      <c r="E110" s="520"/>
-      <c r="F110" s="520"/>
-      <c r="G110" s="520"/>
-      <c r="H110" s="520"/>
-      <c r="I110" s="520"/>
-      <c r="J110" s="520"/>
-      <c r="K110" s="520"/>
+      <c r="A110" s="522"/>
+      <c r="B110" s="522"/>
+      <c r="C110" s="522"/>
+      <c r="D110" s="522"/>
+      <c r="E110" s="522"/>
+      <c r="F110" s="522"/>
+      <c r="G110" s="522"/>
+      <c r="H110" s="522"/>
+      <c r="I110" s="522"/>
+      <c r="J110" s="522"/>
+      <c r="K110" s="522"/>
     </row>
     <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="520"/>
-      <c r="B111" s="520"/>
-      <c r="C111" s="520"/>
-      <c r="D111" s="520"/>
-      <c r="E111" s="520"/>
-      <c r="F111" s="520"/>
-      <c r="G111" s="520"/>
-      <c r="H111" s="520"/>
-      <c r="I111" s="520"/>
-      <c r="J111" s="520"/>
-      <c r="K111" s="520"/>
+      <c r="A111" s="522"/>
+      <c r="B111" s="522"/>
+      <c r="C111" s="522"/>
+      <c r="D111" s="522"/>
+      <c r="E111" s="522"/>
+      <c r="F111" s="522"/>
+      <c r="G111" s="522"/>
+      <c r="H111" s="522"/>
+      <c r="I111" s="522"/>
+      <c r="J111" s="522"/>
+      <c r="K111" s="522"/>
     </row>
     <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="520"/>
-      <c r="B112" s="520"/>
-      <c r="C112" s="520"/>
-      <c r="D112" s="520"/>
-      <c r="E112" s="520"/>
-      <c r="F112" s="520"/>
-      <c r="G112" s="520"/>
-      <c r="H112" s="520"/>
-      <c r="I112" s="520"/>
-      <c r="J112" s="520"/>
-      <c r="K112" s="520"/>
+      <c r="A112" s="522"/>
+      <c r="B112" s="522"/>
+      <c r="C112" s="522"/>
+      <c r="D112" s="522"/>
+      <c r="E112" s="522"/>
+      <c r="F112" s="522"/>
+      <c r="G112" s="522"/>
+      <c r="H112" s="522"/>
+      <c r="I112" s="522"/>
+      <c r="J112" s="522"/>
+      <c r="K112" s="522"/>
     </row>
     <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="520"/>
-      <c r="B113" s="520"/>
-      <c r="C113" s="520"/>
-      <c r="D113" s="520"/>
-      <c r="E113" s="520"/>
-      <c r="F113" s="520"/>
-      <c r="G113" s="520"/>
-      <c r="H113" s="520"/>
-      <c r="I113" s="520"/>
-      <c r="J113" s="520"/>
-      <c r="K113" s="520"/>
+      <c r="A113" s="522"/>
+      <c r="B113" s="522"/>
+      <c r="C113" s="522"/>
+      <c r="D113" s="522"/>
+      <c r="E113" s="522"/>
+      <c r="F113" s="522"/>
+      <c r="G113" s="522"/>
+      <c r="H113" s="522"/>
+      <c r="I113" s="522"/>
+      <c r="J113" s="522"/>
+      <c r="K113" s="522"/>
     </row>
     <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="520"/>
-      <c r="B114" s="520"/>
-      <c r="C114" s="520"/>
-      <c r="D114" s="520"/>
-      <c r="E114" s="520"/>
-      <c r="F114" s="520"/>
-      <c r="G114" s="520"/>
-      <c r="H114" s="520"/>
-      <c r="I114" s="520"/>
-      <c r="J114" s="520"/>
-      <c r="K114" s="520"/>
+      <c r="A114" s="522"/>
+      <c r="B114" s="522"/>
+      <c r="C114" s="522"/>
+      <c r="D114" s="522"/>
+      <c r="E114" s="522"/>
+      <c r="F114" s="522"/>
+      <c r="G114" s="522"/>
+      <c r="H114" s="522"/>
+      <c r="I114" s="522"/>
+      <c r="J114" s="522"/>
+      <c r="K114" s="522"/>
     </row>
     <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="520"/>
-      <c r="B115" s="520"/>
-      <c r="C115" s="520"/>
-      <c r="D115" s="520"/>
-      <c r="E115" s="520"/>
-      <c r="F115" s="520"/>
-      <c r="G115" s="520"/>
-      <c r="H115" s="520"/>
-      <c r="I115" s="520"/>
-      <c r="J115" s="520"/>
-      <c r="K115" s="520"/>
+      <c r="A115" s="522"/>
+      <c r="B115" s="522"/>
+      <c r="C115" s="522"/>
+      <c r="D115" s="522"/>
+      <c r="E115" s="522"/>
+      <c r="F115" s="522"/>
+      <c r="G115" s="522"/>
+      <c r="H115" s="522"/>
+      <c r="I115" s="522"/>
+      <c r="J115" s="522"/>
+      <c r="K115" s="522"/>
     </row>
     <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="250"/>
@@ -28974,334 +29062,334 @@
       </c>
       <c r="B3" s="107"/>
       <c r="K3" s="316" t="s">
-        <v>882</v>
+        <v>922</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="521" t="s">
-        <v>883</v>
-      </c>
-      <c r="D4" s="522"/>
-      <c r="E4" s="522"/>
-      <c r="F4" s="522"/>
-      <c r="H4" s="523" t="s">
+      <c r="C4" s="523" t="s">
+        <v>923</v>
+      </c>
+      <c r="D4" s="524"/>
+      <c r="E4" s="524"/>
+      <c r="F4" s="524"/>
+      <c r="H4" s="525" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="524" t="s">
+      <c r="I4" s="526" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="524" t="s">
+      <c r="J4" s="526" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="523" t="s">
+      <c r="K4" s="525" t="s">
         <v>133</v>
       </c>
-      <c r="M4" s="525" t="s">
-        <v>884</v>
-      </c>
-      <c r="N4" s="526" t="s">
+      <c r="M4" s="527" t="s">
+        <v>924</v>
+      </c>
+      <c r="N4" s="528" t="s">
         <v>100</v>
       </c>
-      <c r="O4" s="526" t="s">
-        <v>885</v>
+      <c r="O4" s="528" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H5" s="527" t="s">
+      <c r="H5" s="529" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="528" t="s">
+      <c r="I5" s="530" t="s">
         <v>100</v>
       </c>
-      <c r="J5" s="528"/>
-      <c r="K5" s="529"/>
-      <c r="M5" s="530"/>
-      <c r="N5" s="526" t="s">
+      <c r="J5" s="530"/>
+      <c r="K5" s="531"/>
+      <c r="M5" s="532"/>
+      <c r="N5" s="528" t="s">
         <v>145</v>
       </c>
-      <c r="O5" s="531" t="s">
-        <v>886</v>
+      <c r="O5" s="533" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H6" s="527" t="s">
+      <c r="H6" s="529" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="528" t="s">
+      <c r="I6" s="530" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="528"/>
-      <c r="K6" s="529"/>
-      <c r="M6" s="530"/>
-      <c r="N6" s="526" t="s">
-        <v>887</v>
-      </c>
-      <c r="O6" s="526" t="s">
-        <v>888</v>
+      <c r="J6" s="530"/>
+      <c r="K6" s="531"/>
+      <c r="M6" s="532"/>
+      <c r="N6" s="528" t="s">
+        <v>927</v>
+      </c>
+      <c r="O6" s="528" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E7" s="249"/>
-      <c r="M7" s="530"/>
-      <c r="N7" s="526" t="s">
-        <v>889</v>
-      </c>
-      <c r="O7" s="526" t="s">
-        <v>890</v>
+      <c r="M7" s="532"/>
+      <c r="N7" s="528" t="s">
+        <v>929</v>
+      </c>
+      <c r="O7" s="528" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M8" s="530"/>
-      <c r="N8" s="530"/>
-      <c r="O8" s="530"/>
+      <c r="M8" s="532"/>
+      <c r="N8" s="532"/>
+      <c r="O8" s="532"/>
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="111" t="s">
-        <v>891</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="532" t="s">
-        <v>892</v>
-      </c>
-      <c r="B13" s="533" t="s">
-        <v>683</v>
-      </c>
-      <c r="C13" s="533" t="s">
-        <v>768</v>
-      </c>
-      <c r="D13" s="533" t="s">
-        <v>893</v>
-      </c>
-      <c r="E13" s="533" t="s">
-        <v>894</v>
-      </c>
-      <c r="F13" s="533" t="s">
-        <v>895</v>
-      </c>
-      <c r="G13" s="533" t="s">
-        <v>896</v>
-      </c>
-      <c r="H13" s="533" t="s">
-        <v>897</v>
-      </c>
-      <c r="I13" s="533" t="s">
-        <v>898</v>
-      </c>
-      <c r="J13" s="533" t="s">
-        <v>899</v>
-      </c>
-      <c r="K13" s="533" t="s">
-        <v>900</v>
-      </c>
-      <c r="L13" s="534" t="s">
-        <v>901</v>
-      </c>
-      <c r="M13" s="533" t="s">
-        <v>902</v>
-      </c>
-      <c r="N13" s="533" t="s">
-        <v>903</v>
-      </c>
-      <c r="O13" s="533" t="s">
-        <v>904</v>
-      </c>
-      <c r="P13" s="535" t="s">
-        <v>905</v>
-      </c>
-      <c r="Q13" s="536"/>
-      <c r="R13" s="537"/>
+      <c r="A13" s="534" t="s">
+        <v>932</v>
+      </c>
+      <c r="B13" s="535" t="s">
+        <v>723</v>
+      </c>
+      <c r="C13" s="535" t="s">
+        <v>808</v>
+      </c>
+      <c r="D13" s="535" t="s">
+        <v>933</v>
+      </c>
+      <c r="E13" s="535" t="s">
+        <v>934</v>
+      </c>
+      <c r="F13" s="535" t="s">
+        <v>935</v>
+      </c>
+      <c r="G13" s="535" t="s">
+        <v>936</v>
+      </c>
+      <c r="H13" s="535" t="s">
+        <v>937</v>
+      </c>
+      <c r="I13" s="535" t="s">
+        <v>938</v>
+      </c>
+      <c r="J13" s="535" t="s">
+        <v>939</v>
+      </c>
+      <c r="K13" s="535" t="s">
+        <v>940</v>
+      </c>
+      <c r="L13" s="536" t="s">
+        <v>941</v>
+      </c>
+      <c r="M13" s="535" t="s">
+        <v>942</v>
+      </c>
+      <c r="N13" s="535" t="s">
+        <v>943</v>
+      </c>
+      <c r="O13" s="535" t="s">
+        <v>944</v>
+      </c>
+      <c r="P13" s="537" t="s">
+        <v>945</v>
+      </c>
+      <c r="Q13" s="538"/>
+      <c r="R13" s="539"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="532"/>
-      <c r="B14" s="533"/>
-      <c r="C14" s="533"/>
-      <c r="D14" s="533"/>
-      <c r="E14" s="533"/>
-      <c r="F14" s="533"/>
-      <c r="G14" s="533"/>
-      <c r="H14" s="533"/>
-      <c r="I14" s="533"/>
-      <c r="J14" s="533"/>
-      <c r="K14" s="533"/>
-      <c r="L14" s="538" t="s">
-        <v>906</v>
-      </c>
-      <c r="M14" s="533"/>
-      <c r="N14" s="533"/>
-      <c r="O14" s="533"/>
-      <c r="P14" s="535"/>
-      <c r="Q14" s="536"/>
-      <c r="R14" s="537"/>
+      <c r="A14" s="534"/>
+      <c r="B14" s="535"/>
+      <c r="C14" s="535"/>
+      <c r="D14" s="535"/>
+      <c r="E14" s="535"/>
+      <c r="F14" s="535"/>
+      <c r="G14" s="535"/>
+      <c r="H14" s="535"/>
+      <c r="I14" s="535"/>
+      <c r="J14" s="535"/>
+      <c r="K14" s="535"/>
+      <c r="L14" s="540" t="s">
+        <v>946</v>
+      </c>
+      <c r="M14" s="535"/>
+      <c r="N14" s="535"/>
+      <c r="O14" s="535"/>
+      <c r="P14" s="537"/>
+      <c r="Q14" s="538"/>
+      <c r="R14" s="539"/>
     </row>
     <row r="15" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="539" t="s">
-        <v>907</v>
-      </c>
-      <c r="B15" s="539"/>
-      <c r="C15" s="539"/>
-      <c r="D15" s="539" t="s">
-        <v>908</v>
-      </c>
-      <c r="E15" s="539" t="s">
-        <v>909</v>
-      </c>
-      <c r="F15" s="539" t="s">
-        <v>910</v>
-      </c>
-      <c r="G15" s="539" t="s">
-        <v>911</v>
-      </c>
-      <c r="H15" s="539" t="s">
-        <v>912</v>
-      </c>
-      <c r="I15" s="539" t="s">
-        <v>913</v>
-      </c>
-      <c r="J15" s="539" t="s">
-        <v>914</v>
-      </c>
-      <c r="K15" s="539"/>
-      <c r="L15" s="539" t="s">
-        <v>915</v>
-      </c>
-      <c r="M15" s="539"/>
-      <c r="N15" s="539" t="s">
-        <v>916</v>
-      </c>
-      <c r="O15" s="539"/>
-      <c r="P15" s="539" t="s">
-        <v>916</v>
-      </c>
-      <c r="Q15" s="540"/>
-      <c r="R15" s="541"/>
+      <c r="A15" s="541" t="s">
+        <v>947</v>
+      </c>
+      <c r="B15" s="541"/>
+      <c r="C15" s="541"/>
+      <c r="D15" s="541" t="s">
+        <v>948</v>
+      </c>
+      <c r="E15" s="541" t="s">
+        <v>949</v>
+      </c>
+      <c r="F15" s="541" t="s">
+        <v>950</v>
+      </c>
+      <c r="G15" s="541" t="s">
+        <v>951</v>
+      </c>
+      <c r="H15" s="541" t="s">
+        <v>952</v>
+      </c>
+      <c r="I15" s="541" t="s">
+        <v>953</v>
+      </c>
+      <c r="J15" s="541" t="s">
+        <v>954</v>
+      </c>
+      <c r="K15" s="541"/>
+      <c r="L15" s="541" t="s">
+        <v>955</v>
+      </c>
+      <c r="M15" s="541"/>
+      <c r="N15" s="541" t="s">
+        <v>956</v>
+      </c>
+      <c r="O15" s="541"/>
+      <c r="P15" s="541" t="s">
+        <v>956</v>
+      </c>
+      <c r="Q15" s="542"/>
+      <c r="R15" s="543"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="542"/>
-      <c r="B16" s="543"/>
-      <c r="C16" s="543"/>
-      <c r="D16" s="543"/>
-      <c r="E16" s="543"/>
-      <c r="F16" s="543"/>
-      <c r="G16" s="543"/>
-      <c r="H16" s="543"/>
-      <c r="I16" s="543"/>
-      <c r="J16" s="543"/>
-      <c r="K16" s="543"/>
-      <c r="L16" s="543"/>
-      <c r="M16" s="543"/>
-      <c r="N16" s="543"/>
-      <c r="O16" s="544"/>
-      <c r="P16" s="543"/>
-      <c r="Q16" s="540"/>
-      <c r="R16" s="541"/>
+      <c r="A16" s="544"/>
+      <c r="B16" s="545"/>
+      <c r="C16" s="545"/>
+      <c r="D16" s="545"/>
+      <c r="E16" s="545"/>
+      <c r="F16" s="545"/>
+      <c r="G16" s="545"/>
+      <c r="H16" s="545"/>
+      <c r="I16" s="545"/>
+      <c r="J16" s="545"/>
+      <c r="K16" s="545"/>
+      <c r="L16" s="545"/>
+      <c r="M16" s="545"/>
+      <c r="N16" s="545"/>
+      <c r="O16" s="546"/>
+      <c r="P16" s="545"/>
+      <c r="Q16" s="542"/>
+      <c r="R16" s="543"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="545"/>
-      <c r="B17" s="546"/>
-      <c r="C17" s="546"/>
-      <c r="D17" s="546"/>
-      <c r="E17" s="546"/>
-      <c r="F17" s="546"/>
-      <c r="G17" s="546"/>
-      <c r="H17" s="546"/>
-      <c r="I17" s="546"/>
-      <c r="J17" s="546"/>
-      <c r="K17" s="546"/>
-      <c r="L17" s="546"/>
-      <c r="M17" s="546"/>
-      <c r="N17" s="546"/>
-      <c r="O17" s="547"/>
-      <c r="P17" s="546"/>
-      <c r="Q17" s="540"/>
-      <c r="R17" s="541"/>
+      <c r="A17" s="547"/>
+      <c r="B17" s="548"/>
+      <c r="C17" s="548"/>
+      <c r="D17" s="548"/>
+      <c r="E17" s="548"/>
+      <c r="F17" s="548"/>
+      <c r="G17" s="548"/>
+      <c r="H17" s="548"/>
+      <c r="I17" s="548"/>
+      <c r="J17" s="548"/>
+      <c r="K17" s="548"/>
+      <c r="L17" s="548"/>
+      <c r="M17" s="548"/>
+      <c r="N17" s="548"/>
+      <c r="O17" s="549"/>
+      <c r="P17" s="548"/>
+      <c r="Q17" s="542"/>
+      <c r="R17" s="543"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="542"/>
-      <c r="B18" s="543"/>
-      <c r="C18" s="543"/>
-      <c r="D18" s="543"/>
-      <c r="E18" s="543"/>
-      <c r="F18" s="543"/>
-      <c r="G18" s="543"/>
-      <c r="H18" s="543"/>
-      <c r="I18" s="543"/>
-      <c r="J18" s="543"/>
-      <c r="K18" s="543"/>
-      <c r="L18" s="543"/>
-      <c r="M18" s="543"/>
-      <c r="N18" s="543"/>
-      <c r="O18" s="544"/>
-      <c r="P18" s="543"/>
-      <c r="Q18" s="540"/>
-      <c r="R18" s="541"/>
+      <c r="A18" s="544"/>
+      <c r="B18" s="545"/>
+      <c r="C18" s="545"/>
+      <c r="D18" s="545"/>
+      <c r="E18" s="545"/>
+      <c r="F18" s="545"/>
+      <c r="G18" s="545"/>
+      <c r="H18" s="545"/>
+      <c r="I18" s="545"/>
+      <c r="J18" s="545"/>
+      <c r="K18" s="545"/>
+      <c r="L18" s="545"/>
+      <c r="M18" s="545"/>
+      <c r="N18" s="545"/>
+      <c r="O18" s="546"/>
+      <c r="P18" s="545"/>
+      <c r="Q18" s="542"/>
+      <c r="R18" s="543"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="545"/>
-      <c r="B19" s="546"/>
-      <c r="C19" s="546"/>
-      <c r="D19" s="546"/>
-      <c r="E19" s="546"/>
-      <c r="F19" s="546"/>
-      <c r="G19" s="546"/>
-      <c r="H19" s="546"/>
-      <c r="I19" s="546"/>
-      <c r="J19" s="546"/>
-      <c r="K19" s="546"/>
-      <c r="L19" s="546"/>
-      <c r="M19" s="546"/>
-      <c r="N19" s="546"/>
-      <c r="O19" s="547"/>
-      <c r="P19" s="546"/>
-      <c r="Q19" s="548"/>
-      <c r="R19" s="541"/>
+      <c r="A19" s="547"/>
+      <c r="B19" s="548"/>
+      <c r="C19" s="548"/>
+      <c r="D19" s="548"/>
+      <c r="E19" s="548"/>
+      <c r="F19" s="548"/>
+      <c r="G19" s="548"/>
+      <c r="H19" s="548"/>
+      <c r="I19" s="548"/>
+      <c r="J19" s="548"/>
+      <c r="K19" s="548"/>
+      <c r="L19" s="548"/>
+      <c r="M19" s="548"/>
+      <c r="N19" s="548"/>
+      <c r="O19" s="549"/>
+      <c r="P19" s="548"/>
+      <c r="Q19" s="550"/>
+      <c r="R19" s="543"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="549" t="s">
-        <v>917</v>
-      </c>
-      <c r="B20" s="549"/>
-      <c r="C20" s="549"/>
-      <c r="D20" s="549"/>
-      <c r="E20" s="549"/>
-      <c r="F20" s="549"/>
-      <c r="G20" s="549"/>
-      <c r="H20" s="549"/>
-      <c r="I20" s="549"/>
-      <c r="J20" s="549"/>
-      <c r="K20" s="549"/>
-      <c r="L20" s="549"/>
-      <c r="M20" s="549"/>
-      <c r="N20" s="549"/>
-      <c r="O20" s="549"/>
-      <c r="P20" s="549"/>
-      <c r="Q20" s="537"/>
-      <c r="R20" s="537"/>
+      <c r="A20" s="551" t="s">
+        <v>957</v>
+      </c>
+      <c r="B20" s="551"/>
+      <c r="C20" s="551"/>
+      <c r="D20" s="551"/>
+      <c r="E20" s="551"/>
+      <c r="F20" s="551"/>
+      <c r="G20" s="551"/>
+      <c r="H20" s="551"/>
+      <c r="I20" s="551"/>
+      <c r="J20" s="551"/>
+      <c r="K20" s="551"/>
+      <c r="L20" s="551"/>
+      <c r="M20" s="551"/>
+      <c r="N20" s="551"/>
+      <c r="O20" s="551"/>
+      <c r="P20" s="551"/>
+      <c r="Q20" s="539"/>
+      <c r="R20" s="539"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="550"/>
-      <c r="B21" s="550"/>
-      <c r="C21" s="550"/>
-      <c r="D21" s="550"/>
-      <c r="E21" s="550"/>
-      <c r="F21" s="550"/>
-      <c r="G21" s="550"/>
-      <c r="H21" s="550"/>
-      <c r="I21" s="550"/>
-      <c r="J21" s="550"/>
-      <c r="K21" s="550"/>
-      <c r="L21" s="550"/>
-      <c r="M21" s="550"/>
-      <c r="N21" s="550"/>
-      <c r="O21" s="550"/>
-      <c r="P21" s="550"/>
-      <c r="Q21" s="537"/>
-      <c r="R21" s="537"/>
+      <c r="A21" s="552"/>
+      <c r="B21" s="552"/>
+      <c r="C21" s="552"/>
+      <c r="D21" s="552"/>
+      <c r="E21" s="552"/>
+      <c r="F21" s="552"/>
+      <c r="G21" s="552"/>
+      <c r="H21" s="552"/>
+      <c r="I21" s="552"/>
+      <c r="J21" s="552"/>
+      <c r="K21" s="552"/>
+      <c r="L21" s="552"/>
+      <c r="M21" s="552"/>
+      <c r="N21" s="552"/>
+      <c r="O21" s="552"/>
+      <c r="P21" s="552"/>
+      <c r="Q21" s="539"/>
+      <c r="R21" s="539"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="338" t="s">
-        <v>918</v>
+        <v>958</v>
       </c>
     </row>
   </sheetData>
@@ -29399,222 +29487,222 @@
       <c r="B3" s="107"/>
     </row>
     <row r="4" customFormat="false" ht="30.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D4" s="551"/>
+      <c r="D4" s="553"/>
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="111" t="s">
-        <v>891</v>
+        <v>931</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="552" t="s">
-        <v>892</v>
-      </c>
-      <c r="B8" s="553" t="s">
-        <v>683</v>
-      </c>
-      <c r="C8" s="553" t="s">
-        <v>919</v>
-      </c>
-      <c r="D8" s="553" t="s">
-        <v>920</v>
-      </c>
-      <c r="E8" s="553" t="s">
-        <v>921</v>
-      </c>
-      <c r="F8" s="553" t="s">
-        <v>922</v>
-      </c>
-      <c r="G8" s="553" t="s">
-        <v>897</v>
-      </c>
-      <c r="H8" s="553" t="s">
-        <v>898</v>
-      </c>
-      <c r="I8" s="553" t="s">
-        <v>923</v>
-      </c>
-      <c r="J8" s="553" t="s">
-        <v>924</v>
-      </c>
-      <c r="K8" s="553" t="s">
-        <v>925</v>
-      </c>
-      <c r="L8" s="553" t="s">
-        <v>926</v>
-      </c>
-      <c r="M8" s="553" t="s">
-        <v>927</v>
-      </c>
-      <c r="N8" s="553" t="s">
-        <v>900</v>
-      </c>
-      <c r="O8" s="553" t="s">
-        <v>901</v>
-      </c>
-      <c r="P8" s="553" t="s">
-        <v>902</v>
-      </c>
-      <c r="Q8" s="553" t="s">
-        <v>903</v>
-      </c>
-      <c r="R8" s="553" t="s">
-        <v>904</v>
-      </c>
-      <c r="S8" s="554" t="s">
-        <v>905</v>
+      <c r="A8" s="554" t="s">
+        <v>932</v>
+      </c>
+      <c r="B8" s="555" t="s">
+        <v>723</v>
+      </c>
+      <c r="C8" s="555" t="s">
+        <v>959</v>
+      </c>
+      <c r="D8" s="555" t="s">
+        <v>960</v>
+      </c>
+      <c r="E8" s="555" t="s">
+        <v>961</v>
+      </c>
+      <c r="F8" s="555" t="s">
+        <v>962</v>
+      </c>
+      <c r="G8" s="555" t="s">
+        <v>937</v>
+      </c>
+      <c r="H8" s="555" t="s">
+        <v>938</v>
+      </c>
+      <c r="I8" s="555" t="s">
+        <v>963</v>
+      </c>
+      <c r="J8" s="555" t="s">
+        <v>964</v>
+      </c>
+      <c r="K8" s="555" t="s">
+        <v>965</v>
+      </c>
+      <c r="L8" s="555" t="s">
+        <v>966</v>
+      </c>
+      <c r="M8" s="555" t="s">
+        <v>967</v>
+      </c>
+      <c r="N8" s="555" t="s">
+        <v>940</v>
+      </c>
+      <c r="O8" s="555" t="s">
+        <v>941</v>
+      </c>
+      <c r="P8" s="555" t="s">
+        <v>942</v>
+      </c>
+      <c r="Q8" s="555" t="s">
+        <v>943</v>
+      </c>
+      <c r="R8" s="555" t="s">
+        <v>944</v>
+      </c>
+      <c r="S8" s="556" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="552"/>
-      <c r="B9" s="553"/>
-      <c r="C9" s="553"/>
-      <c r="D9" s="553"/>
-      <c r="E9" s="553"/>
-      <c r="F9" s="553"/>
-      <c r="G9" s="553"/>
-      <c r="H9" s="553"/>
-      <c r="I9" s="553"/>
-      <c r="J9" s="553"/>
-      <c r="K9" s="553"/>
-      <c r="L9" s="553"/>
-      <c r="M9" s="553"/>
-      <c r="N9" s="553"/>
-      <c r="O9" s="555" t="s">
-        <v>906</v>
-      </c>
-      <c r="P9" s="553"/>
-      <c r="Q9" s="553"/>
-      <c r="R9" s="553"/>
-      <c r="S9" s="554"/>
+      <c r="A9" s="554"/>
+      <c r="B9" s="555"/>
+      <c r="C9" s="555"/>
+      <c r="D9" s="555"/>
+      <c r="E9" s="555"/>
+      <c r="F9" s="555"/>
+      <c r="G9" s="555"/>
+      <c r="H9" s="555"/>
+      <c r="I9" s="555"/>
+      <c r="J9" s="555"/>
+      <c r="K9" s="555"/>
+      <c r="L9" s="555"/>
+      <c r="M9" s="555"/>
+      <c r="N9" s="555"/>
+      <c r="O9" s="557" t="s">
+        <v>946</v>
+      </c>
+      <c r="P9" s="555"/>
+      <c r="Q9" s="555"/>
+      <c r="R9" s="555"/>
+      <c r="S9" s="556"/>
     </row>
     <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="556" t="s">
-        <v>907</v>
-      </c>
-      <c r="B10" s="557"/>
-      <c r="C10" s="557"/>
-      <c r="D10" s="557" t="s">
-        <v>928</v>
-      </c>
-      <c r="E10" s="557" t="s">
-        <v>929</v>
-      </c>
-      <c r="F10" s="557"/>
-      <c r="G10" s="557"/>
-      <c r="H10" s="557"/>
-      <c r="I10" s="557" t="s">
-        <v>930</v>
-      </c>
-      <c r="J10" s="557"/>
-      <c r="K10" s="557"/>
-      <c r="L10" s="557" t="s">
-        <v>931</v>
-      </c>
-      <c r="M10" s="557"/>
-      <c r="N10" s="557"/>
-      <c r="O10" s="558"/>
-      <c r="P10" s="557" t="s">
-        <v>932</v>
-      </c>
-      <c r="Q10" s="557" t="s">
-        <v>916</v>
-      </c>
-      <c r="R10" s="557"/>
-      <c r="S10" s="557" t="s">
-        <v>916</v>
+      <c r="A10" s="558" t="s">
+        <v>947</v>
+      </c>
+      <c r="B10" s="559"/>
+      <c r="C10" s="559"/>
+      <c r="D10" s="559" t="s">
+        <v>968</v>
+      </c>
+      <c r="E10" s="559" t="s">
+        <v>969</v>
+      </c>
+      <c r="F10" s="559"/>
+      <c r="G10" s="559"/>
+      <c r="H10" s="559"/>
+      <c r="I10" s="559" t="s">
+        <v>970</v>
+      </c>
+      <c r="J10" s="559"/>
+      <c r="K10" s="559"/>
+      <c r="L10" s="559" t="s">
+        <v>971</v>
+      </c>
+      <c r="M10" s="559"/>
+      <c r="N10" s="559"/>
+      <c r="O10" s="560"/>
+      <c r="P10" s="559" t="s">
+        <v>972</v>
+      </c>
+      <c r="Q10" s="559" t="s">
+        <v>956</v>
+      </c>
+      <c r="R10" s="559"/>
+      <c r="S10" s="559" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="559"/>
-      <c r="B11" s="560"/>
-      <c r="C11" s="560"/>
-      <c r="D11" s="560"/>
-      <c r="E11" s="560"/>
-      <c r="F11" s="560"/>
-      <c r="G11" s="560"/>
-      <c r="H11" s="560"/>
-      <c r="I11" s="560"/>
-      <c r="J11" s="560"/>
-      <c r="K11" s="560"/>
-      <c r="L11" s="560"/>
-      <c r="M11" s="561"/>
-      <c r="N11" s="560"/>
-      <c r="O11" s="560"/>
-      <c r="P11" s="560"/>
-      <c r="Q11" s="560"/>
-      <c r="R11" s="562"/>
-      <c r="S11" s="560"/>
+      <c r="A11" s="561"/>
+      <c r="B11" s="562"/>
+      <c r="C11" s="562"/>
+      <c r="D11" s="562"/>
+      <c r="E11" s="562"/>
+      <c r="F11" s="562"/>
+      <c r="G11" s="562"/>
+      <c r="H11" s="562"/>
+      <c r="I11" s="562"/>
+      <c r="J11" s="562"/>
+      <c r="K11" s="562"/>
+      <c r="L11" s="562"/>
+      <c r="M11" s="563"/>
+      <c r="N11" s="562"/>
+      <c r="O11" s="562"/>
+      <c r="P11" s="562"/>
+      <c r="Q11" s="562"/>
+      <c r="R11" s="564"/>
+      <c r="S11" s="562"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="563"/>
-      <c r="B12" s="564"/>
-      <c r="C12" s="564"/>
-      <c r="D12" s="564"/>
-      <c r="E12" s="564"/>
-      <c r="F12" s="564"/>
-      <c r="G12" s="564"/>
-      <c r="H12" s="564"/>
-      <c r="I12" s="564"/>
-      <c r="J12" s="564"/>
-      <c r="K12" s="564"/>
-      <c r="L12" s="564"/>
-      <c r="M12" s="565"/>
-      <c r="N12" s="564"/>
-      <c r="O12" s="564"/>
-      <c r="P12" s="564"/>
-      <c r="Q12" s="564"/>
-      <c r="R12" s="566"/>
-      <c r="S12" s="564"/>
+      <c r="A12" s="565"/>
+      <c r="B12" s="566"/>
+      <c r="C12" s="566"/>
+      <c r="D12" s="566"/>
+      <c r="E12" s="566"/>
+      <c r="F12" s="566"/>
+      <c r="G12" s="566"/>
+      <c r="H12" s="566"/>
+      <c r="I12" s="566"/>
+      <c r="J12" s="566"/>
+      <c r="K12" s="566"/>
+      <c r="L12" s="566"/>
+      <c r="M12" s="567"/>
+      <c r="N12" s="566"/>
+      <c r="O12" s="566"/>
+      <c r="P12" s="566"/>
+      <c r="Q12" s="566"/>
+      <c r="R12" s="568"/>
+      <c r="S12" s="566"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="559"/>
-      <c r="B13" s="560"/>
-      <c r="C13" s="560"/>
-      <c r="D13" s="560"/>
-      <c r="E13" s="560"/>
-      <c r="F13" s="560"/>
-      <c r="G13" s="560"/>
-      <c r="H13" s="560"/>
-      <c r="I13" s="560"/>
-      <c r="J13" s="560"/>
-      <c r="K13" s="560"/>
-      <c r="L13" s="560"/>
-      <c r="M13" s="560"/>
-      <c r="N13" s="560"/>
-      <c r="O13" s="560"/>
-      <c r="P13" s="560"/>
-      <c r="Q13" s="560"/>
-      <c r="R13" s="562"/>
-      <c r="S13" s="560"/>
+      <c r="A13" s="561"/>
+      <c r="B13" s="562"/>
+      <c r="C13" s="562"/>
+      <c r="D13" s="562"/>
+      <c r="E13" s="562"/>
+      <c r="F13" s="562"/>
+      <c r="G13" s="562"/>
+      <c r="H13" s="562"/>
+      <c r="I13" s="562"/>
+      <c r="J13" s="562"/>
+      <c r="K13" s="562"/>
+      <c r="L13" s="562"/>
+      <c r="M13" s="562"/>
+      <c r="N13" s="562"/>
+      <c r="O13" s="562"/>
+      <c r="P13" s="562"/>
+      <c r="Q13" s="562"/>
+      <c r="R13" s="564"/>
+      <c r="S13" s="562"/>
     </row>
     <row r="14" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="567" t="s">
-        <v>933</v>
-      </c>
-      <c r="B14" s="567"/>
-      <c r="C14" s="567"/>
-      <c r="D14" s="567"/>
-      <c r="E14" s="567"/>
-      <c r="F14" s="567"/>
-      <c r="G14" s="567"/>
-      <c r="H14" s="567"/>
-      <c r="I14" s="567"/>
-      <c r="J14" s="567"/>
-      <c r="K14" s="567"/>
-      <c r="L14" s="567"/>
-      <c r="M14" s="567"/>
-      <c r="N14" s="567"/>
-      <c r="O14" s="567"/>
-      <c r="P14" s="567"/>
-      <c r="Q14" s="567"/>
-      <c r="R14" s="567"/>
-      <c r="S14" s="567"/>
+      <c r="A14" s="569" t="s">
+        <v>973</v>
+      </c>
+      <c r="B14" s="569"/>
+      <c r="C14" s="569"/>
+      <c r="D14" s="569"/>
+      <c r="E14" s="569"/>
+      <c r="F14" s="569"/>
+      <c r="G14" s="569"/>
+      <c r="H14" s="569"/>
+      <c r="I14" s="569"/>
+      <c r="J14" s="569"/>
+      <c r="K14" s="569"/>
+      <c r="L14" s="569"/>
+      <c r="M14" s="569"/>
+      <c r="N14" s="569"/>
+      <c r="O14" s="569"/>
+      <c r="P14" s="569"/>
+      <c r="Q14" s="569"/>
+      <c r="R14" s="569"/>
+      <c r="S14" s="569"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="338" t="s">
-        <v>918</v>
+        <v>958</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29680,14 +29768,14 @@
         <v>2</v>
       </c>
       <c r="B1" s="102"/>
-      <c r="H1" s="568" t="s">
-        <v>884</v>
-      </c>
-      <c r="I1" s="569" t="s">
+      <c r="H1" s="570" t="s">
+        <v>924</v>
+      </c>
+      <c r="I1" s="571" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="569" t="s">
-        <v>885</v>
+      <c r="J1" s="571" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29695,11 +29783,11 @@
         <v>110</v>
       </c>
       <c r="B2" s="105"/>
-      <c r="I2" s="569" t="s">
+      <c r="I2" s="571" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="569" t="s">
-        <v>886</v>
+      <c r="J2" s="571" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29707,389 +29795,389 @@
         <v>111</v>
       </c>
       <c r="B3" s="107"/>
-      <c r="I3" s="569" t="s">
-        <v>887</v>
-      </c>
-      <c r="J3" s="569" t="s">
-        <v>888</v>
+      <c r="I3" s="571" t="s">
+        <v>927</v>
+      </c>
+      <c r="J3" s="571" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="111" t="s">
-        <v>891</v>
-      </c>
-      <c r="I4" s="569" t="s">
-        <v>889</v>
-      </c>
-      <c r="J4" s="569" t="s">
-        <v>890</v>
+        <v>931</v>
+      </c>
+      <c r="I4" s="571" t="s">
+        <v>929</v>
+      </c>
+      <c r="J4" s="571" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="249"/>
     </row>
     <row r="6" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="570" t="s">
-        <v>934</v>
-      </c>
-      <c r="C6" s="571" t="s">
-        <v>935</v>
-      </c>
-      <c r="D6" s="571" t="s">
-        <v>936</v>
-      </c>
-      <c r="E6" s="570" t="s">
-        <v>937</v>
-      </c>
-      <c r="G6" s="572" t="s">
+      <c r="B6" s="572" t="s">
+        <v>974</v>
+      </c>
+      <c r="C6" s="573" t="s">
+        <v>975</v>
+      </c>
+      <c r="D6" s="573" t="s">
+        <v>976</v>
+      </c>
+      <c r="E6" s="572" t="s">
+        <v>977</v>
+      </c>
+      <c r="G6" s="574" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="573" t="s">
+      <c r="H6" s="575" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="573" t="s">
+      <c r="I6" s="575" t="s">
         <v>132</v>
       </c>
-      <c r="J6" s="572" t="s">
+      <c r="J6" s="574" t="s">
         <v>133</v>
       </c>
       <c r="K6" s="316" t="s">
-        <v>882</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="574" t="s">
-        <v>938</v>
-      </c>
-      <c r="B7" s="575"/>
-      <c r="C7" s="575"/>
-      <c r="D7" s="576"/>
-      <c r="E7" s="577"/>
-      <c r="G7" s="578" t="s">
+      <c r="A7" s="576" t="s">
+        <v>978</v>
+      </c>
+      <c r="B7" s="577"/>
+      <c r="C7" s="577"/>
+      <c r="D7" s="578"/>
+      <c r="E7" s="579"/>
+      <c r="G7" s="580" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="579" t="s">
+      <c r="H7" s="581" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="579"/>
+      <c r="I7" s="581"/>
       <c r="J7" s="278"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="580"/>
-      <c r="B8" s="581"/>
-      <c r="C8" s="581"/>
-      <c r="D8" s="582"/>
-      <c r="E8" s="583"/>
-      <c r="G8" s="578" t="s">
+      <c r="A8" s="582"/>
+      <c r="B8" s="583"/>
+      <c r="C8" s="583"/>
+      <c r="D8" s="584"/>
+      <c r="E8" s="585"/>
+      <c r="G8" s="580" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="579" t="s">
+      <c r="H8" s="581" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="579"/>
+      <c r="I8" s="581"/>
       <c r="J8" s="278"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="580"/>
-      <c r="B9" s="581"/>
-      <c r="C9" s="581"/>
-      <c r="D9" s="582"/>
-      <c r="E9" s="583"/>
-      <c r="G9" s="578" t="s">
+      <c r="A9" s="582"/>
+      <c r="B9" s="583"/>
+      <c r="C9" s="583"/>
+      <c r="D9" s="584"/>
+      <c r="E9" s="585"/>
+      <c r="G9" s="580" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="579" t="s">
+      <c r="H9" s="581" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="579"/>
+      <c r="I9" s="581"/>
       <c r="J9" s="278"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="584"/>
-      <c r="B10" s="585"/>
-      <c r="C10" s="585"/>
-      <c r="D10" s="586"/>
-      <c r="E10" s="587"/>
-      <c r="G10" s="578" t="s">
+      <c r="A10" s="586"/>
+      <c r="B10" s="587"/>
+      <c r="C10" s="587"/>
+      <c r="D10" s="588"/>
+      <c r="E10" s="589"/>
+      <c r="G10" s="580" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="579" t="s">
+      <c r="H10" s="581" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="579"/>
+      <c r="I10" s="581"/>
       <c r="J10" s="278"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="574" t="s">
-        <v>939</v>
-      </c>
-      <c r="B11" s="575"/>
-      <c r="C11" s="575"/>
-      <c r="D11" s="576"/>
-      <c r="E11" s="577"/>
-      <c r="G11" s="578" t="s">
+      <c r="A11" s="576" t="s">
+        <v>979</v>
+      </c>
+      <c r="B11" s="577"/>
+      <c r="C11" s="577"/>
+      <c r="D11" s="578"/>
+      <c r="E11" s="579"/>
+      <c r="G11" s="580" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="579" t="s">
+      <c r="H11" s="581" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="579"/>
+      <c r="I11" s="581"/>
       <c r="J11" s="278"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="588"/>
+      <c r="A12" s="590"/>
       <c r="B12" s="276"/>
       <c r="C12" s="276"/>
-      <c r="D12" s="589"/>
+      <c r="D12" s="591"/>
       <c r="E12" s="279"/>
-      <c r="G12" s="578" t="s">
+      <c r="G12" s="580" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="579" t="s">
+      <c r="H12" s="581" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="579"/>
+      <c r="I12" s="581"/>
       <c r="J12" s="278"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="580"/>
+      <c r="A13" s="582"/>
       <c r="B13" s="276"/>
       <c r="C13" s="276"/>
-      <c r="D13" s="589"/>
+      <c r="D13" s="591"/>
       <c r="E13" s="279"/>
-      <c r="G13" s="578" t="s">
+      <c r="G13" s="580" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="579" t="s">
+      <c r="H13" s="581" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="579"/>
+      <c r="I13" s="581"/>
       <c r="J13" s="278"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="584"/>
+      <c r="A14" s="586"/>
       <c r="B14" s="284"/>
       <c r="C14" s="284"/>
-      <c r="D14" s="590"/>
+      <c r="D14" s="592"/>
       <c r="E14" s="292"/>
-      <c r="G14" s="578" t="s">
+      <c r="G14" s="580" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="579" t="s">
+      <c r="H14" s="581" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="579"/>
+      <c r="I14" s="581"/>
       <c r="J14" s="278"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="574" t="s">
-        <v>940</v>
+      <c r="A15" s="576" t="s">
+        <v>980</v>
       </c>
       <c r="B15" s="288"/>
       <c r="C15" s="288"/>
-      <c r="D15" s="591"/>
+      <c r="D15" s="593"/>
       <c r="E15" s="289"/>
-      <c r="G15" s="578" t="s">
+      <c r="G15" s="580" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="579" t="s">
+      <c r="H15" s="581" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="579"/>
+      <c r="I15" s="581"/>
       <c r="J15" s="278"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="588"/>
+      <c r="A16" s="590"/>
       <c r="B16" s="276"/>
       <c r="C16" s="276"/>
-      <c r="D16" s="589"/>
+      <c r="D16" s="591"/>
       <c r="E16" s="279"/>
-      <c r="G16" s="578" t="s">
+      <c r="G16" s="580" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="579" t="s">
+      <c r="H16" s="581" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="579"/>
+      <c r="I16" s="581"/>
       <c r="J16" s="278"/>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="580"/>
+      <c r="A17" s="582"/>
       <c r="B17" s="276"/>
       <c r="C17" s="276"/>
-      <c r="D17" s="589"/>
+      <c r="D17" s="591"/>
       <c r="E17" s="279"/>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="584"/>
+      <c r="A18" s="586"/>
       <c r="B18" s="284"/>
       <c r="C18" s="284"/>
-      <c r="D18" s="590"/>
+      <c r="D18" s="592"/>
       <c r="E18" s="292"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="574" t="s">
-        <v>941</v>
+      <c r="A19" s="576" t="s">
+        <v>981</v>
       </c>
       <c r="B19" s="288"/>
       <c r="C19" s="288"/>
-      <c r="D19" s="591"/>
+      <c r="D19" s="593"/>
       <c r="E19" s="289"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="592" t="s">
-        <v>942</v>
+      <c r="A20" s="594" t="s">
+        <v>982</v>
       </c>
       <c r="B20" s="276"/>
       <c r="C20" s="276"/>
-      <c r="D20" s="589"/>
+      <c r="D20" s="591"/>
       <c r="E20" s="279"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="592" t="s">
-        <v>943</v>
+      <c r="A21" s="594" t="s">
+        <v>983</v>
       </c>
       <c r="B21" s="276"/>
       <c r="C21" s="276"/>
-      <c r="D21" s="589"/>
+      <c r="D21" s="591"/>
       <c r="E21" s="279"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="584"/>
+      <c r="A22" s="586"/>
       <c r="B22" s="284"/>
       <c r="C22" s="284"/>
-      <c r="D22" s="590"/>
+      <c r="D22" s="592"/>
       <c r="E22" s="292"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="574" t="s">
-        <v>944</v>
+      <c r="A23" s="576" t="s">
+        <v>984</v>
       </c>
       <c r="B23" s="288"/>
       <c r="C23" s="288"/>
-      <c r="D23" s="591"/>
+      <c r="D23" s="593"/>
       <c r="E23" s="289"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="580"/>
+      <c r="A24" s="582"/>
       <c r="B24" s="276"/>
       <c r="C24" s="276"/>
-      <c r="D24" s="589"/>
+      <c r="D24" s="591"/>
       <c r="E24" s="279"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="580"/>
+      <c r="A25" s="582"/>
       <c r="B25" s="276"/>
       <c r="C25" s="276"/>
-      <c r="D25" s="589"/>
+      <c r="D25" s="591"/>
       <c r="E25" s="279"/>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="584"/>
+      <c r="A26" s="586"/>
       <c r="B26" s="284"/>
       <c r="C26" s="284"/>
-      <c r="D26" s="590"/>
+      <c r="D26" s="592"/>
       <c r="E26" s="292"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="574" t="s">
-        <v>945</v>
+      <c r="A27" s="576" t="s">
+        <v>985</v>
       </c>
       <c r="B27" s="288"/>
-      <c r="C27" s="593"/>
-      <c r="D27" s="591"/>
+      <c r="C27" s="595"/>
+      <c r="D27" s="593"/>
       <c r="E27" s="289"/>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="592" t="s">
-        <v>946</v>
+      <c r="A28" s="594" t="s">
+        <v>986</v>
       </c>
       <c r="B28" s="276"/>
-      <c r="C28" s="594"/>
-      <c r="D28" s="589"/>
+      <c r="C28" s="596"/>
+      <c r="D28" s="591"/>
       <c r="E28" s="279"/>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="580"/>
+      <c r="A29" s="582"/>
       <c r="B29" s="276"/>
-      <c r="C29" s="594"/>
-      <c r="D29" s="589"/>
+      <c r="C29" s="596"/>
+      <c r="D29" s="591"/>
       <c r="E29" s="279"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="584"/>
+      <c r="A30" s="586"/>
       <c r="B30" s="284"/>
-      <c r="C30" s="595"/>
-      <c r="D30" s="590"/>
+      <c r="C30" s="597"/>
+      <c r="D30" s="592"/>
       <c r="E30" s="292"/>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="574" t="s">
-        <v>947</v>
+      <c r="A31" s="576" t="s">
+        <v>987</v>
       </c>
       <c r="B31" s="288"/>
-      <c r="C31" s="593"/>
-      <c r="D31" s="591"/>
+      <c r="C31" s="595"/>
+      <c r="D31" s="593"/>
       <c r="E31" s="289"/>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="592" t="s">
-        <v>946</v>
+      <c r="A32" s="594" t="s">
+        <v>986</v>
       </c>
       <c r="B32" s="276"/>
-      <c r="C32" s="594"/>
-      <c r="D32" s="589"/>
+      <c r="C32" s="596"/>
+      <c r="D32" s="591"/>
       <c r="E32" s="279"/>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="580"/>
+      <c r="A33" s="582"/>
       <c r="B33" s="276"/>
-      <c r="C33" s="594"/>
-      <c r="D33" s="589"/>
+      <c r="C33" s="596"/>
+      <c r="D33" s="591"/>
       <c r="E33" s="279"/>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="584"/>
+      <c r="A34" s="586"/>
       <c r="B34" s="284"/>
-      <c r="C34" s="595"/>
-      <c r="D34" s="590"/>
+      <c r="C34" s="597"/>
+      <c r="D34" s="592"/>
       <c r="E34" s="292"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="574" t="s">
-        <v>948</v>
+      <c r="A35" s="576" t="s">
+        <v>988</v>
       </c>
       <c r="B35" s="288"/>
-      <c r="C35" s="593"/>
-      <c r="D35" s="591"/>
+      <c r="C35" s="595"/>
+      <c r="D35" s="593"/>
       <c r="E35" s="289"/>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="592" t="s">
-        <v>949</v>
+      <c r="A36" s="594" t="s">
+        <v>989</v>
       </c>
       <c r="B36" s="276"/>
-      <c r="C36" s="594"/>
-      <c r="D36" s="589"/>
+      <c r="C36" s="596"/>
+      <c r="D36" s="591"/>
       <c r="E36" s="279"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="580"/>
+      <c r="A37" s="582"/>
       <c r="B37" s="276"/>
-      <c r="C37" s="594"/>
-      <c r="D37" s="589"/>
+      <c r="C37" s="596"/>
+      <c r="D37" s="591"/>
       <c r="E37" s="279"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="584"/>
+      <c r="A38" s="586"/>
       <c r="B38" s="284"/>
-      <c r="C38" s="595"/>
-      <c r="D38" s="590"/>
+      <c r="C38" s="597"/>
+      <c r="D38" s="592"/>
       <c r="E38" s="292"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="338" t="s">
-        <v>918</v>
+        <v>958</v>
       </c>
     </row>
   </sheetData>
@@ -30120,7 +30208,7 @@
   </sheetPr>
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -30143,8 +30231,8 @@
         <v>110</v>
       </c>
       <c r="B2" s="105"/>
-      <c r="C2" s="596" t="s">
-        <v>950</v>
+      <c r="C2" s="598" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30154,101 +30242,101 @@
       <c r="B3" s="107"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="597" t="s">
-        <v>951</v>
+      <c r="A6" s="599" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="598" t="s">
-        <v>952</v>
+      <c r="A8" s="600" t="s">
+        <v>992</v>
       </c>
       <c r="B8" s="347" t="s">
-        <v>953</v>
+        <v>993</v>
       </c>
       <c r="C8" s="347" t="s">
         <v>133</v>
       </c>
       <c r="D8" s="347" t="s">
-        <v>954</v>
+        <v>994</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="393" t="s">
-        <v>955</v>
+        <v>995</v>
       </c>
       <c r="B9" s="271" t="s">
-        <v>956</v>
+        <v>996</v>
       </c>
       <c r="C9" s="271" t="s">
-        <v>957</v>
+        <v>997</v>
       </c>
       <c r="D9" s="271"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="399" t="s">
-        <v>958</v>
+        <v>998</v>
       </c>
       <c r="B10" s="279" t="s">
-        <v>959</v>
+        <v>999</v>
       </c>
       <c r="C10" s="279" t="s">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="D10" s="279"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="399" t="s">
-        <v>961</v>
-      </c>
-      <c r="B11" s="599" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="601" t="n">
         <v>43962</v>
       </c>
       <c r="C11" s="279" t="s">
-        <v>962</v>
+        <v>1002</v>
       </c>
       <c r="D11" s="279"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="399" t="s">
-        <v>963</v>
+        <v>1003</v>
       </c>
       <c r="B12" s="279" t="s">
-        <v>964</v>
+        <v>1004</v>
       </c>
       <c r="C12" s="279"/>
       <c r="D12" s="279" t="s">
-        <v>965</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="399" t="s">
-        <v>966</v>
+        <v>1006</v>
       </c>
       <c r="B13" s="279" t="s">
-        <v>964</v>
+        <v>1004</v>
       </c>
       <c r="C13" s="279"/>
-      <c r="D13" s="600" t="s">
-        <v>967</v>
+      <c r="D13" s="602" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="399" t="s">
-        <v>968</v>
+        <v>1008</v>
       </c>
       <c r="B14" s="279" t="s">
-        <v>964</v>
+        <v>1004</v>
       </c>
       <c r="C14" s="279" t="s">
-        <v>969</v>
-      </c>
-      <c r="D14" s="600" t="s">
-        <v>970</v>
+        <v>1009</v>
+      </c>
+      <c r="D14" s="602" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="399" t="s">
-        <v>971</v>
+        <v>1011</v>
       </c>
       <c r="B15" s="279"/>
       <c r="C15" s="279"/>
@@ -30256,10 +30344,10 @@
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="399" t="s">
-        <v>972</v>
+        <v>1012</v>
       </c>
       <c r="B16" s="279" t="s">
-        <v>973</v>
+        <v>1013</v>
       </c>
       <c r="C16" s="279"/>
       <c r="D16" s="279"/>
@@ -30337,466 +30425,466 @@
       <c r="D28" s="292"/>
     </row>
     <row r="30" customFormat="false" ht="21.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="601" t="s">
-        <v>974</v>
+      <c r="A30" s="603" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="598" t="s">
-        <v>952</v>
+      <c r="A31" s="600" t="s">
+        <v>992</v>
       </c>
       <c r="B31" s="347" t="s">
-        <v>953</v>
+        <v>993</v>
       </c>
       <c r="C31" s="347" t="s">
         <v>133</v>
       </c>
       <c r="D31" s="347" t="s">
-        <v>954</v>
+        <v>994</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="399" t="s">
-        <v>975</v>
+        <v>1015</v>
       </c>
       <c r="B32" s="279"/>
-      <c r="C32" s="602"/>
-      <c r="D32" s="603" t="s">
-        <v>976</v>
+      <c r="C32" s="604"/>
+      <c r="D32" s="605" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="399" t="s">
-        <v>977</v>
+        <v>1017</v>
       </c>
       <c r="B33" s="279"/>
-      <c r="C33" s="602"/>
-      <c r="D33" s="603" t="s">
-        <v>978</v>
+      <c r="C33" s="604"/>
+      <c r="D33" s="605" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="399" t="s">
-        <v>979</v>
+        <v>1019</v>
       </c>
       <c r="B34" s="279"/>
-      <c r="C34" s="604"/>
-      <c r="D34" s="603" t="s">
-        <v>980</v>
+      <c r="C34" s="606"/>
+      <c r="D34" s="605" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="399" t="s">
-        <v>981</v>
+        <v>1021</v>
       </c>
       <c r="B35" s="279"/>
-      <c r="C35" s="589" t="s">
-        <v>982</v>
-      </c>
-      <c r="D35" s="603" t="s">
-        <v>983</v>
+      <c r="C35" s="591" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D35" s="605" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="399" t="s">
-        <v>984</v>
+        <v>1024</v>
       </c>
       <c r="B36" s="279"/>
-      <c r="C36" s="605"/>
-      <c r="D36" s="603" t="s">
-        <v>985</v>
+      <c r="C36" s="607"/>
+      <c r="D36" s="605" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="399" t="s">
-        <v>986</v>
+        <v>1026</v>
       </c>
       <c r="B37" s="279"/>
-      <c r="C37" s="605"/>
-      <c r="D37" s="603" t="s">
-        <v>987</v>
+      <c r="C37" s="607"/>
+      <c r="D37" s="605" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="399" t="s">
-        <v>988</v>
+        <v>1028</v>
       </c>
       <c r="B38" s="279"/>
-      <c r="C38" s="606" t="s">
-        <v>982</v>
-      </c>
-      <c r="D38" s="603" t="s">
-        <v>989</v>
+      <c r="C38" s="608" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D38" s="605" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="399" t="s">
-        <v>990</v>
+        <v>1030</v>
       </c>
       <c r="B39" s="279"/>
-      <c r="C39" s="606" t="s">
-        <v>982</v>
-      </c>
-      <c r="D39" s="603" t="s">
-        <v>991</v>
+      <c r="C39" s="608" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D39" s="605" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="399" t="s">
-        <v>992</v>
+        <v>1032</v>
       </c>
       <c r="B40" s="279"/>
-      <c r="C40" s="606" t="s">
-        <v>982</v>
-      </c>
-      <c r="D40" s="603" t="s">
-        <v>993</v>
+      <c r="C40" s="608" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D40" s="605" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="607" t="s">
-        <v>994</v>
-      </c>
-      <c r="B41" s="608"/>
-      <c r="C41" s="606" t="s">
-        <v>982</v>
-      </c>
-      <c r="D41" s="603" t="s">
-        <v>995</v>
+      <c r="A41" s="609" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B41" s="610"/>
+      <c r="C41" s="608" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D41" s="605" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="607" t="s">
-        <v>996</v>
-      </c>
-      <c r="B42" s="608"/>
-      <c r="C42" s="604"/>
-      <c r="D42" s="603"/>
+      <c r="A42" s="609" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B42" s="610"/>
+      <c r="C42" s="606"/>
+      <c r="D42" s="605"/>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="607" t="s">
-        <v>997</v>
-      </c>
-      <c r="B43" s="608"/>
-      <c r="C43" s="589" t="s">
-        <v>998</v>
-      </c>
-      <c r="D43" s="603" t="s">
-        <v>999</v>
+      <c r="A43" s="609" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B43" s="610"/>
+      <c r="C43" s="591" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D43" s="605" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="607" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B44" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C44" s="609" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D44" s="603" t="s">
-        <v>1003</v>
+      <c r="A44" s="609" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B44" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C44" s="611" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D44" s="605" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="607" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B45" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C45" s="609" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D45" s="603" t="s">
-        <v>1006</v>
+      <c r="A45" s="609" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B45" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C45" s="611" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D45" s="605" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="607" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B46" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C46" s="609" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D46" s="603" t="s">
-        <v>1009</v>
+      <c r="A46" s="609" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B46" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C46" s="611" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D46" s="605" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="610" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B47" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C47" s="609" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D47" s="603" t="s">
-        <v>1012</v>
+      <c r="A47" s="612" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B47" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C47" s="611" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D47" s="605" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="610"/>
-      <c r="B48" s="611" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C48" s="609" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D48" s="612" t="s">
-        <v>1015</v>
+      <c r="A48" s="612"/>
+      <c r="B48" s="613" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C48" s="611" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D48" s="614" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="607" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B49" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C49" s="609" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D49" s="603" t="s">
-        <v>1018</v>
+      <c r="A49" s="609" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B49" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C49" s="611" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D49" s="605" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="607" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B50" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C50" s="609" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D50" s="603" t="s">
-        <v>1021</v>
+      <c r="A50" s="609" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B50" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C50" s="611" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D50" s="605" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="610" t="s">
-        <v>1022</v>
+      <c r="A51" s="612" t="s">
+        <v>1062</v>
       </c>
       <c r="B51" s="279" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C51" s="609" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D51" s="603" t="s">
-        <v>1024</v>
+        <v>1041</v>
+      </c>
+      <c r="C51" s="611" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D51" s="605" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="610"/>
-      <c r="B52" s="613" t="s">
-        <v>1025</v>
+      <c r="A52" s="612"/>
+      <c r="B52" s="615" t="s">
+        <v>1065</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D52" s="603" t="s">
-        <v>1027</v>
+        <v>1066</v>
+      </c>
+      <c r="D52" s="605" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="373" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B53" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C53" s="609" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D53" s="603" t="s">
-        <v>1030</v>
+        <v>1068</v>
+      </c>
+      <c r="B53" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C53" s="611" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D53" s="605" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="614" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B54" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C54" s="609" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D54" s="603" t="s">
-        <v>1033</v>
+      <c r="A54" s="616" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B54" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C54" s="611" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D54" s="605" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="607" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B55" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C55" s="609" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D55" s="603" t="s">
-        <v>1036</v>
+      <c r="A55" s="609" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B55" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C55" s="611" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D55" s="605" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="607" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B56" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C56" s="609" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D56" s="603" t="s">
-        <v>1039</v>
+      <c r="A56" s="609" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B56" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C56" s="611" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D56" s="605" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="607" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B57" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C57" s="609" t="s">
+      <c r="A57" s="609" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B57" s="610" t="s">
         <v>1041</v>
       </c>
-      <c r="D57" s="603" t="s">
-        <v>1042</v>
+      <c r="C57" s="611" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D57" s="605" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="607" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B58" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C58" s="609" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D58" s="603" t="s">
-        <v>1045</v>
+      <c r="A58" s="609" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B58" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C58" s="611" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D58" s="605" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="610" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B59" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C59" s="609" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D59" s="603" t="s">
-        <v>1048</v>
+      <c r="A59" s="612" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B59" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C59" s="611" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D59" s="605" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="610"/>
-      <c r="B60" s="611" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C60" s="609" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D60" s="603" t="s">
-        <v>1050</v>
+      <c r="A60" s="612"/>
+      <c r="B60" s="613" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C60" s="611" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D60" s="605" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="610" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B61" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C61" s="609" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D61" s="603" t="s">
+      <c r="A61" s="612" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B61" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C61" s="611" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D61" s="605" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="612"/>
+      <c r="B62" s="613" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="610"/>
-      <c r="B62" s="611" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C62" s="615" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D62" s="603" t="s">
-        <v>1055</v>
+      <c r="C62" s="617" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D62" s="605" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="607" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B63" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C63" s="609" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D63" s="603" t="s">
-        <v>1058</v>
+      <c r="A63" s="609" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B63" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C63" s="611" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D63" s="605" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="607" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B64" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C64" s="609" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D64" s="603" t="s">
-        <v>1061</v>
+      <c r="A64" s="609" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B64" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C64" s="611" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D64" s="605" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="607" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B65" s="608" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C65" s="609" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D65" s="612" t="s">
-        <v>1064</v>
+      <c r="A65" s="609" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B65" s="610" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C65" s="611" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D65" s="614" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="416" t="s">
-        <v>1065</v>
+        <v>1105</v>
       </c>
       <c r="B66" s="292" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C66" s="590" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D66" s="616" t="s">
-        <v>1067</v>
+        <v>1041</v>
+      </c>
+      <c r="C66" s="592" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D66" s="618" t="s">
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
@@ -30863,9 +30951,9 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.54"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="11" min="4" style="0" width="63.54"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="12" min="12" style="0" width="48.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.53"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="11" min="4" style="0" width="63.53"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="12" min="12" style="0" width="48.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="100" width="12.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="100" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="100" width="12.72"/>
@@ -32749,7 +32837,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12"/>
@@ -33726,7 +33814,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.45"/>
@@ -34556,8 +34644,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="32.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="32.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.17"/>
   </cols>
   <sheetData>
@@ -35693,7 +35781,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15"/>
   </cols>
@@ -36334,10 +36422,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:AM40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36352,7 +36440,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36383,7 +36471,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="424" t="s">
         <v>565</v>
       </c>
@@ -36395,68 +36483,45 @@
       <c r="F5" s="425"/>
       <c r="G5" s="425"/>
       <c r="H5" s="425"/>
-      <c r="L5" s="426" t="s">
+    </row>
+    <row r="6" s="337" customFormat="true" ht="61.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="426" t="s">
         <v>567</v>
       </c>
-      <c r="M5" s="426"/>
-      <c r="N5" s="426"/>
-      <c r="O5" s="426"/>
-      <c r="P5" s="426"/>
-      <c r="Q5" s="426"/>
-      <c r="R5" s="426"/>
-    </row>
-    <row r="6" s="337" customFormat="true" ht="61.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="427" t="s">
+      <c r="B6" s="427" t="s">
         <v>568</v>
       </c>
-      <c r="B6" s="428" t="s">
+      <c r="C6" s="427" t="s">
         <v>569</v>
       </c>
-      <c r="C6" s="428" t="s">
+      <c r="D6" s="427" t="s">
         <v>570</v>
       </c>
-      <c r="D6" s="428" t="s">
+      <c r="E6" s="428" t="s">
         <v>571</v>
       </c>
-      <c r="E6" s="429" t="s">
+      <c r="F6" s="427" t="s">
         <v>572</v>
       </c>
-      <c r="F6" s="428" t="s">
+      <c r="G6" s="428" t="s">
         <v>573</v>
       </c>
-      <c r="G6" s="429" t="s">
+      <c r="H6" s="428" t="s">
         <v>574</v>
       </c>
-      <c r="H6" s="429" t="s">
+      <c r="I6" s="428" t="s">
         <v>575</v>
       </c>
-      <c r="I6" s="429" t="s">
+      <c r="J6" s="428" t="s">
         <v>576</v>
       </c>
-      <c r="J6" s="429" t="s">
-        <v>577</v>
-      </c>
-      <c r="L6" s="430" t="s">
-        <v>578</v>
-      </c>
-      <c r="M6" s="431" t="s">
-        <v>579</v>
-      </c>
-      <c r="N6" s="432" t="s">
-        <v>580</v>
-      </c>
-      <c r="O6" s="431" t="s">
-        <v>581</v>
-      </c>
-      <c r="P6" s="432" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q6" s="432" t="s">
-        <v>583</v>
-      </c>
-      <c r="R6" s="432" t="s">
-        <v>584</v>
-      </c>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="270"/>
@@ -36471,140 +36536,399 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="429" t="s">
+        <v>578</v>
+      </c>
+      <c r="B10" s="429"/>
+      <c r="C10" s="429" t="s">
+        <v>579</v>
+      </c>
+      <c r="D10" s="429"/>
+      <c r="E10" s="429"/>
+      <c r="F10" s="429"/>
+      <c r="G10" s="429"/>
+      <c r="H10" s="429"/>
+      <c r="I10" s="429"/>
+      <c r="J10" s="429"/>
+      <c r="K10" s="430"/>
+      <c r="L10" s="430"/>
+      <c r="M10" s="430"/>
+      <c r="N10" s="430"/>
+      <c r="O10" s="430"/>
+      <c r="P10" s="430"/>
+      <c r="Q10" s="430"/>
+      <c r="R10" s="430"/>
+      <c r="S10" s="430"/>
+      <c r="T10" s="430"/>
+      <c r="U10" s="430"/>
+      <c r="V10" s="430"/>
+      <c r="W10" s="430"/>
+      <c r="X10" s="430"/>
+      <c r="Y10" s="430"/>
+      <c r="Z10" s="430"/>
+      <c r="AA10" s="430"/>
+      <c r="AB10" s="430"/>
+      <c r="AC10" s="430"/>
+      <c r="AD10" s="430"/>
+      <c r="AE10" s="430"/>
+      <c r="AF10" s="430"/>
+      <c r="AG10" s="430"/>
+      <c r="AH10" s="430"/>
+      <c r="AI10" s="430"/>
+      <c r="AJ10" s="430"/>
+      <c r="AK10" s="430"/>
+      <c r="AL10" s="430"/>
+      <c r="AM10" s="430"/>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="426" t="s">
+        <v>580</v>
+      </c>
+      <c r="B11" s="427" t="s">
+        <v>581</v>
+      </c>
+      <c r="C11" s="427" t="s">
+        <v>582</v>
+      </c>
+      <c r="D11" s="427" t="s">
+        <v>583</v>
+      </c>
+      <c r="E11" s="428" t="s">
+        <v>584</v>
+      </c>
+      <c r="F11" s="427" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="433" t="s">
+      <c r="G11" s="428" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="434"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="435" t="s">
+      <c r="H11" s="428" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="436"/>
-      <c r="B27" s="437" t="s">
+      <c r="I11" s="428" t="s">
         <v>588</v>
       </c>
-      <c r="C27" s="438" t="s">
+      <c r="J11" s="428" t="s">
+        <v>589</v>
+      </c>
+      <c r="K11" s="430"/>
+      <c r="L11" s="430"/>
+      <c r="M11" s="430"/>
+      <c r="N11" s="430"/>
+      <c r="O11" s="430"/>
+      <c r="P11" s="430"/>
+      <c r="Q11" s="430"/>
+      <c r="R11" s="430"/>
+      <c r="S11" s="430"/>
+      <c r="T11" s="430"/>
+      <c r="U11" s="430"/>
+      <c r="V11" s="430"/>
+      <c r="W11" s="430"/>
+      <c r="X11" s="430"/>
+      <c r="Y11" s="430"/>
+      <c r="Z11" s="430"/>
+      <c r="AA11" s="430"/>
+      <c r="AB11" s="430"/>
+      <c r="AC11" s="430"/>
+      <c r="AD11" s="430"/>
+      <c r="AE11" s="430"/>
+      <c r="AF11" s="430"/>
+    </row>
+    <row r="12" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K12" s="430"/>
+      <c r="L12" s="430"/>
+      <c r="M12" s="430"/>
+      <c r="N12" s="430"/>
+      <c r="O12" s="430"/>
+      <c r="P12" s="430"/>
+      <c r="Q12" s="430"/>
+      <c r="R12" s="430"/>
+      <c r="S12" s="430"/>
+      <c r="T12" s="430"/>
+      <c r="U12" s="430"/>
+      <c r="V12" s="430"/>
+      <c r="W12" s="430"/>
+      <c r="X12" s="430"/>
+      <c r="Y12" s="430"/>
+      <c r="Z12" s="430"/>
+      <c r="AA12" s="430"/>
+      <c r="AB12" s="430"/>
+      <c r="AC12" s="430"/>
+      <c r="AD12" s="430"/>
+      <c r="AE12" s="430"/>
+      <c r="AF12" s="430"/>
+    </row>
+    <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="426" t="s">
+        <v>590</v>
+      </c>
+      <c r="B13" s="427" t="s">
+        <v>591</v>
+      </c>
+      <c r="C13" s="427" t="s">
+        <v>592</v>
+      </c>
+      <c r="D13" s="427" t="s">
+        <v>593</v>
+      </c>
+      <c r="E13" s="428" t="s">
+        <v>594</v>
+      </c>
+      <c r="F13" s="427" t="s">
+        <v>595</v>
+      </c>
+      <c r="G13" s="428" t="s">
+        <v>596</v>
+      </c>
+      <c r="H13" s="428" t="s">
+        <v>597</v>
+      </c>
+      <c r="I13" s="428" t="s">
+        <v>598</v>
+      </c>
+      <c r="J13" s="428" t="s">
+        <v>599</v>
+      </c>
+      <c r="K13" s="428" t="s">
+        <v>600</v>
+      </c>
+      <c r="L13" s="428" t="s">
+        <v>601</v>
+      </c>
+      <c r="M13" s="428" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="426" t="s">
+        <v>603</v>
+      </c>
+      <c r="B15" s="427" t="s">
+        <v>604</v>
+      </c>
+      <c r="C15" s="427" t="s">
+        <v>605</v>
+      </c>
+      <c r="D15" s="427" t="s">
+        <v>606</v>
+      </c>
+      <c r="E15" s="428" t="s">
+        <v>607</v>
+      </c>
+      <c r="F15" s="427" t="s">
+        <v>608</v>
+      </c>
+      <c r="G15" s="428" t="s">
+        <v>609</v>
+      </c>
+      <c r="H15" s="428" t="s">
+        <v>610</v>
+      </c>
+      <c r="I15" s="428" t="s">
+        <v>611</v>
+      </c>
+      <c r="J15" s="428" t="s">
+        <v>612</v>
+      </c>
+      <c r="K15" s="428" t="s">
+        <v>613</v>
+      </c>
+      <c r="L15" s="428" t="s">
+        <v>614</v>
+      </c>
+      <c r="M15" s="428" t="s">
+        <v>615</v>
+      </c>
+      <c r="N15" s="428" t="s">
+        <v>616</v>
+      </c>
+      <c r="O15" s="428" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="431" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="432" t="s">
+        <v>619</v>
+      </c>
+      <c r="I19" s="432"/>
+      <c r="J19" s="432"/>
+      <c r="K19" s="432"/>
+      <c r="L19" s="432"/>
+      <c r="M19" s="432"/>
+      <c r="N19" s="432"/>
+    </row>
+    <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="433" t="s">
+        <v>620</v>
+      </c>
+      <c r="I20" s="434" t="s">
+        <v>621</v>
+      </c>
+      <c r="J20" s="435" t="s">
+        <v>622</v>
+      </c>
+      <c r="K20" s="434" t="s">
+        <v>623</v>
+      </c>
+      <c r="L20" s="435" t="s">
+        <v>624</v>
+      </c>
+      <c r="M20" s="435" t="s">
+        <v>625</v>
+      </c>
+      <c r="N20" s="435" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="436" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="437"/>
+      <c r="B32" s="438" t="s">
+        <v>628</v>
+      </c>
+      <c r="C32" s="439" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="439" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="440" t="s">
-        <v>590</v>
-      </c>
-      <c r="B28" s="441" t="s">
-        <v>591</v>
-      </c>
-      <c r="C28" s="440" t="s">
-        <v>592</v>
-      </c>
-      <c r="D28" s="440" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="440" t="s">
-        <v>594</v>
-      </c>
-      <c r="B29" s="440" t="s">
-        <v>595</v>
-      </c>
-      <c r="C29" s="440" t="s">
-        <v>592</v>
-      </c>
-      <c r="D29" s="440" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="440" t="s">
-        <v>597</v>
-      </c>
-      <c r="B30" s="440" t="s">
-        <v>598</v>
-      </c>
-      <c r="C30" s="440" t="s">
-        <v>592</v>
-      </c>
-      <c r="D30" s="440" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="440" t="s">
-        <v>600</v>
-      </c>
-      <c r="B31" s="440" t="s">
-        <v>601</v>
-      </c>
-      <c r="C31" s="440" t="s">
-        <v>592</v>
-      </c>
-      <c r="D31" s="440" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="440" t="s">
-        <v>603</v>
-      </c>
-      <c r="B32" s="440" t="s">
-        <v>604</v>
-      </c>
-      <c r="C32" s="441" t="s">
-        <v>605</v>
-      </c>
       <c r="D32" s="440" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="440" t="s">
-        <v>607</v>
-      </c>
-      <c r="B33" s="440" t="s">
-        <v>608</v>
-      </c>
-      <c r="C33" s="441"/>
-      <c r="D33" s="440"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="440" t="s">
-        <v>609</v>
-      </c>
-      <c r="B34" s="440"/>
-      <c r="C34" s="441"/>
-      <c r="D34" s="440"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="440" t="s">
-        <v>610</v>
-      </c>
-      <c r="B35" s="440" t="s">
-        <v>606</v>
-      </c>
-      <c r="C35" s="440" t="s">
-        <v>606</v>
-      </c>
-      <c r="D35" s="440" t="s">
-        <v>606</v>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="441" t="s">
+        <v>630</v>
+      </c>
+      <c r="B33" s="442" t="s">
+        <v>631</v>
+      </c>
+      <c r="C33" s="441" t="s">
+        <v>632</v>
+      </c>
+      <c r="D33" s="441" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="441" t="s">
+        <v>634</v>
+      </c>
+      <c r="B34" s="441" t="s">
+        <v>635</v>
+      </c>
+      <c r="C34" s="441" t="s">
+        <v>632</v>
+      </c>
+      <c r="D34" s="441" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="441" t="s">
+        <v>637</v>
+      </c>
+      <c r="B35" s="441" t="s">
+        <v>638</v>
+      </c>
+      <c r="C35" s="441" t="s">
+        <v>632</v>
+      </c>
+      <c r="D35" s="441" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="441" t="s">
+        <v>640</v>
+      </c>
+      <c r="B36" s="441" t="s">
+        <v>641</v>
+      </c>
+      <c r="C36" s="441" t="s">
+        <v>632</v>
+      </c>
+      <c r="D36" s="441" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="441" t="s">
+        <v>643</v>
+      </c>
+      <c r="B37" s="441" t="s">
+        <v>644</v>
+      </c>
+      <c r="C37" s="442" t="s">
+        <v>645</v>
+      </c>
+      <c r="D37" s="441" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="441" t="s">
+        <v>647</v>
+      </c>
+      <c r="B38" s="441" t="s">
+        <v>648</v>
+      </c>
+      <c r="C38" s="442"/>
+      <c r="D38" s="441"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="441" t="s">
+        <v>649</v>
+      </c>
+      <c r="B39" s="441"/>
+      <c r="C39" s="442"/>
+      <c r="D39" s="441"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="441" t="s">
+        <v>650</v>
+      </c>
+      <c r="B40" s="441" t="s">
+        <v>646</v>
+      </c>
+      <c r="C40" s="441" t="s">
+        <v>646</v>
+      </c>
+      <c r="D40" s="441" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L5:R5"/>
+  <mergeCells count="2">
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="H19:N19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" display="https://doi.org/10.1093/bioinformatics/btad179"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -36612,7 +36936,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -36659,95 +36983,95 @@
       <c r="B3" s="107"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="442" t="s">
-        <v>611</v>
-      </c>
-      <c r="B5" s="442"/>
-      <c r="C5" s="443"/>
+      <c r="A5" s="443" t="s">
+        <v>651</v>
+      </c>
+      <c r="B5" s="443"/>
+      <c r="C5" s="444"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="442"/>
-      <c r="B6" s="442"/>
-      <c r="C6" s="443"/>
+      <c r="A6" s="443"/>
+      <c r="B6" s="443"/>
+      <c r="C6" s="444"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="442"/>
-      <c r="B7" s="442"/>
-      <c r="C7" s="443"/>
+      <c r="A7" s="443"/>
+      <c r="B7" s="443"/>
+      <c r="C7" s="444"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="443"/>
-      <c r="B8" s="443"/>
-      <c r="C8" s="443"/>
+      <c r="A8" s="444"/>
+      <c r="B8" s="444"/>
+      <c r="C8" s="444"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="433" t="s">
-        <v>586</v>
-      </c>
-      <c r="L10" s="435" t="s">
-        <v>612</v>
+      <c r="A10" s="431" t="s">
+        <v>618</v>
+      </c>
+      <c r="L10" s="436" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L11" s="444" t="s">
+      <c r="L11" s="445" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="444" t="s">
-        <v>613</v>
+      <c r="M11" s="445" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L12" s="440" t="s">
-        <v>590</v>
-      </c>
-      <c r="M12" s="440" t="s">
+      <c r="L12" s="441" t="s">
+        <v>630</v>
+      </c>
+      <c r="M12" s="441" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="434"/>
-      <c r="L13" s="440" t="s">
-        <v>594</v>
-      </c>
-      <c r="M13" s="440" t="s">
-        <v>614</v>
+      <c r="A13" s="446"/>
+      <c r="L13" s="441" t="s">
+        <v>634</v>
+      </c>
+      <c r="M13" s="441" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L14" s="440" t="s">
-        <v>597</v>
-      </c>
-      <c r="M14" s="440" t="s">
+      <c r="L14" s="441" t="s">
+        <v>637</v>
+      </c>
+      <c r="M14" s="441" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L15" s="440" t="s">
-        <v>600</v>
-      </c>
-      <c r="M15" s="440" t="s">
+      <c r="L15" s="441" t="s">
+        <v>640</v>
+      </c>
+      <c r="M15" s="441" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L16" s="440" t="s">
-        <v>615</v>
-      </c>
-      <c r="M16" s="440" t="s">
+      <c r="L16" s="441" t="s">
+        <v>655</v>
+      </c>
+      <c r="M16" s="441" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L17" s="440" t="s">
-        <v>616</v>
-      </c>
-      <c r="M17" s="440" t="s">
-        <v>606</v>
+      <c r="L17" s="441" t="s">
+        <v>656</v>
+      </c>
+      <c r="M17" s="441" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="422" t="s">
-        <v>617</v>
+        <v>657</v>
       </c>
       <c r="B19" s="423"/>
       <c r="C19" s="423"/>
@@ -36765,41 +37089,41 @@
       <c r="O19" s="423"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="445" t="s">
-        <v>618</v>
+      <c r="A21" s="447" t="s">
+        <v>658</v>
       </c>
       <c r="B21" s="344"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="446" t="s">
+      <c r="A22" s="448" t="s">
         <v>556</v>
       </c>
-      <c r="B22" s="447" t="s">
+      <c r="B22" s="449" t="s">
         <v>561</v>
       </c>
-      <c r="C22" s="447" t="s">
+      <c r="C22" s="449" t="s">
         <v>562</v>
       </c>
-      <c r="D22" s="447" t="s">
-        <v>619</v>
-      </c>
-      <c r="E22" s="447" t="s">
-        <v>620</v>
-      </c>
-      <c r="F22" s="447" t="s">
-        <v>621</v>
-      </c>
-      <c r="G22" s="447" t="s">
-        <v>622</v>
-      </c>
-      <c r="H22" s="447" t="s">
-        <v>623</v>
-      </c>
-      <c r="I22" s="447" t="s">
-        <v>624</v>
-      </c>
-      <c r="J22" s="448" t="s">
-        <v>625</v>
+      <c r="D22" s="449" t="s">
+        <v>659</v>
+      </c>
+      <c r="E22" s="449" t="s">
+        <v>660</v>
+      </c>
+      <c r="F22" s="449" t="s">
+        <v>661</v>
+      </c>
+      <c r="G22" s="449" t="s">
+        <v>662</v>
+      </c>
+      <c r="H22" s="449" t="s">
+        <v>663</v>
+      </c>
+      <c r="I22" s="449" t="s">
+        <v>664</v>
+      </c>
+      <c r="J22" s="450" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/template.xlsx
+++ b/inst/extdata/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Classification Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="1124">
   <si>
     <t xml:space="preserve">Classification based on ACMG/AMP Variant Interpretation Guidelines</t>
   </si>
@@ -71,6 +71,12 @@
     <t xml:space="preserve">end_hg19</t>
   </si>
   <si>
+    <t xml:space="preserve">start_hg38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_hg38</t>
+  </si>
+  <si>
     <t xml:space="preserve">ref_hg19</t>
   </si>
   <si>
@@ -87,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve">Exon/Intron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnsemblID</t>
   </si>
   <si>
     <t xml:space="preserve">Molecular consequence</t>
@@ -18316,6 +18325,12 @@
   </si>
   <si>
     <t xml:space="preserve">Url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a2</t>
   </si>
   <si>
     <t xml:space="preserve">BLOSUM</t>
@@ -21319,14 +21334,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2DB"/>
+        <fgColor rgb="FFFFF2E0"/>
         <bgColor rgb="FFFFEBEB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFD5956"/>
-        <bgColor rgb="FFFE8283"/>
+        <fgColor rgb="FFFD6262"/>
+        <bgColor rgb="FFFE8585"/>
       </patternFill>
     </fill>
     <fill>
@@ -21337,14 +21352,14 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFE8283"/>
-        <bgColor rgb="FFFE9495"/>
+        <fgColor rgb="FFFE8585"/>
+        <bgColor rgb="FFFE9192"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFE9495"/>
-        <bgColor rgb="FFFE8283"/>
+        <fgColor rgb="FFFE9192"/>
+        <bgColor rgb="FFFE8585"/>
       </patternFill>
     </fill>
     <fill>
@@ -21398,7 +21413,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEBEB"/>
-        <bgColor rgb="FFFFF2DB"/>
+        <bgColor rgb="FFFFF2E0"/>
       </patternFill>
     </fill>
     <fill>
@@ -21445,14 +21460,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7D3198"/>
+        <fgColor rgb="FF7E3198"/>
         <bgColor rgb="FF7F807C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="mediumGray">
-        <fgColor rgb="FFE8EEF4"/>
-        <bgColor rgb="FFF2F3F2"/>
+        <fgColor rgb="FFF2F3F2"/>
+        <bgColor rgb="FFE8EEF4"/>
       </patternFill>
     </fill>
     <fill>
@@ -21487,7 +21502,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFFF2DB"/>
+        <fgColor rgb="FFFFF2E0"/>
         <bgColor rgb="FFFFEBEB"/>
       </patternFill>
     </fill>
@@ -21499,20 +21514,20 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFFE9495"/>
-        <bgColor rgb="FFFE8283"/>
+        <fgColor rgb="FFFE9192"/>
+        <bgColor rgb="FFFE8585"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FFFD5956"/>
-        <bgColor rgb="FFCA1814"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD6262"/>
+        <bgColor rgb="FFFE8585"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="FFFE8283"/>
-        <bgColor rgb="FFFD5956"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE8585"/>
+        <bgColor rgb="FFFE9192"/>
       </patternFill>
     </fill>
     <fill>
@@ -25209,11 +25224,11 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF7F807C"/>
       <rgbColor rgb="FF8EA9DB"/>
-      <rgbColor rgb="FF7D3198"/>
-      <rgbColor rgb="FFFFF2DB"/>
+      <rgbColor rgb="FF7E3198"/>
+      <rgbColor rgb="FFFFF2E0"/>
       <rgbColor rgb="FFDEEBF7"/>
       <rgbColor rgb="FFEBE7F1"/>
-      <rgbColor rgb="FFFE8283"/>
+      <rgbColor rgb="FFFE8585"/>
       <rgbColor rgb="FF006FC0"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FFF7F9F0"/>
@@ -25229,7 +25244,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF9DC3E6"/>
-      <rgbColor rgb="FFFE9495"/>
+      <rgbColor rgb="FFFE9192"/>
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF2F6DB5"/>
@@ -25237,7 +25252,7 @@
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FFE0C2CD"/>
-      <rgbColor rgb="FFFD5956"/>
+      <rgbColor rgb="FFFD6262"/>
       <rgbColor rgb="FF538AD0"/>
       <rgbColor rgb="FFA9A6A8"/>
       <rgbColor rgb="FFE2EFD9"/>
@@ -25264,9 +25279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1461600</xdr:colOff>
+      <xdr:colOff>1460520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25280,7 +25295,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="47520" y="5806800"/>
-          <a:ext cx="9074520" cy="2176920"/>
+          <a:ext cx="9073440" cy="2175840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25313,9 +25328,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>240120</xdr:colOff>
+      <xdr:colOff>239040</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25329,7 +25344,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="76320" y="1896120"/>
-          <a:ext cx="16031160" cy="1278720"/>
+          <a:ext cx="16030080" cy="1277640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25359,8 +25374,8 @@
   </sheetPr>
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q17" activeCellId="0" sqref="Q17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25408,6 +25423,9 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
@@ -25433,6 +25451,9 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
@@ -25487,21 +25508,30 @@
         <v>18</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -25524,10 +25554,13 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -25550,10 +25583,13 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
@@ -25576,8 +25612,11 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25586,106 +25625,106 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="L8" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T8" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="T9" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17"/>
       <c r="B10" s="18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="T10" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
       <c r="G11" s="17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
       <c r="T11" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B12" s="27"/>
       <c r="E12" s="28"/>
       <c r="G12" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
       <c r="L12" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
       <c r="T12" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B13" s="27"/>
       <c r="E13" s="28"/>
       <c r="G13" s="33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -25697,12 +25736,12 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B14" s="27"/>
       <c r="E14" s="28"/>
       <c r="G14" s="35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
@@ -25714,12 +25753,12 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15" s="27"/>
       <c r="E15" s="28"/>
       <c r="G15" s="37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -25728,45 +25767,45 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16" s="27"/>
       <c r="E16" s="28"/>
       <c r="G16" s="40" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
       <c r="J16" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B17" s="27"/>
       <c r="E17" s="28"/>
       <c r="G17" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
       <c r="J17" s="44"/>
       <c r="L17" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M17" s="45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N17" s="45"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B18" s="27"/>
       <c r="E18" s="28"/>
@@ -25780,12 +25819,12 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B19" s="27"/>
       <c r="E19" s="28"/>
       <c r="G19" s="48" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
@@ -25796,43 +25835,43 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B20" s="27"/>
       <c r="E20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B21" s="27"/>
       <c r="E21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B22" s="27"/>
       <c r="E22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B23" s="27"/>
       <c r="E23" s="28"/>
       <c r="H23" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B24" s="27"/>
       <c r="E24" s="28"/>
       <c r="G24" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H24" s="51"/>
       <c r="I24" s="52"/>
@@ -25843,17 +25882,17 @@
       <c r="N24" s="52"/>
       <c r="O24" s="53"/>
       <c r="P24" s="54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B25" s="27"/>
       <c r="E25" s="28"/>
       <c r="G25" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H25" s="51"/>
       <c r="I25" s="52"/>
@@ -25867,12 +25906,12 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B26" s="27"/>
       <c r="E26" s="28"/>
       <c r="G26" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H26" s="55"/>
       <c r="I26" s="55"/>
@@ -25886,7 +25925,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="56" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B27" s="27"/>
       <c r="E27" s="28"/>
@@ -25902,7 +25941,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="57" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B28" s="27"/>
       <c r="E28" s="28"/>
@@ -25918,7 +25957,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="57" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B29" s="27"/>
       <c r="E29" s="28"/>
@@ -25934,7 +25973,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="57" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B30" s="27"/>
       <c r="E30" s="28"/>
@@ -25950,7 +25989,7 @@
     </row>
     <row r="31" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="57" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B31" s="27"/>
       <c r="E31" s="28"/>
@@ -25966,12 +26005,12 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="58" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B32" s="27"/>
       <c r="E32" s="28"/>
       <c r="G32" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H32" s="59"/>
       <c r="I32" s="60"/>
@@ -25982,17 +26021,17 @@
       <c r="N32" s="60"/>
       <c r="O32" s="61"/>
       <c r="P32" s="62" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="58" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B33" s="27"/>
       <c r="E33" s="28"/>
       <c r="G33" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H33" s="63"/>
       <c r="I33" s="60"/>
@@ -26006,12 +26045,12 @@
     </row>
     <row r="34" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B34" s="27"/>
       <c r="E34" s="28"/>
       <c r="G34" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H34" s="64" t="str">
         <f aca="false">Evidence!M2</f>
@@ -26027,17 +26066,17 @@
       <c r="P34" s="62"/>
       <c r="Q34" s="65"/>
       <c r="R34" s="66" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="58" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B35" s="27"/>
       <c r="E35" s="28"/>
       <c r="G35" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H35" s="67"/>
       <c r="I35" s="60"/>
@@ -26053,12 +26092,12 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="58" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B36" s="27"/>
       <c r="E36" s="28"/>
       <c r="G36" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H36" s="68"/>
       <c r="I36" s="68"/>
@@ -26085,12 +26124,12 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="58" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B37" s="27"/>
       <c r="E37" s="28"/>
       <c r="G37" s="70" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H37" s="68"/>
       <c r="I37" s="68"/>
@@ -26114,12 +26153,12 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B38" s="27"/>
       <c r="E38" s="28"/>
       <c r="G38" s="71" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H38" s="68"/>
       <c r="I38" s="68"/>
@@ -26143,14 +26182,14 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="72" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B39" s="73"/>
       <c r="C39" s="74"/>
       <c r="D39" s="74"/>
       <c r="E39" s="75"/>
       <c r="G39" s="76" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H39" s="68"/>
       <c r="I39" s="68"/>
@@ -26196,7 +26235,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G41" s="77"/>
       <c r="H41" s="68"/>
@@ -26223,11 +26262,11 @@
         <v>1</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E42" s="79"/>
       <c r="G42" s="80" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H42" s="81" t="n">
         <f aca="false">Evidence!Q42</f>
@@ -26248,11 +26287,11 @@
         <v>0</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E43" s="79"/>
       <c r="G43" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H43" s="82"/>
       <c r="I43" s="83"/>
@@ -26263,20 +26302,20 @@
       <c r="N43" s="83"/>
       <c r="O43" s="84"/>
       <c r="P43" s="85" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R43" s="66"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="78" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E44" s="79"/>
       <c r="G44" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H44" s="86"/>
       <c r="I44" s="87"/>
@@ -26291,7 +26330,7 @@
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="79"/>
       <c r="G45" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H45" s="82"/>
       <c r="I45" s="82"/>
@@ -26306,7 +26345,7 @@
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="79"/>
       <c r="G46" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H46" s="89"/>
       <c r="I46" s="89"/>
@@ -26366,7 +26405,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G55" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H55" s="90"/>
       <c r="I55" s="91"/>
@@ -26377,12 +26416,12 @@
       <c r="N55" s="91"/>
       <c r="O55" s="92"/>
       <c r="P55" s="93" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G56" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H56" s="94"/>
       <c r="I56" s="91"/>
@@ -26396,7 +26435,7 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G57" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H57" s="95"/>
       <c r="I57" s="91"/>
@@ -26410,7 +26449,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G58" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H58" s="96"/>
       <c r="I58" s="91"/>
@@ -26424,7 +26463,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G59" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H59" s="97"/>
       <c r="I59" s="97"/>
@@ -26493,8 +26532,8 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="B2:Y2"/>
     <mergeCell ref="L9:L11"/>
     <mergeCell ref="M9:N11"/>
     <mergeCell ref="J12:K15"/>
@@ -26583,11 +26622,11 @@
   </sheetPr>
   <dimension ref="A1:AZ136"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
@@ -26616,22 +26655,22 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="102" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="103"/>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="105"/>
       <c r="D3" s="109" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5" s="98" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="444" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="B5" s="445"/>
       <c r="C5" s="445"/>
@@ -26650,7 +26689,7 @@
       <c r="P5" s="447"/>
       <c r="Q5" s="446"/>
       <c r="R5" s="448" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="S5" s="448"/>
       <c r="T5" s="448"/>
@@ -26658,7 +26697,7 @@
       <c r="V5" s="448"/>
       <c r="W5" s="448"/>
       <c r="Y5" s="98" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="AK5" s="449"/>
       <c r="AN5" s="450"/>
@@ -26668,155 +26707,155 @@
         <v>2</v>
       </c>
       <c r="B6" s="451" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="C6" s="451" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="D6" s="451" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="E6" s="451" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="F6" s="451" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="G6" s="451" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H6" s="451" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="I6" s="451" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="J6" s="451" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="K6" s="451" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="L6" s="451" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="M6" s="451" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="N6" s="451" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="O6" s="452" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="P6" s="453" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="Q6" s="453" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="R6" s="453" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="S6" s="451" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="T6" s="451" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="U6" s="454" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="V6" s="454" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="W6" s="453" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="X6" s="453" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="Y6" s="453" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="Z6" s="453" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="AA6" s="453" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="AB6" s="453" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="AC6" s="455" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="AD6" s="456" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="AE6" s="453" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="AF6" s="453" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AG6" s="457" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="AH6" s="453" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="AI6" s="453" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="AJ6" s="458" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="AK6" s="459" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="AL6" s="460" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="AM6" s="460" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="AN6" s="461" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" s="472" customFormat="true" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="463"/>
       <c r="B7" s="464" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C7" s="463"/>
       <c r="D7" s="463" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="E7" s="463" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="F7" s="465" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="G7" s="465" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="H7" s="465" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="I7" s="465" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="J7" s="465" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K7" s="465"/>
       <c r="L7" s="465"/>
       <c r="M7" s="465"/>
       <c r="N7" s="465" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="O7" s="465"/>
       <c r="P7" s="463"/>
@@ -26825,44 +26864,44 @@
       <c r="S7" s="463"/>
       <c r="T7" s="463"/>
       <c r="U7" s="467" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="V7" s="467" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="W7" s="467" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="X7" s="467" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="Y7" s="467" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="Z7" s="466" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="AA7" s="466" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="AB7" s="466" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="AC7" s="466" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="AD7" s="468" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="AE7" s="466"/>
       <c r="AF7" s="469"/>
       <c r="AG7" s="469"/>
       <c r="AH7" s="466"/>
       <c r="AI7" s="466" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="AJ7" s="466" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="AK7" s="470"/>
       <c r="AL7" s="469"/>
@@ -26872,7 +26911,7 @@
     <row r="10" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="444" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B11" s="473"/>
       <c r="C11" s="473"/>
@@ -26891,7 +26930,7 @@
       <c r="P11" s="473"/>
       <c r="Q11" s="473"/>
       <c r="R11" s="448" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="S11" s="448"/>
       <c r="T11" s="448"/>
@@ -26899,25 +26938,25 @@
       <c r="V11" s="448"/>
       <c r="W11" s="448"/>
       <c r="Y11" s="0" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="2.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="474"/>
       <c r="AC12" s="0" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="AI12" s="475"/>
     </row>
     <row r="13" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="476" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="B13" s="477"/>
       <c r="C13" s="477"/>
@@ -26928,75 +26967,75 @@
       <c r="H13" s="477"/>
       <c r="I13" s="477"/>
       <c r="J13" s="478" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="K13" s="478" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="L13" s="479" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="M13" s="479" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="N13" s="479" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="O13" s="479" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="P13" s="479" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="Q13" s="479" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="R13" s="478" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="S13" s="479" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="T13" s="479" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="U13" s="479" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="V13" s="479" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="W13" s="479" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="X13" s="479" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="Y13" s="479" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="Z13" s="478" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="AA13" s="479" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="AB13" s="479" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="AC13" s="480" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="AD13" s="481" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="AE13" s="481" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I14" s="482" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="J14" s="267" t="n">
         <v>102</v>
@@ -27066,7 +27105,7 @@
       </c>
       <c r="AJ14" s="475"/>
       <c r="AK14" s="483" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="AL14" s="483"/>
       <c r="AM14" s="483"/>
@@ -27086,157 +27125,157 @@
     </row>
     <row r="15" s="491" customFormat="true" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="484" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="B15" s="484" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="C15" s="484" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="D15" s="484" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="E15" s="485" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="F15" s="484" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G15" s="486" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="H15" s="484" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="I15" s="484" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="J15" s="487" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="K15" s="487" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="L15" s="487" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="M15" s="487" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="N15" s="487" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="O15" s="487" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="P15" s="487" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="Q15" s="487" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="R15" s="487" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="S15" s="487" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="T15" s="487" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="U15" s="487" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="V15" s="487" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="W15" s="487" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="X15" s="487" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="Y15" s="487" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="Z15" s="487" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="AA15" s="487" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="AB15" s="487" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="AC15" s="487" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="AD15" s="487" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="AE15" s="487" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="AF15" s="487" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="AG15" s="487" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="AH15" s="488" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="AI15" s="489" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="AJ15" s="490" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="AK15" s="491" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="AL15" s="491" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="AM15" s="491" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="AN15" s="491" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="AO15" s="491" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="AP15" s="491" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="AQ15" s="491" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="AR15" s="491" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="AS15" s="491" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="AT15" s="491" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="AU15" s="491" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="AV15" s="491" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="AW15" s="491" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="AX15" s="491" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="AY15" s="491" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27245,7 +27284,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="473" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="B19" s="473"/>
       <c r="C19" s="473"/>
@@ -27268,12 +27307,12 @@
       <c r="T19" s="473"/>
       <c r="U19" s="473"/>
       <c r="V19" s="0" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="473" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="B20" s="473"/>
       <c r="C20" s="473"/>
@@ -27296,61 +27335,61 @@
       <c r="T20" s="473"/>
       <c r="U20" s="473"/>
       <c r="V20" s="0" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="493" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B21" s="493" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="C21" s="493" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D21" s="493" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="E21" s="493" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="F21" s="493" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="G21" s="493" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="H21" s="493" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="I21" s="493" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="J21" s="493" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="K21" s="493" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M22" s="0" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M23" s="0" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="444" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B25" s="473"/>
       <c r="C25" s="473"/>
@@ -27364,87 +27403,87 @@
       <c r="K25" s="473"/>
       <c r="L25" s="473"/>
       <c r="V25" s="98" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="26" s="449" customFormat="true" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="493" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B26" s="493" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="C26" s="493" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="D26" s="493" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="E26" s="493" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="F26" s="493" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="G26" s="493" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="H26" s="493" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="I26" s="493" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="J26" s="493" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="K26" s="493" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="L26" s="493" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="M26" s="493" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="N26" s="493" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="O26" s="494" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="P26" s="495" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="Q26" s="495" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="R26" s="495" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="S26" s="493" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="T26" s="493" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="U26" s="496" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="V26" s="496" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="W26" s="497" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="X26" s="495" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="Y26" s="495" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="Z26" s="495" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="AA26" s="495"/>
       <c r="AB26" s="495"/>
@@ -27464,7 +27503,7 @@
     <row r="29" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="444" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="B30" s="473"/>
       <c r="C30" s="473"/>
@@ -27481,62 +27520,62 @@
     </row>
     <row r="31" customFormat="false" ht="49.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="493" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B31" s="493" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="C31" s="493" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="D31" s="493" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="E31" s="493" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="F31" s="493" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="G31" s="493" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="H31" s="493" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="I31" s="493" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="J31" s="493" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="K31" s="493" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="L31" s="493" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="M31" s="493" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="N31" s="493" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="O31" s="493" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="P31" s="493" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="Q31" s="493" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="444" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="B35" s="444"/>
       <c r="C35" s="444"/>
@@ -27766,7 +27805,7 @@
     </row>
     <row r="46" s="507" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="506" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="B46" s="444"/>
       <c r="C46" s="444"/>
@@ -27777,34 +27816,34 @@
     </row>
     <row r="47" customFormat="false" ht="38.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="505" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="B47" s="505" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="C47" s="505" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="D47" s="505" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="E47" s="505" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="F47" s="505" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="G47" s="493" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="H47" s="493" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="I47" s="493" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="J47" s="493" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27818,7 +27857,7 @@
     </row>
     <row r="49" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="505" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="B49" s="505"/>
       <c r="C49" s="505"/>
@@ -27852,17 +27891,17 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="508" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
     </row>
     <row r="55" s="240" customFormat="true" ht="55.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27876,7 +27915,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="506" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="B59" s="506"/>
       <c r="C59" s="506"/>
@@ -27896,7 +27935,7 @@
       <c r="B60" s="509"/>
       <c r="C60" s="509"/>
       <c r="D60" s="493" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="E60" s="493"/>
       <c r="F60" s="493"/>
@@ -27904,18 +27943,18 @@
       <c r="H60" s="493"/>
       <c r="I60" s="493"/>
       <c r="J60" s="493" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="K60" s="493"/>
       <c r="L60" s="493"/>
       <c r="M60" s="493"/>
       <c r="N60" s="493" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="O60" s="510"/>
       <c r="P60" s="510"/>
       <c r="Q60" s="493" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="R60" s="493"/>
       <c r="S60" s="493"/>
@@ -27924,116 +27963,116 @@
     </row>
     <row r="61" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="493" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="B61" s="493" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="C61" s="493" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="D61" s="493" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="E61" s="493" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="F61" s="493" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="H61" s="511" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="I61" s="511" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="J61" s="493" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="K61" s="493" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="L61" s="493" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="M61" s="493" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="N61" s="493" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="O61" s="493" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="P61" s="493" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="Q61" s="493" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="R61" s="493" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="S61" s="493" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="T61" s="493" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="U61" s="493" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="V61" s="511" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="W61" s="511" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
     </row>
     <row r="62" s="240" customFormat="true" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="255" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="D65" s="512" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="E65" s="513" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="F65" s="513" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="G65" s="349" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="H65" s="513" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="I65" s="512" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="J65" s="512" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="K65" s="512" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="L65" s="512" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="M65" s="512" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28055,7 +28094,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="473" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="B71" s="473"/>
       <c r="C71" s="473"/>
@@ -28071,30 +28110,30 @@
     </row>
     <row r="72" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="493" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B72" s="493"/>
       <c r="C72" s="493"/>
       <c r="D72" s="493" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="E72" s="493"/>
       <c r="F72" s="493" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="G72" s="493"/>
       <c r="H72" s="493"/>
       <c r="I72" s="493" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="J72" s="493" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="K72" s="493" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="L72" s="493" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28989,11 +29028,11 @@
   </sheetPr>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.7"/>
@@ -29022,88 +29061,88 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="102" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="103"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="105"/>
       <c r="K3" s="307"/>
     </row>
     <row r="4" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C4" s="515" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="D4" s="516"/>
       <c r="E4" s="516"/>
       <c r="F4" s="516"/>
       <c r="H4" s="517" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I4" s="518" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J4" s="518" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K4" s="517" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M4" s="519" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="N4" s="520" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O4" s="520" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H5" s="521" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I5" s="522" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J5" s="522"/>
       <c r="K5" s="523"/>
       <c r="M5" s="524"/>
       <c r="N5" s="520" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O5" s="525" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H6" s="521" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I6" s="522" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J6" s="522"/>
       <c r="K6" s="523"/>
       <c r="M6" s="524"/>
       <c r="N6" s="520" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="O6" s="520" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E7" s="239"/>
       <c r="M7" s="524"/>
       <c r="N7" s="520" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="O7" s="520" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29113,57 +29152,57 @@
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="109" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="526" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="B13" s="527" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="C13" s="527" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="D13" s="527" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="E13" s="527" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="F13" s="527" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="G13" s="527" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="H13" s="527" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="I13" s="527" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="J13" s="527" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="K13" s="527" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="L13" s="528" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="M13" s="527" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="N13" s="527" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="O13" s="527" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="P13" s="529" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="Q13" s="530"/>
       <c r="R13" s="531"/>
@@ -29181,7 +29220,7 @@
       <c r="J14" s="527"/>
       <c r="K14" s="527"/>
       <c r="L14" s="532" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="M14" s="527"/>
       <c r="N14" s="527"/>
@@ -29192,42 +29231,42 @@
     </row>
     <row r="15" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="533" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="B15" s="533"/>
       <c r="C15" s="533"/>
       <c r="D15" s="533" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="E15" s="533" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="F15" s="533" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="G15" s="533" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="H15" s="533" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="I15" s="533" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="J15" s="533" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="K15" s="533"/>
       <c r="L15" s="533" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="M15" s="533"/>
       <c r="N15" s="533" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="O15" s="533"/>
       <c r="P15" s="533" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="Q15" s="410"/>
       <c r="R15" s="411"/>
@@ -29313,7 +29352,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="540" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="B20" s="540"/>
       <c r="C20" s="540"/>
@@ -29355,7 +29394,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="329" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -29410,11 +29449,11 @@
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.7"/>
@@ -29442,13 +29481,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="102" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="103"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="105"/>
     </row>
@@ -29457,66 +29496,66 @@
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="109" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="543" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="B8" s="544" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="C8" s="544" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="D8" s="544" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="E8" s="544" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="F8" s="544" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="G8" s="544" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="H8" s="544" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="I8" s="544" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="J8" s="544" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="K8" s="544" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="L8" s="544" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="M8" s="544" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="N8" s="544" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="O8" s="544" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="P8" s="544" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="Q8" s="544" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="R8" s="544" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="S8" s="545" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29535,7 +29574,7 @@
       <c r="M9" s="544"/>
       <c r="N9" s="544"/>
       <c r="O9" s="546" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="P9" s="544"/>
       <c r="Q9" s="544"/>
@@ -29544,39 +29583,39 @@
     </row>
     <row r="10" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="547" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="B10" s="548"/>
       <c r="C10" s="548"/>
       <c r="D10" s="548" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="E10" s="548" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="F10" s="548"/>
       <c r="G10" s="548"/>
       <c r="H10" s="548"/>
       <c r="I10" s="548" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="J10" s="548"/>
       <c r="K10" s="548"/>
       <c r="L10" s="548" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="M10" s="548"/>
       <c r="N10" s="548"/>
       <c r="O10" s="549"/>
       <c r="P10" s="548" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="Q10" s="548" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="R10" s="548"/>
       <c r="S10" s="548" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29644,7 +29683,7 @@
     </row>
     <row r="14" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="558" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="B14" s="558"/>
       <c r="C14" s="558"/>
@@ -29667,7 +29706,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="329" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -29710,11 +29749,11 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.85"/>
@@ -29734,48 +29773,48 @@
       </c>
       <c r="B1" s="100"/>
       <c r="H1" s="559" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="I1" s="560" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J1" s="560" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="102" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="103"/>
       <c r="I2" s="560" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J2" s="560" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="105"/>
       <c r="I3" s="560" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="J3" s="560" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="109" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="I4" s="560" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="J4" s="560" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29783,44 +29822,44 @@
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="561" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="C6" s="562" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="D6" s="562" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="E6" s="561" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="G6" s="563" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H6" s="564" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I6" s="564" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J6" s="563" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K6" s="307"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="565" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="B7" s="566"/>
       <c r="C7" s="566"/>
       <c r="D7" s="567"/>
       <c r="E7" s="568"/>
       <c r="G7" s="569" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I7" s="150"/>
       <c r="J7" s="269"/>
@@ -29832,10 +29871,10 @@
       <c r="D8" s="572"/>
       <c r="E8" s="573"/>
       <c r="G8" s="569" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H8" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I8" s="150"/>
       <c r="J8" s="269"/>
@@ -29847,10 +29886,10 @@
       <c r="D9" s="572"/>
       <c r="E9" s="573"/>
       <c r="G9" s="569" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H9" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I9" s="150"/>
       <c r="J9" s="269"/>
@@ -29862,27 +29901,27 @@
       <c r="D10" s="576"/>
       <c r="E10" s="577"/>
       <c r="G10" s="569" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H10" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I10" s="150"/>
       <c r="J10" s="269"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="565" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="B11" s="566"/>
       <c r="C11" s="566"/>
       <c r="D11" s="567"/>
       <c r="E11" s="568"/>
       <c r="G11" s="569" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H11" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I11" s="150"/>
       <c r="J11" s="269"/>
@@ -29894,10 +29933,10 @@
       <c r="D12" s="579"/>
       <c r="E12" s="270"/>
       <c r="G12" s="569" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H12" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I12" s="150"/>
       <c r="J12" s="269"/>
@@ -29909,10 +29948,10 @@
       <c r="D13" s="579"/>
       <c r="E13" s="270"/>
       <c r="G13" s="569" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H13" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I13" s="150"/>
       <c r="J13" s="269"/>
@@ -29924,27 +29963,27 @@
       <c r="D14" s="580"/>
       <c r="E14" s="283"/>
       <c r="G14" s="569" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I14" s="150"/>
       <c r="J14" s="269"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="565" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="B15" s="279"/>
       <c r="C15" s="279"/>
       <c r="D15" s="581"/>
       <c r="E15" s="280"/>
       <c r="G15" s="569" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H15" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I15" s="150"/>
       <c r="J15" s="269"/>
@@ -29956,10 +29995,10 @@
       <c r="D16" s="579"/>
       <c r="E16" s="270"/>
       <c r="G16" s="569" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H16" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I16" s="150"/>
       <c r="J16" s="269"/>
@@ -29980,7 +30019,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="565" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="B19" s="279"/>
       <c r="C19" s="279"/>
@@ -29989,7 +30028,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="582" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="B20" s="267"/>
       <c r="C20" s="267"/>
@@ -29998,7 +30037,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="582" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="B21" s="267"/>
       <c r="C21" s="267"/>
@@ -30014,7 +30053,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="565" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="B23" s="279"/>
       <c r="C23" s="279"/>
@@ -30044,7 +30083,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="565" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="B27" s="279"/>
       <c r="C27" s="583"/>
@@ -30053,7 +30092,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="582" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="B28" s="267"/>
       <c r="C28" s="584"/>
@@ -30076,7 +30115,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="565" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="B31" s="279"/>
       <c r="C31" s="583"/>
@@ -30085,7 +30124,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="582" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="B32" s="267"/>
       <c r="C32" s="584"/>
@@ -30108,7 +30147,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="565" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="B35" s="279"/>
       <c r="C35" s="583"/>
@@ -30117,7 +30156,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="582" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="B36" s="267"/>
       <c r="C36" s="584"/>
@@ -30140,7 +30179,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="329" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -30171,7 +30210,7 @@
   </sheetPr>
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -30191,115 +30230,115 @@
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="102" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="103"/>
       <c r="C2" s="586" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="105"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="587" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="588" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="B8" s="338" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="C8" s="338" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D8" s="338" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="384" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="B9" s="262" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="C9" s="262" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="D9" s="262"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="390" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="B10" s="270" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="C10" s="270" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="D10" s="270"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="390" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="B11" s="589" t="n">
         <v>43962</v>
       </c>
       <c r="C11" s="270" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="D11" s="270"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="390" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="B12" s="270" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="C12" s="270"/>
       <c r="D12" s="270" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="390" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="B13" s="270" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="C13" s="270"/>
       <c r="D13" s="590" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="390" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B14" s="270" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="C14" s="270" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="D14" s="590" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="390" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="B15" s="270"/>
       <c r="C15" s="270"/>
@@ -30307,10 +30346,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="390" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="B16" s="270" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="C16" s="270"/>
       <c r="D16" s="270"/>
@@ -30389,136 +30428,136 @@
     </row>
     <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="591" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="588" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="B31" s="338" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="C31" s="338" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D31" s="338" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="390" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="B32" s="270"/>
       <c r="C32" s="592"/>
       <c r="D32" s="593" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="390" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="B33" s="270"/>
       <c r="C33" s="592"/>
       <c r="D33" s="593" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="390" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="B34" s="270"/>
       <c r="C34" s="594"/>
       <c r="D34" s="593" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="390" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="B35" s="270"/>
       <c r="C35" s="579" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="D35" s="593" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="390" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="B36" s="270"/>
       <c r="C36" s="595"/>
       <c r="D36" s="593" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="390" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="B37" s="270"/>
       <c r="C37" s="595"/>
       <c r="D37" s="593" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="390" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="B38" s="270"/>
       <c r="C38" s="579" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="D38" s="593" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="390" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="B39" s="270"/>
       <c r="C39" s="579" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="D39" s="593" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="390" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="B40" s="270"/>
       <c r="C40" s="579" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="D40" s="593" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="596" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="B41" s="597"/>
       <c r="C41" s="579" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="D41" s="593" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="596" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="B42" s="597"/>
       <c r="C42" s="594"/>
@@ -30526,328 +30565,328 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="596" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="B43" s="597"/>
       <c r="C43" s="579" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="D43" s="593" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="596" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="B44" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C44" s="598" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="D44" s="593" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="596" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="B45" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C45" s="598" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="D45" s="593" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="596" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="B46" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C46" s="598" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="D46" s="593" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="599" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="B47" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C47" s="598" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="D47" s="593" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="599"/>
       <c r="B48" s="600" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="C48" s="598" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="D48" s="601" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="596" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="B49" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C49" s="598" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="D49" s="593" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="596" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="B50" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C50" s="598" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="D50" s="593" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="599" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="B51" s="270" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C51" s="598" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="D51" s="593" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="599"/>
       <c r="B52" s="602" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="D52" s="593" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="364" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="B53" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C53" s="598" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="D53" s="593" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="603" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="B54" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C54" s="598" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="D54" s="593" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="596" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="B55" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C55" s="598" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="D55" s="593" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="596" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="B56" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C56" s="598" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="D56" s="593" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="596" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="B57" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C57" s="598" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="D57" s="593" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="596" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="B58" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C58" s="598" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="D58" s="593" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="599" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="B59" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C59" s="598" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="D59" s="593" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="599"/>
       <c r="B60" s="600" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="C60" s="598" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="D60" s="593" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="599" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="B61" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C61" s="598" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="D61" s="593" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="599"/>
       <c r="B62" s="600" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="C62" s="604" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="D62" s="593" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="596" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="B63" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C63" s="598" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="D63" s="593" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="596" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="B64" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C64" s="598" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="D64" s="593" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="596" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="B65" s="597" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C65" s="598" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="D65" s="601" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="407" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="B66" s="283" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C66" s="580" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="D66" s="605" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
@@ -30906,7 +30945,7 @@
   </sheetPr>
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -30933,7 +30972,7 @@
       </c>
       <c r="B1" s="100"/>
       <c r="M1" s="101" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N1" s="101"/>
       <c r="O1" s="101"/>
@@ -30943,7 +30982,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="102" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="103"/>
       <c r="M2" s="104" t="str">
@@ -30958,7 +30997,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="105"/>
       <c r="C3" s="106"/>
@@ -31002,25 +31041,25 @@
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="109" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="110" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="R5" s="111" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="97.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P6" s="112" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="113"/>
       <c r="R6" s="114"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="115" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B7" s="116"/>
       <c r="C7" s="116"/>
@@ -31034,119 +31073,119 @@
       <c r="K7" s="117"/>
       <c r="L7" s="117"/>
       <c r="M7" s="118" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N7" s="119"/>
       <c r="O7" s="118" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P7" s="120"/>
       <c r="Q7" s="118" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R7" s="121" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="122" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B8" s="123" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C8" s="123" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D8" s="123" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E8" s="123" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F8" s="123" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G8" s="123" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H8" s="123" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I8" s="123" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J8" s="123" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K8" s="123" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L8" s="123" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M8" s="124" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N8" s="124" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O8" s="124" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P8" s="124" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="125" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R8" s="126" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="409.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="127" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" s="128" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C9" s="129" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D9" s="130" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E9" s="131" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G9" s="133" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H9" s="132" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I9" s="132" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J9" s="134" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K9" s="132" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L9" s="135" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M9" s="136" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N9" s="133"/>
       <c r="O9" s="137" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P9" s="137"/>
       <c r="Q9" s="138"/>
@@ -31155,47 +31194,47 @@
     </row>
     <row r="10" customFormat="false" ht="169.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="141" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B10" s="142" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C10" s="143" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D10" s="144" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="144" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="146" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="147" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="148" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="M10" s="149" t="s">
         <v>150</v>
-      </c>
-      <c r="E10" s="142" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="144" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="142" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="145" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" s="146" t="s">
-        <v>154</v>
-      </c>
-      <c r="J10" s="147" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" s="148" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="146" t="s">
-        <v>157</v>
-      </c>
-      <c r="M10" s="149" t="s">
-        <v>147</v>
       </c>
       <c r="N10" s="149"/>
       <c r="O10" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P10" s="150"/>
       <c r="Q10" s="151"/>
@@ -31204,43 +31243,43 @@
     </row>
     <row r="11" customFormat="false" ht="336.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="153" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11" s="142" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C11" s="154" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D11" s="154" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E11" s="154" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F11" s="145" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G11" s="142" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H11" s="142" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I11" s="146" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J11" s="147" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K11" s="147" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L11" s="145" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M11" s="149" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N11" s="149"/>
       <c r="O11" s="149" t="str">
@@ -31260,43 +31299,43 @@
     </row>
     <row r="12" customFormat="false" ht="409.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="153" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12" s="142" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C12" s="145" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D12" s="154" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E12" s="154" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F12" s="145" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G12" s="145" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H12" s="145" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I12" s="142" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J12" s="147" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K12" s="142" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L12" s="145" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M12" s="149" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N12" s="149"/>
       <c r="O12" s="149" t="str">
@@ -31320,43 +31359,43 @@
     </row>
     <row r="13" customFormat="false" ht="186" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="153" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="142" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C13" s="156" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D13" s="154" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E13" s="154" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F13" s="146" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G13" s="146" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H13" s="146" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I13" s="157" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J13" s="145" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K13" s="142" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L13" s="145" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M13" s="149" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N13" s="149"/>
       <c r="O13" s="149" t="str">
@@ -31376,47 +31415,47 @@
     </row>
     <row r="14" customFormat="false" ht="154.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="153" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="142" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C14" s="156" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D14" s="148" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E14" s="146" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F14" s="146" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G14" s="146" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H14" s="146" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I14" s="148" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J14" s="145" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K14" s="148" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L14" s="158" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M14" s="149" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N14" s="149"/>
       <c r="O14" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P14" s="150"/>
       <c r="Q14" s="151"/>
@@ -31425,47 +31464,47 @@
     </row>
     <row r="15" customFormat="false" ht="268.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="153" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B15" s="142" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C15" s="143" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D15" s="148" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E15" s="145" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F15" s="145" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G15" s="145" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H15" s="145" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I15" s="157" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J15" s="147" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K15" s="157" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L15" s="146" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M15" s="142" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N15" s="149"/>
       <c r="O15" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P15" s="150"/>
       <c r="Q15" s="151"/>
@@ -31474,43 +31513,43 @@
     </row>
     <row r="16" customFormat="false" ht="213.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="153" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B16" s="142" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C16" s="159" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D16" s="148" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E16" s="148" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F16" s="145" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G16" s="142" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H16" s="148" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I16" s="157" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J16" s="147" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K16" s="160" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L16" s="146" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M16" s="149" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N16" s="149"/>
       <c r="O16" s="150" t="str">
@@ -31530,47 +31569,47 @@
     </row>
     <row r="17" customFormat="false" ht="234.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="153" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B17" s="161" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C17" s="156" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D17" s="146" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E17" s="146" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F17" s="146" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G17" s="156" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H17" s="148" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I17" s="157" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J17" s="145" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K17" s="148" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L17" s="145" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M17" s="149" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N17" s="149"/>
       <c r="O17" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P17" s="150"/>
       <c r="Q17" s="151"/>
@@ -31579,47 +31618,47 @@
     </row>
     <row r="18" customFormat="false" ht="281.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="153" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B18" s="142" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C18" s="156" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D18" s="148" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E18" s="146" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F18" s="146" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G18" s="156" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H18" s="146" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I18" s="157" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J18" s="147" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K18" s="148" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L18" s="146" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M18" s="149" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N18" s="149"/>
       <c r="O18" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P18" s="150"/>
       <c r="Q18" s="151"/>
@@ -31628,43 +31667,43 @@
     </row>
     <row r="19" customFormat="false" ht="195" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="153" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B19" s="142" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C19" s="159" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D19" s="148" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E19" s="148" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F19" s="146" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G19" s="156" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H19" s="156" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I19" s="146" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J19" s="162" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K19" s="146" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L19" s="146" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M19" s="149" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N19" s="149"/>
       <c r="O19" s="149" t="str">
@@ -31684,43 +31723,43 @@
     </row>
     <row r="20" customFormat="false" ht="264.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="153" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B20" s="161" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C20" s="163" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D20" s="164" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E20" s="164" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F20" s="165" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G20" s="161" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H20" s="166" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I20" s="167" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J20" s="168" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K20" s="161" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L20" s="161" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M20" s="149" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N20" s="149"/>
       <c r="O20" s="149" t="str">
@@ -31740,47 +31779,47 @@
     </row>
     <row r="21" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="153" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B21" s="142" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C21" s="148" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D21" s="148" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E21" s="148" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F21" s="146" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G21" s="156" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H21" s="148" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I21" s="148" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J21" s="160" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K21" s="148" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L21" s="148" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M21" s="149" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N21" s="149"/>
       <c r="O21" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P21" s="150"/>
       <c r="Q21" s="151"/>
@@ -31789,47 +31828,47 @@
     </row>
     <row r="22" customFormat="false" ht="253.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="153" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B22" s="142" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C22" s="142" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D22" s="148" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E22" s="145" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F22" s="145" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G22" s="142" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H22" s="145" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I22" s="142" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J22" s="147" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K22" s="142" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L22" s="145" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M22" s="149" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N22" s="149"/>
       <c r="O22" s="150" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P22" s="150"/>
       <c r="Q22" s="151"/>
@@ -31838,43 +31877,43 @@
     </row>
     <row r="23" customFormat="false" ht="347.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="153" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B23" s="142" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C23" s="156" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D23" s="160" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E23" s="146" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F23" s="146" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G23" s="156" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H23" s="160" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I23" s="148" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J23" s="147" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K23" s="148" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L23" s="148" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M23" s="149" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N23" s="149"/>
       <c r="O23" s="149" t="str">
@@ -31894,47 +31933,47 @@
     </row>
     <row r="24" customFormat="false" ht="91.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="169" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B24" s="170" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C24" s="171" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D24" s="172" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E24" s="173" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F24" s="174" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G24" s="175" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H24" s="173" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I24" s="173" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J24" s="172" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K24" s="173" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L24" s="173" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M24" s="176" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N24" s="176"/>
       <c r="O24" s="177" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P24" s="177"/>
       <c r="Q24" s="178"/>
@@ -31949,7 +31988,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="115" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B26" s="116"/>
       <c r="C26" s="116"/>
@@ -31963,113 +32002,113 @@
       <c r="K26" s="116"/>
       <c r="L26" s="116"/>
       <c r="M26" s="118" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N26" s="119"/>
       <c r="O26" s="118" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P26" s="182"/>
       <c r="Q26" s="183" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R26" s="121" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="S26" s="98"/>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="122" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B27" s="123" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C27" s="123" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D27" s="123" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E27" s="123" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F27" s="123" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G27" s="123" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H27" s="123" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I27" s="123"/>
       <c r="J27" s="123"/>
       <c r="K27" s="123"/>
       <c r="L27" s="123"/>
       <c r="M27" s="124" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N27" s="124" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O27" s="124" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P27" s="124" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q27" s="184" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R27" s="126" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S27" s="98"/>
     </row>
     <row r="28" customFormat="false" ht="252.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="185" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B28" s="186" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C28" s="187" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D28" s="188" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E28" s="188" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F28" s="187" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G28" s="189" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H28" s="187" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I28" s="190" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="J28" s="191" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K28" s="192" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L28" s="187" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M28" s="189" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N28" s="193"/>
       <c r="O28" s="194" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P28" s="194"/>
       <c r="Q28" s="138"/>
@@ -32078,47 +32117,47 @@
     </row>
     <row r="29" customFormat="false" ht="167.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="196" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B29" s="197" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C29" s="198" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D29" s="199" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E29" s="199" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F29" s="200" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G29" s="201" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H29" s="201" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I29" s="200" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J29" s="202" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K29" s="203" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L29" s="204" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M29" s="201" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N29" s="205"/>
       <c r="O29" s="206" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P29" s="206"/>
       <c r="Q29" s="151"/>
@@ -32127,43 +32166,43 @@
     </row>
     <row r="30" customFormat="false" ht="261.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="196" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B30" s="197" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C30" s="208" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D30" s="209" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E30" s="209" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F30" s="210" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G30" s="197" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H30" s="211" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I30" s="212" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J30" s="213" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K30" s="212" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L30" s="212" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M30" s="197" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N30" s="205"/>
       <c r="O30" s="197" t="str">
@@ -32183,43 +32222,43 @@
     </row>
     <row r="31" customFormat="false" ht="320.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="196" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B31" s="197" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C31" s="211" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D31" s="209" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E31" s="209" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F31" s="211" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G31" s="197" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H31" s="211" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I31" s="197" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J31" s="213" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K31" s="197" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L31" s="211" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M31" s="205" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N31" s="205"/>
       <c r="O31" s="205" t="str">
@@ -32239,43 +32278,43 @@
     </row>
     <row r="32" customFormat="false" ht="211.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="196" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B32" s="197" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C32" s="211" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D32" s="209" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E32" s="209" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F32" s="214" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G32" s="197" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H32" s="211" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="I32" s="197" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="J32" s="213" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K32" s="197" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L32" s="197" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M32" s="205" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N32" s="205"/>
       <c r="O32" s="205" t="str">
@@ -32295,47 +32334,47 @@
     </row>
     <row r="33" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="196" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B33" s="197" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C33" s="215" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D33" s="215" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E33" s="215" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F33" s="210" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G33" s="216" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H33" s="209" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I33" s="209" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J33" s="215" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K33" s="209" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L33" s="158" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M33" s="205" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N33" s="205"/>
       <c r="O33" s="206" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P33" s="206"/>
       <c r="Q33" s="151"/>
@@ -32344,43 +32383,43 @@
     </row>
     <row r="34" customFormat="false" ht="151.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="196" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B34" s="197" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C34" s="197" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D34" s="209" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E34" s="209" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F34" s="210" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G34" s="216" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H34" s="210" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="I34" s="212" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="J34" s="215" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K34" s="197" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L34" s="211" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M34" s="205" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N34" s="205"/>
       <c r="O34" s="205" t="str">
@@ -32400,47 +32439,47 @@
     </row>
     <row r="35" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="196" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B35" s="197" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C35" s="215" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D35" s="215" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E35" s="209" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F35" s="209" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G35" s="216" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H35" s="209" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I35" s="209" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J35" s="215" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K35" s="209" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L35" s="209" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M35" s="205" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N35" s="205"/>
       <c r="O35" s="206" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P35" s="206"/>
       <c r="Q35" s="151"/>
@@ -32449,47 +32488,47 @@
     </row>
     <row r="36" customFormat="false" ht="243.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="196" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B36" s="197" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C36" s="197" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D36" s="209" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E36" s="209" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F36" s="211" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G36" s="216" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H36" s="210" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I36" s="211" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J36" s="213" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K36" s="197" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L36" s="211" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M36" s="205" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N36" s="205"/>
       <c r="O36" s="206" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P36" s="206"/>
       <c r="Q36" s="151"/>
@@ -32498,43 +32537,43 @@
     </row>
     <row r="37" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="196" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B37" s="197" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C37" s="215" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D37" s="210" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E37" s="209" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F37" s="217" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G37" s="216" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H37" s="209" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I37" s="209" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J37" s="213" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K37" s="209" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L37" s="209" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M37" s="205" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N37" s="205"/>
       <c r="O37" s="205" t="str">
@@ -32554,47 +32593,47 @@
     </row>
     <row r="38" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="196" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B38" s="197" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C38" s="218" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D38" s="209" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E38" s="209" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F38" s="217" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G38" s="216" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H38" s="209" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="I38" s="209" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="J38" s="215" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K38" s="209" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L38" s="209" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M38" s="205" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N38" s="205"/>
       <c r="O38" s="206" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P38" s="206"/>
       <c r="Q38" s="151"/>
@@ -32603,47 +32642,47 @@
     </row>
     <row r="39" customFormat="false" ht="161.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="219" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B39" s="220" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C39" s="220" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D39" s="221" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E39" s="221" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F39" s="222" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G39" s="223" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H39" s="224" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I39" s="225" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="J39" s="226" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K39" s="220" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L39" s="222" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M39" s="227" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N39" s="227"/>
       <c r="O39" s="228" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P39" s="228"/>
       <c r="Q39" s="178"/>
@@ -32655,7 +32694,7 @@
     </row>
     <row r="41" customFormat="false" ht="161.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="231" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B41" s="231"/>
       <c r="C41" s="232"/>
@@ -32673,18 +32712,18 @@
       <c r="O41" s="232"/>
       <c r="P41" s="232"/>
       <c r="Q41" s="233" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="R41" s="233"/>
       <c r="S41" s="234"/>
     </row>
     <row r="42" customFormat="false" ht="161.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="235" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B42" s="235"/>
       <c r="C42" s="236" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D42" s="236"/>
       <c r="E42" s="236"/>
@@ -32788,7 +32827,7 @@
   </sheetPr>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -32818,7 +32857,7 @@
       </c>
       <c r="B1" s="100"/>
       <c r="D1" s="242" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E1" s="243"/>
       <c r="F1" s="243"/>
@@ -32834,35 +32873,35 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="102" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="103"/>
       <c r="D2" s="244" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E2" s="245"/>
       <c r="M2" s="246" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="N2" s="247"/>
       <c r="O2" s="248"/>
       <c r="P2" s="246" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q2" s="248"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="105"/>
       <c r="D3" s="249"/>
       <c r="E3" s="100"/>
       <c r="G3" s="250" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H3" s="251" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="I3" s="252"/>
       <c r="J3" s="253"/>
@@ -32879,60 +32918,60 @@
     <row r="6" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="255" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D7" s="256" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L7" s="256" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="11" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E9" s="257" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F9" s="257" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G9" s="258" t="s">
+        <v>427</v>
+      </c>
+      <c r="H9" s="257" t="s">
+        <v>428</v>
+      </c>
+      <c r="I9" s="259" t="s">
+        <v>429</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="H9" s="257" t="s">
+      <c r="M9" s="257" t="s">
         <v>425</v>
       </c>
-      <c r="I9" s="259" t="s">
+      <c r="N9" s="257" t="s">
         <v>426</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="M9" s="257" t="s">
-        <v>422</v>
-      </c>
-      <c r="N9" s="257" t="s">
-        <v>423</v>
-      </c>
       <c r="O9" s="258" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P9" s="257" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q9" s="259" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D10" s="260" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E10" s="75"/>
       <c r="F10" s="261"/>
@@ -32940,7 +32979,7 @@
       <c r="H10" s="261"/>
       <c r="I10" s="262"/>
       <c r="L10" s="263" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M10" s="75"/>
       <c r="N10" s="261"/>
@@ -32950,7 +32989,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D11" s="264" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E11" s="265"/>
       <c r="F11" s="266"/>
@@ -32958,7 +32997,7 @@
       <c r="H11" s="266"/>
       <c r="I11" s="268"/>
       <c r="L11" s="264" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M11" s="265"/>
       <c r="N11" s="266"/>
@@ -32968,7 +33007,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D12" s="264" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E12" s="269"/>
       <c r="F12" s="267"/>
@@ -32976,7 +33015,7 @@
       <c r="H12" s="267"/>
       <c r="I12" s="270"/>
       <c r="L12" s="264" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M12" s="269"/>
       <c r="N12" s="267"/>
@@ -32986,7 +33025,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D13" s="264" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E13" s="269"/>
       <c r="F13" s="267"/>
@@ -32994,7 +33033,7 @@
       <c r="H13" s="267"/>
       <c r="I13" s="270"/>
       <c r="L13" s="264" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M13" s="269"/>
       <c r="N13" s="267"/>
@@ -33004,7 +33043,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D14" s="264" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E14" s="269"/>
       <c r="F14" s="267"/>
@@ -33012,7 +33051,7 @@
       <c r="H14" s="267"/>
       <c r="I14" s="270"/>
       <c r="L14" s="264" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M14" s="269"/>
       <c r="N14" s="267"/>
@@ -33022,7 +33061,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D15" s="264" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E15" s="269"/>
       <c r="F15" s="267"/>
@@ -33030,7 +33069,7 @@
       <c r="H15" s="267"/>
       <c r="I15" s="270"/>
       <c r="L15" s="264" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M15" s="269"/>
       <c r="N15" s="267"/>
@@ -33041,7 +33080,7 @@
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="271"/>
       <c r="D16" s="264" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E16" s="265"/>
       <c r="F16" s="266"/>
@@ -33049,7 +33088,7 @@
       <c r="H16" s="266"/>
       <c r="I16" s="268"/>
       <c r="L16" s="264" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M16" s="265"/>
       <c r="N16" s="266"/>
@@ -33059,7 +33098,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D17" s="272" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E17" s="273"/>
       <c r="F17" s="274"/>
@@ -33067,7 +33106,7 @@
       <c r="H17" s="274"/>
       <c r="I17" s="276"/>
       <c r="L17" s="272" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M17" s="273"/>
       <c r="N17" s="274"/>
@@ -33080,7 +33119,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D19" s="260" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E19" s="278" t="n">
         <v>0</v>
@@ -33090,7 +33129,7 @@
       <c r="H19" s="279"/>
       <c r="I19" s="280"/>
       <c r="L19" s="260" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M19" s="281"/>
       <c r="N19" s="279"/>
@@ -33100,7 +33139,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D20" s="272" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E20" s="282" t="n">
         <v>0</v>
@@ -33110,7 +33149,7 @@
       <c r="H20" s="275"/>
       <c r="I20" s="283"/>
       <c r="L20" s="272" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="M20" s="284"/>
       <c r="N20" s="275"/>
@@ -33126,48 +33165,48 @@
     <row r="24" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="11" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E25" s="257" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F25" s="257" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G25" s="258" t="s">
+        <v>427</v>
+      </c>
+      <c r="H25" s="257" t="s">
+        <v>428</v>
+      </c>
+      <c r="I25" s="259" t="s">
+        <v>441</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="H25" s="257" t="s">
+      <c r="M25" s="257" t="s">
         <v>425</v>
       </c>
-      <c r="I25" s="259" t="s">
-        <v>438</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="M25" s="257" t="s">
-        <v>422</v>
-      </c>
       <c r="N25" s="257" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="O25" s="258" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P25" s="257" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q25" s="259" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D26" s="260" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E26" s="75"/>
       <c r="F26" s="261"/>
@@ -33175,7 +33214,7 @@
       <c r="H26" s="261"/>
       <c r="I26" s="262"/>
       <c r="L26" s="263" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M26" s="75"/>
       <c r="N26" s="261"/>
@@ -33185,7 +33224,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D27" s="264" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E27" s="265"/>
       <c r="F27" s="266"/>
@@ -33193,7 +33232,7 @@
       <c r="H27" s="266"/>
       <c r="I27" s="268"/>
       <c r="L27" s="264" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M27" s="265"/>
       <c r="N27" s="266"/>
@@ -33203,7 +33242,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D28" s="264" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E28" s="269"/>
       <c r="F28" s="267"/>
@@ -33211,7 +33250,7 @@
       <c r="H28" s="267"/>
       <c r="I28" s="270"/>
       <c r="L28" s="264" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M28" s="269"/>
       <c r="N28" s="267"/>
@@ -33221,7 +33260,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D29" s="264" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E29" s="269"/>
       <c r="F29" s="267"/>
@@ -33229,7 +33268,7 @@
       <c r="H29" s="267"/>
       <c r="I29" s="270"/>
       <c r="L29" s="264" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M29" s="269"/>
       <c r="N29" s="267"/>
@@ -33239,7 +33278,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D30" s="264" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E30" s="269"/>
       <c r="F30" s="267"/>
@@ -33247,7 +33286,7 @@
       <c r="H30" s="267"/>
       <c r="I30" s="270"/>
       <c r="L30" s="264" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M30" s="269"/>
       <c r="N30" s="267"/>
@@ -33257,7 +33296,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D31" s="264" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E31" s="269"/>
       <c r="F31" s="267"/>
@@ -33265,7 +33304,7 @@
       <c r="H31" s="267"/>
       <c r="I31" s="270"/>
       <c r="L31" s="264" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M31" s="269"/>
       <c r="N31" s="267"/>
@@ -33275,7 +33314,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D32" s="264" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E32" s="265"/>
       <c r="F32" s="266"/>
@@ -33283,7 +33322,7 @@
       <c r="H32" s="266"/>
       <c r="I32" s="268"/>
       <c r="L32" s="264" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M32" s="265"/>
       <c r="N32" s="266"/>
@@ -33293,7 +33332,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D33" s="272" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E33" s="273"/>
       <c r="F33" s="274"/>
@@ -33301,7 +33340,7 @@
       <c r="H33" s="274"/>
       <c r="I33" s="276"/>
       <c r="L33" s="272" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M33" s="273"/>
       <c r="N33" s="274"/>
@@ -33311,7 +33350,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D35" s="286" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E35" s="278" t="n">
         <v>0</v>
@@ -33321,7 +33360,7 @@
       <c r="H35" s="279"/>
       <c r="I35" s="280"/>
       <c r="L35" s="260" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M35" s="279"/>
       <c r="N35" s="279"/>
@@ -33331,7 +33370,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D36" s="287" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E36" s="282" t="n">
         <v>0</v>
@@ -33341,7 +33380,7 @@
       <c r="H36" s="275"/>
       <c r="I36" s="283"/>
       <c r="L36" s="272" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="M36" s="275"/>
       <c r="N36" s="275"/>
@@ -33357,48 +33396,48 @@
     <row r="40" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="11" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D41" s="288" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E41" s="289" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F41" s="289" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G41" s="290" t="s">
+        <v>427</v>
+      </c>
+      <c r="H41" s="289" t="s">
+        <v>428</v>
+      </c>
+      <c r="I41" s="291" t="s">
+        <v>441</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="H41" s="289" t="s">
+      <c r="M41" s="257" t="s">
         <v>425</v>
       </c>
-      <c r="I41" s="291" t="s">
-        <v>438</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="M41" s="257" t="s">
-        <v>422</v>
-      </c>
       <c r="N41" s="257" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="O41" s="258" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P41" s="257" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q41" s="259" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D42" s="260" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E42" s="75"/>
       <c r="F42" s="261"/>
@@ -33406,7 +33445,7 @@
       <c r="H42" s="261"/>
       <c r="I42" s="262"/>
       <c r="L42" s="263" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M42" s="75"/>
       <c r="N42" s="261"/>
@@ -33416,7 +33455,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D43" s="264" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E43" s="265"/>
       <c r="F43" s="266"/>
@@ -33424,7 +33463,7 @@
       <c r="H43" s="266"/>
       <c r="I43" s="268"/>
       <c r="L43" s="264" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M43" s="265"/>
       <c r="N43" s="266"/>
@@ -33434,7 +33473,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D44" s="264" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E44" s="269"/>
       <c r="F44" s="267"/>
@@ -33442,7 +33481,7 @@
       <c r="H44" s="267"/>
       <c r="I44" s="270"/>
       <c r="L44" s="264" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M44" s="269"/>
       <c r="N44" s="267"/>
@@ -33452,7 +33491,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D45" s="264" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E45" s="269"/>
       <c r="F45" s="267"/>
@@ -33460,7 +33499,7 @@
       <c r="H45" s="267"/>
       <c r="I45" s="270"/>
       <c r="L45" s="264" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M45" s="269"/>
       <c r="N45" s="267"/>
@@ -33470,7 +33509,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D46" s="264" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E46" s="269"/>
       <c r="F46" s="267"/>
@@ -33478,7 +33517,7 @@
       <c r="H46" s="267"/>
       <c r="I46" s="270"/>
       <c r="L46" s="264" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M46" s="269"/>
       <c r="N46" s="267"/>
@@ -33488,7 +33527,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D47" s="264" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E47" s="269"/>
       <c r="F47" s="267"/>
@@ -33496,7 +33535,7 @@
       <c r="H47" s="267"/>
       <c r="I47" s="270"/>
       <c r="L47" s="264" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M47" s="269"/>
       <c r="N47" s="267"/>
@@ -33506,7 +33545,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D48" s="264" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E48" s="265"/>
       <c r="F48" s="266"/>
@@ -33514,7 +33553,7 @@
       <c r="H48" s="266"/>
       <c r="I48" s="268"/>
       <c r="L48" s="264" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M48" s="265"/>
       <c r="N48" s="266"/>
@@ -33524,7 +33563,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D49" s="272" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E49" s="273"/>
       <c r="F49" s="274"/>
@@ -33532,7 +33571,7 @@
       <c r="H49" s="274"/>
       <c r="I49" s="276"/>
       <c r="L49" s="272" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M49" s="273"/>
       <c r="N49" s="274"/>
@@ -33542,7 +33581,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D51" s="286" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E51" s="279" t="n">
         <v>0</v>
@@ -33552,7 +33591,7 @@
       <c r="H51" s="279"/>
       <c r="I51" s="280"/>
       <c r="L51" s="260" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M51" s="281"/>
       <c r="N51" s="279"/>
@@ -33562,7 +33601,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D52" s="287" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E52" s="275" t="n">
         <v>0</v>
@@ -33572,7 +33611,7 @@
       <c r="H52" s="275"/>
       <c r="I52" s="283"/>
       <c r="L52" s="272" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="M52" s="284"/>
       <c r="N52" s="275"/>
@@ -33588,37 +33627,37 @@
     <row r="56" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="14.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="11" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E57" s="292" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F57" s="293" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G57" s="258" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H57" s="294" t="s">
+        <v>428</v>
+      </c>
+      <c r="I57" s="294" t="s">
+        <v>441</v>
+      </c>
+      <c r="M57" s="292" t="s">
         <v>425</v>
       </c>
-      <c r="I57" s="294" t="s">
-        <v>438</v>
-      </c>
-      <c r="M57" s="292" t="s">
-        <v>422</v>
-      </c>
       <c r="N57" s="293" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="O57" s="295" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P57" s="296" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q57" s="296" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33640,31 +33679,31 @@
     <row r="63" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="255" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="300" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B65" s="300"/>
       <c r="D65" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E65" s="257" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F65" s="257" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G65" s="258" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H65" s="257" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33691,7 +33730,7 @@
       <c r="A68" s="300"/>
       <c r="B68" s="300"/>
       <c r="D68" s="301" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E68" s="297"/>
       <c r="F68" s="298"/>
@@ -33701,12 +33740,12 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="302" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -33768,7 +33807,7 @@
   </sheetPr>
   <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -33795,7 +33834,7 @@
       </c>
       <c r="B1" s="100"/>
       <c r="L1" s="303" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
@@ -33807,17 +33846,17 @@
     </row>
     <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="102" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="103"/>
       <c r="D2" s="304" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E2" s="305"/>
       <c r="F2" s="305"/>
       <c r="G2" s="305"/>
       <c r="L2" s="306" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M2" s="306"/>
       <c r="N2" s="306"/>
@@ -33827,7 +33866,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="105"/>
       <c r="L3" s="306"/>
@@ -33847,7 +33886,7 @@
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="109" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F5" s="307"/>
       <c r="L5" s="306"/>
@@ -33859,7 +33898,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F6" s="78" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L6" s="306"/>
       <c r="M6" s="306"/>
@@ -33870,34 +33909,34 @@
     </row>
     <row r="7" s="240" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="308" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B7" s="308" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C7" s="309" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D7" s="308" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E7" s="310" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F7" s="308" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G7" s="311" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H7" s="312" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I7" s="311" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="J7" s="312" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L7" s="306"/>
       <c r="M7" s="306"/>
@@ -33966,7 +34005,7 @@
       <c r="I11" s="318"/>
       <c r="J11" s="319"/>
       <c r="L11" s="321" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M11" s="321"/>
       <c r="N11" s="321"/>
@@ -33984,7 +34023,7 @@
       <c r="I12" s="318"/>
       <c r="J12" s="319"/>
       <c r="L12" s="321" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M12" s="321"/>
       <c r="N12" s="321"/>
@@ -34002,7 +34041,7 @@
       <c r="I13" s="318"/>
       <c r="J13" s="319"/>
       <c r="L13" s="321" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M13" s="321"/>
       <c r="N13" s="321"/>
@@ -34020,7 +34059,7 @@
       <c r="I14" s="318"/>
       <c r="J14" s="319"/>
       <c r="L14" s="321" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M14" s="321"/>
       <c r="N14" s="321"/>
@@ -34102,7 +34141,7 @@
       <c r="I19" s="318"/>
       <c r="J19" s="319"/>
       <c r="L19" s="322" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="M19" s="322"/>
       <c r="N19" s="322"/>
@@ -34234,7 +34273,7 @@
     </row>
     <row r="30" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L30" s="300" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M30" s="300"/>
       <c r="N30" s="300"/>
@@ -34277,177 +34316,177 @@
     </row>
     <row r="35" customFormat="false" ht="48.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="329" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="42.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="330" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B36" s="330" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C36" s="330" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D36" s="330" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E36" s="331" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F36" s="331" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G36" s="331" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H36" s="332" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="I36" s="332" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="J36" s="330" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K36" s="331" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L36" s="331" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="M36" s="331" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="N36" s="331" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="O36" s="331" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="P36" s="331" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="Q36" s="331" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="R36" s="331" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="S36" s="331" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="T36" s="331" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="U36" s="331" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="V36" s="331" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="W36" s="331" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="X36" s="331" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="Y36" s="331" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="Z36" s="331" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AA36" s="331" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="44.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="333"/>
       <c r="B37" s="333"/>
       <c r="C37" s="333" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D37" s="333" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E37" s="333" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F37" s="333" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G37" s="333" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H37" s="333" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="I37" s="333" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="J37" s="333" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="K37" s="333" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L37" s="333" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M37" s="333" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="N37" s="333" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="O37" s="333" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="P37" s="333" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="Q37" s="333" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="R37" s="333" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="S37" s="333" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="T37" s="333" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="U37" s="333" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="V37" s="333" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="W37" s="333" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="X37" s="333" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="Y37" s="333" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="Z37" s="333" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AA37" s="333" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="267" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B38" s="267" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C38" s="267"/>
       <c r="D38" s="334"/>
@@ -34592,7 +34631,7 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -34618,26 +34657,26 @@
       </c>
       <c r="B1" s="100"/>
       <c r="D1" s="109" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="102" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="103"/>
       <c r="D2" s="250" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E2" s="100"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="105"/>
       <c r="D3" s="250" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E3" s="100"/>
     </row>
@@ -34645,18 +34684,18 @@
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="335"/>
       <c r="B5" s="336" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C5" s="337" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D5" s="338" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="339" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B6" s="75" t="n">
         <v>0</v>
@@ -34670,7 +34709,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="340" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B7" s="269" t="n">
         <v>0</v>
@@ -34685,7 +34724,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="340" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B8" s="269" t="n">
         <v>0</v>
@@ -34699,7 +34738,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="340" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B9" s="269" t="n">
         <v>0</v>
@@ -34713,7 +34752,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="342" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B10" s="284" t="n">
         <v>0</v>
@@ -34728,14 +34767,14 @@
     <row r="12" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="250" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B13" s="249"/>
       <c r="C13" s="343"/>
       <c r="D13" s="343"/>
       <c r="E13" s="343"/>
       <c r="I13" s="344" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J13" s="345"/>
       <c r="K13" s="345"/>
@@ -34744,40 +34783,40 @@
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="348" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B14" s="349" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C14" s="349" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D14" s="258" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E14" s="258" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F14" s="258" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G14" s="258" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I14" s="350" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="J14" s="351" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K14" s="351" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L14" s="351" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="M14" s="352" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="55.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35134,7 +35173,7 @@
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -35157,10 +35196,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="109" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D1" s="109" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35175,68 +35214,68 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="102" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B3" s="103"/>
       <c r="D3" s="250" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E3" s="100"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B4" s="105"/>
       <c r="D4" s="250" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E4" s="100"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="374" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B5" s="375"/>
       <c r="D5" s="374" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E5" s="375"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="99" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B6" s="335"/>
       <c r="D6" s="250" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E6" s="376"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="99" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B7" s="335"/>
       <c r="D7" s="250" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E7" s="376"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="377" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B8" s="377"/>
       <c r="C8" s="377"/>
       <c r="D8" s="250" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E8" s="100"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="250" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E9" s="100"/>
     </row>
@@ -35244,18 +35283,18 @@
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="335"/>
       <c r="B11" s="336" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C11" s="337" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D11" s="338" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="339" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B12" s="75" t="n">
         <v>0</v>
@@ -35269,7 +35308,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="340" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B13" s="269" t="n">
         <v>0</v>
@@ -35283,7 +35322,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="340" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B14" s="269" t="n">
         <v>0</v>
@@ -35297,7 +35336,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="340" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B15" s="269" t="n">
         <v>0</v>
@@ -35311,7 +35350,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="342" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B16" s="284" t="n">
         <v>0</v>
@@ -35325,14 +35364,14 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="250" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B18" s="249"/>
       <c r="C18" s="343"/>
       <c r="D18" s="343"/>
       <c r="E18" s="100"/>
       <c r="I18" s="344" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J18" s="345"/>
       <c r="K18" s="345"/>
@@ -35341,40 +35380,40 @@
     </row>
     <row r="19" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="348" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B19" s="349" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C19" s="349" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D19" s="258" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E19" s="378" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F19" s="258" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G19" s="258" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I19" s="350" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="J19" s="351" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K19" s="351" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L19" s="351" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="M19" s="352" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35729,86 +35768,100 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="42.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="33.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="34.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="99" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="100"/>
-      <c r="D1" s="109" t="s">
-        <v>557</v>
-      </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="F1" s="109" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="102" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="103"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="105"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="250" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B7" s="408"/>
-      <c r="C7" s="343"/>
-      <c r="D7" s="343"/>
+      <c r="C7" s="408"/>
+      <c r="D7" s="408"/>
       <c r="E7" s="343"/>
       <c r="F7" s="343"/>
       <c r="G7" s="343"/>
       <c r="H7" s="343"/>
-      <c r="I7" s="100"/>
+      <c r="I7" s="343"/>
+      <c r="J7" s="343"/>
+      <c r="K7" s="100"/>
     </row>
     <row r="8" customFormat="false" ht="23.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="258" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B8" s="409" t="s">
-        <v>559</v>
-      </c>
-      <c r="C8" s="258" t="s">
-        <v>560</v>
-      </c>
-      <c r="D8" s="258" t="s">
-        <v>561</v>
+        <v>562</v>
+      </c>
+      <c r="C8" s="409" t="s">
+        <v>563</v>
+      </c>
+      <c r="D8" s="409" t="s">
+        <v>564</v>
       </c>
       <c r="E8" s="258" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="F8" s="258" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="G8" s="258" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="H8" s="258" t="s">
-        <v>565</v>
+        <v>568</v>
+      </c>
+      <c r="I8" s="258" t="s">
+        <v>569</v>
+      </c>
+      <c r="J8" s="258" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="82.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35820,8 +35873,10 @@
       <c r="F9" s="410"/>
       <c r="G9" s="410"/>
       <c r="H9" s="410"/>
-      <c r="I9" s="411"/>
-      <c r="J9" s="411"/>
+      <c r="I9" s="410"/>
+      <c r="J9" s="410"/>
+      <c r="K9" s="411"/>
+      <c r="L9" s="411"/>
     </row>
     <row r="10" customFormat="false" ht="95.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="410"/>
@@ -35832,8 +35887,10 @@
       <c r="F10" s="410"/>
       <c r="G10" s="410"/>
       <c r="H10" s="410"/>
-      <c r="I10" s="411"/>
-      <c r="J10" s="411"/>
+      <c r="I10" s="410"/>
+      <c r="J10" s="410"/>
+      <c r="K10" s="411"/>
+      <c r="L10" s="411"/>
     </row>
     <row r="11" customFormat="false" ht="113.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="410"/>
@@ -35844,8 +35901,10 @@
       <c r="F11" s="410"/>
       <c r="G11" s="410"/>
       <c r="H11" s="410"/>
-      <c r="I11" s="411"/>
-      <c r="J11" s="411"/>
+      <c r="I11" s="410"/>
+      <c r="J11" s="410"/>
+      <c r="K11" s="411"/>
+      <c r="L11" s="411"/>
     </row>
     <row r="12" customFormat="false" ht="102.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="410"/>
@@ -35856,8 +35915,10 @@
       <c r="F12" s="410"/>
       <c r="G12" s="410"/>
       <c r="H12" s="410"/>
-      <c r="I12" s="411"/>
-      <c r="J12" s="411"/>
+      <c r="I12" s="410"/>
+      <c r="J12" s="410"/>
+      <c r="K12" s="411"/>
+      <c r="L12" s="411"/>
     </row>
     <row r="13" customFormat="false" ht="117.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="410"/>
@@ -35868,10 +35929,12 @@
       <c r="F13" s="410"/>
       <c r="G13" s="410"/>
       <c r="H13" s="410"/>
-      <c r="I13" s="411"/>
-      <c r="J13" s="411"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="410"/>
+      <c r="J13" s="410"/>
+      <c r="K13" s="411"/>
+      <c r="L13" s="411"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="411"/>
       <c r="B14" s="411"/>
       <c r="C14" s="411"/>
@@ -35882,8 +35945,10 @@
       <c r="H14" s="411"/>
       <c r="I14" s="411"/>
       <c r="J14" s="411"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="411"/>
+      <c r="L14" s="411"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="411"/>
       <c r="B15" s="411"/>
       <c r="C15" s="411"/>
@@ -35894,8 +35959,10 @@
       <c r="H15" s="411"/>
       <c r="I15" s="411"/>
       <c r="J15" s="411"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K15" s="411"/>
+      <c r="L15" s="411"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="411"/>
       <c r="B16" s="411"/>
       <c r="C16" s="411"/>
@@ -35906,8 +35973,10 @@
       <c r="H16" s="411"/>
       <c r="I16" s="411"/>
       <c r="J16" s="411"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="411"/>
+      <c r="L16" s="411"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="411"/>
       <c r="B17" s="411"/>
       <c r="C17" s="411"/>
@@ -35918,8 +35987,10 @@
       <c r="H17" s="411"/>
       <c r="I17" s="411"/>
       <c r="J17" s="411"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="411"/>
+      <c r="L17" s="411"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="411"/>
       <c r="B18" s="411"/>
       <c r="C18" s="411"/>
@@ -35930,8 +36001,10 @@
       <c r="H18" s="411"/>
       <c r="I18" s="411"/>
       <c r="J18" s="411"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K18" s="411"/>
+      <c r="L18" s="411"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="411"/>
       <c r="B19" s="411"/>
       <c r="C19" s="411"/>
@@ -35942,8 +36015,10 @@
       <c r="H19" s="411"/>
       <c r="I19" s="411"/>
       <c r="J19" s="411"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K19" s="411"/>
+      <c r="L19" s="411"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="411"/>
       <c r="B20" s="411"/>
       <c r="C20" s="411"/>
@@ -35954,8 +36029,10 @@
       <c r="H20" s="411"/>
       <c r="I20" s="411"/>
       <c r="J20" s="411"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K20" s="411"/>
+      <c r="L20" s="411"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="411"/>
       <c r="B21" s="411"/>
       <c r="C21" s="411"/>
@@ -35966,8 +36043,10 @@
       <c r="H21" s="411"/>
       <c r="I21" s="411"/>
       <c r="J21" s="411"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K21" s="411"/>
+      <c r="L21" s="411"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="411"/>
       <c r="B22" s="411"/>
       <c r="C22" s="411"/>
@@ -35978,8 +36057,10 @@
       <c r="H22" s="411"/>
       <c r="I22" s="411"/>
       <c r="J22" s="411"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K22" s="411"/>
+      <c r="L22" s="411"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="411"/>
       <c r="B23" s="411"/>
       <c r="C23" s="411"/>
@@ -35990,8 +36071,10 @@
       <c r="H23" s="411"/>
       <c r="I23" s="411"/>
       <c r="J23" s="411"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K23" s="411"/>
+      <c r="L23" s="411"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="411"/>
       <c r="B24" s="411"/>
       <c r="C24" s="411"/>
@@ -36002,8 +36085,10 @@
       <c r="H24" s="411"/>
       <c r="I24" s="411"/>
       <c r="J24" s="411"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K24" s="411"/>
+      <c r="L24" s="411"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="411"/>
       <c r="B25" s="411"/>
       <c r="C25" s="411"/>
@@ -36014,8 +36099,10 @@
       <c r="H25" s="411"/>
       <c r="I25" s="411"/>
       <c r="J25" s="411"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K25" s="411"/>
+      <c r="L25" s="411"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="411"/>
       <c r="B26" s="411"/>
       <c r="C26" s="411"/>
@@ -36026,8 +36113,10 @@
       <c r="H26" s="411"/>
       <c r="I26" s="411"/>
       <c r="J26" s="411"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K26" s="411"/>
+      <c r="L26" s="411"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="411"/>
       <c r="B27" s="411"/>
       <c r="C27" s="411"/>
@@ -36038,8 +36127,10 @@
       <c r="H27" s="411"/>
       <c r="I27" s="411"/>
       <c r="J27" s="411"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K27" s="411"/>
+      <c r="L27" s="411"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="412"/>
       <c r="B28" s="412"/>
       <c r="C28" s="412"/>
@@ -36049,8 +36140,10 @@
       <c r="G28" s="412"/>
       <c r="H28" s="412"/>
       <c r="I28" s="412"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="412"/>
+      <c r="K28" s="412"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="412"/>
       <c r="B29" s="412"/>
       <c r="C29" s="412"/>
@@ -36060,8 +36153,10 @@
       <c r="G29" s="412"/>
       <c r="H29" s="412"/>
       <c r="I29" s="412"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="412"/>
+      <c r="K29" s="412"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="412"/>
       <c r="B30" s="412"/>
       <c r="C30" s="412"/>
@@ -36071,8 +36166,10 @@
       <c r="G30" s="412"/>
       <c r="H30" s="412"/>
       <c r="I30" s="412"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="412"/>
+      <c r="K30" s="412"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="412"/>
       <c r="B31" s="412"/>
       <c r="C31" s="412"/>
@@ -36082,8 +36179,10 @@
       <c r="G31" s="412"/>
       <c r="H31" s="412"/>
       <c r="I31" s="412"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="412"/>
+      <c r="K31" s="412"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="412"/>
       <c r="B32" s="412"/>
       <c r="C32" s="412"/>
@@ -36093,8 +36192,10 @@
       <c r="G32" s="412"/>
       <c r="H32" s="412"/>
       <c r="I32" s="412"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="412"/>
+      <c r="K32" s="412"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="412"/>
       <c r="B33" s="412"/>
       <c r="C33" s="412"/>
@@ -36104,8 +36205,10 @@
       <c r="G33" s="412"/>
       <c r="H33" s="412"/>
       <c r="I33" s="412"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J33" s="412"/>
+      <c r="K33" s="412"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="412"/>
       <c r="B34" s="412"/>
       <c r="C34" s="412"/>
@@ -36115,8 +36218,10 @@
       <c r="G34" s="412"/>
       <c r="H34" s="412"/>
       <c r="I34" s="412"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J34" s="412"/>
+      <c r="K34" s="412"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="412"/>
       <c r="B35" s="412"/>
       <c r="C35" s="412"/>
@@ -36126,8 +36231,10 @@
       <c r="G35" s="412"/>
       <c r="H35" s="412"/>
       <c r="I35" s="412"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J35" s="412"/>
+      <c r="K35" s="412"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="412"/>
       <c r="B36" s="412"/>
       <c r="C36" s="412"/>
@@ -36137,8 +36244,10 @@
       <c r="G36" s="412"/>
       <c r="H36" s="412"/>
       <c r="I36" s="412"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J36" s="412"/>
+      <c r="K36" s="412"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="412"/>
       <c r="B37" s="412"/>
       <c r="C37" s="412"/>
@@ -36148,8 +36257,10 @@
       <c r="G37" s="412"/>
       <c r="H37" s="412"/>
       <c r="I37" s="412"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="412"/>
+      <c r="K37" s="412"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="412"/>
       <c r="B38" s="412"/>
       <c r="C38" s="412"/>
@@ -36159,8 +36270,10 @@
       <c r="G38" s="412"/>
       <c r="H38" s="412"/>
       <c r="I38" s="412"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="412"/>
+      <c r="K38" s="412"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="412"/>
       <c r="B39" s="412"/>
       <c r="C39" s="412"/>
@@ -36170,8 +36283,10 @@
       <c r="G39" s="412"/>
       <c r="H39" s="412"/>
       <c r="I39" s="412"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="412"/>
+      <c r="K39" s="412"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="412"/>
       <c r="B40" s="412"/>
       <c r="C40" s="412"/>
@@ -36181,8 +36296,10 @@
       <c r="G40" s="412"/>
       <c r="H40" s="412"/>
       <c r="I40" s="412"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" s="412"/>
+      <c r="K40" s="412"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="412"/>
       <c r="B41" s="412"/>
       <c r="C41" s="412"/>
@@ -36192,8 +36309,10 @@
       <c r="G41" s="412"/>
       <c r="H41" s="412"/>
       <c r="I41" s="412"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J41" s="412"/>
+      <c r="K41" s="412"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="412"/>
       <c r="B42" s="412"/>
       <c r="C42" s="412"/>
@@ -36203,8 +36322,10 @@
       <c r="G42" s="412"/>
       <c r="H42" s="412"/>
       <c r="I42" s="412"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" s="412"/>
+      <c r="K42" s="412"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="412"/>
       <c r="B43" s="412"/>
       <c r="C43" s="412"/>
@@ -36214,8 +36335,10 @@
       <c r="G43" s="412"/>
       <c r="H43" s="412"/>
       <c r="I43" s="412"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J43" s="412"/>
+      <c r="K43" s="412"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="412"/>
       <c r="B44" s="412"/>
       <c r="C44" s="412"/>
@@ -36225,8 +36348,10 @@
       <c r="G44" s="412"/>
       <c r="H44" s="412"/>
       <c r="I44" s="412"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J44" s="412"/>
+      <c r="K44" s="412"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="412"/>
       <c r="B45" s="412"/>
       <c r="C45" s="412"/>
@@ -36236,8 +36361,10 @@
       <c r="G45" s="412"/>
       <c r="H45" s="412"/>
       <c r="I45" s="412"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J45" s="412"/>
+      <c r="K45" s="412"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="412"/>
       <c r="B46" s="412"/>
       <c r="C46" s="412"/>
@@ -36247,8 +36374,10 @@
       <c r="G46" s="412"/>
       <c r="H46" s="412"/>
       <c r="I46" s="412"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J46" s="412"/>
+      <c r="K46" s="412"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="412"/>
       <c r="B47" s="412"/>
       <c r="C47" s="412"/>
@@ -36258,8 +36387,10 @@
       <c r="G47" s="412"/>
       <c r="H47" s="412"/>
       <c r="I47" s="412"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J47" s="412"/>
+      <c r="K47" s="412"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="412"/>
       <c r="B48" s="412"/>
       <c r="C48" s="412"/>
@@ -36269,8 +36400,10 @@
       <c r="G48" s="412"/>
       <c r="H48" s="412"/>
       <c r="I48" s="412"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J48" s="412"/>
+      <c r="K48" s="412"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="412"/>
       <c r="B49" s="412"/>
       <c r="C49" s="412"/>
@@ -36280,8 +36413,10 @@
       <c r="G49" s="412"/>
       <c r="H49" s="412"/>
       <c r="I49" s="412"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" s="412"/>
+      <c r="K49" s="412"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="412"/>
       <c r="B50" s="412"/>
       <c r="C50" s="412"/>
@@ -36291,8 +36426,10 @@
       <c r="G50" s="412"/>
       <c r="H50" s="412"/>
       <c r="I50" s="412"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J50" s="412"/>
+      <c r="K50" s="412"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="412"/>
       <c r="B51" s="412"/>
       <c r="C51" s="412"/>
@@ -36302,8 +36439,10 @@
       <c r="G51" s="412"/>
       <c r="H51" s="412"/>
       <c r="I51" s="412"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J51" s="412"/>
+      <c r="K51" s="412"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="412"/>
       <c r="B52" s="412"/>
       <c r="C52" s="412"/>
@@ -36313,8 +36452,10 @@
       <c r="G52" s="412"/>
       <c r="H52" s="412"/>
       <c r="I52" s="412"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J52" s="412"/>
+      <c r="K52" s="412"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="412"/>
       <c r="B53" s="412"/>
       <c r="C53" s="412"/>
@@ -36324,8 +36465,10 @@
       <c r="G53" s="412"/>
       <c r="H53" s="412"/>
       <c r="I53" s="412"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J53" s="412"/>
+      <c r="K53" s="412"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="412"/>
       <c r="B54" s="412"/>
       <c r="C54" s="412"/>
@@ -36335,8 +36478,10 @@
       <c r="G54" s="412"/>
       <c r="H54" s="412"/>
       <c r="I54" s="412"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J54" s="412"/>
+      <c r="K54" s="412"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="412"/>
       <c r="B55" s="412"/>
       <c r="C55" s="412"/>
@@ -36346,8 +36491,10 @@
       <c r="G55" s="412"/>
       <c r="H55" s="412"/>
       <c r="I55" s="412"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J55" s="412"/>
+      <c r="K55" s="412"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="412"/>
       <c r="B56" s="412"/>
       <c r="C56" s="412"/>
@@ -36357,8 +36504,10 @@
       <c r="G56" s="412"/>
       <c r="H56" s="412"/>
       <c r="I56" s="412"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J56" s="412"/>
+      <c r="K56" s="412"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="412"/>
       <c r="B57" s="412"/>
       <c r="C57" s="412"/>
@@ -36368,6 +36517,8 @@
       <c r="G57" s="412"/>
       <c r="H57" s="412"/>
       <c r="I57" s="412"/>
+      <c r="J57" s="412"/>
+      <c r="K57" s="412"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -36387,7 +36538,7 @@
   </sheetPr>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -36412,7 +36563,7 @@
       </c>
       <c r="B1" s="100"/>
       <c r="E1" s="413" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F1" s="414"/>
       <c r="G1" s="414"/>
@@ -36421,33 +36572,33 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="102" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="103"/>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="105"/>
       <c r="D3" s="109" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="415" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C5" s="415"/>
       <c r="D5" s="415"/>
       <c r="E5" s="416" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="F5" s="416"/>
       <c r="G5" s="416"/>
       <c r="H5" s="416"/>
       <c r="J5" s="417" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="K5" s="417"/>
       <c r="L5" s="417"/>
@@ -36455,43 +36606,43 @@
     </row>
     <row r="6" s="328" customFormat="true" ht="61.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="418" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B6" s="419" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C6" s="419" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D6" s="419" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="E6" s="420" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="F6" s="419" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="G6" s="420" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="H6" s="420" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="I6" s="420" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="J6" s="420" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="K6" s="420" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="L6" s="420" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="M6" s="420" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36510,16 +36661,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="421" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B10" s="421"/>
       <c r="C10" s="421" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D10" s="421"/>
       <c r="E10" s="421"/>
@@ -36531,136 +36682,136 @@
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="418" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B11" s="419" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C11" s="419" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D11" s="419" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="E11" s="420" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="F11" s="419" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="G11" s="420" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H11" s="420" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="I11" s="420" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="J11" s="420" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="418" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B13" s="419" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="C13" s="419" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="D13" s="419" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="E13" s="420" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="F13" s="419" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="G13" s="420" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="H13" s="420" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="I13" s="420" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="J13" s="420" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="K13" s="420" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="L13" s="420" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="M13" s="420" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="418" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B15" s="419" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="C15" s="419" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D15" s="419" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="E15" s="420" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="F15" s="419" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="G15" s="420" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="H15" s="420" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="I15" s="420" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="J15" s="420" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="K15" s="420" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="L15" s="420" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="M15" s="420" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="N15" s="420" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="O15" s="420" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="422" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H19" s="423" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="I19" s="423"/>
       <c r="J19" s="423"/>
@@ -36671,127 +36822,127 @@
     </row>
     <row r="20" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H20" s="424" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="I20" s="425" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="J20" s="426" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="K20" s="425" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="L20" s="426" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="M20" s="426" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="N20" s="426" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="427" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="428"/>
       <c r="B32" s="429" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C32" s="430" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D32" s="431" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="432" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B33" s="433" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C33" s="432" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="D33" s="432" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="432" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B34" s="432" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="C34" s="432" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="D34" s="432" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="432" t="s">
+        <v>648</v>
+      </c>
+      <c r="B35" s="432" t="s">
+        <v>649</v>
+      </c>
+      <c r="C35" s="432" t="s">
         <v>643</v>
       </c>
-      <c r="B35" s="432" t="s">
-        <v>644</v>
-      </c>
-      <c r="C35" s="432" t="s">
-        <v>638</v>
-      </c>
       <c r="D35" s="432" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="432" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B36" s="432" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C36" s="432" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="D36" s="432" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="432" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="B37" s="432" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="C37" s="433" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="D37" s="432" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="432" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B38" s="432" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="C38" s="433"/>
       <c r="D38" s="432"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="432" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B39" s="432"/>
       <c r="C39" s="433"/>
@@ -36799,26 +36950,26 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="432" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B40" s="432" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="C40" s="433"/>
       <c r="D40" s="432"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="432" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B41" s="432" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="C41" s="432" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="D41" s="432" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -36848,7 +36999,7 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -36873,24 +37024,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="102" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" s="103"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" s="105"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L4" s="427" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="434" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B5" s="434"/>
       <c r="C5" s="435"/>
@@ -36898,7 +37049,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="436" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36906,10 +37057,10 @@
       <c r="B6" s="434"/>
       <c r="C6" s="435"/>
       <c r="L6" s="437" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="M6" s="432" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36917,10 +37068,10 @@
       <c r="B7" s="434"/>
       <c r="C7" s="435"/>
       <c r="L7" s="437" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="M7" s="432" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36928,99 +37079,99 @@
       <c r="B8" s="435"/>
       <c r="C8" s="435"/>
       <c r="L8" s="437" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="M8" s="432" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L9" s="437" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="M9" s="432" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="422" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="L10" s="437" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="M10" s="432" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L11" s="437" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="M11" s="432" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L12" s="437" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="M12" s="432" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="438"/>
       <c r="L13" s="437" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="M13" s="432" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L14" s="437" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="M14" s="432" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L15" s="437" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M15" s="432" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L16" s="437" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="M16" s="432" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L17" s="437" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="M17" s="432" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L18" s="437" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="M18" s="432" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="413" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B19" s="414"/>
       <c r="C19" s="414"/>
@@ -37039,40 +37190,40 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="439" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B21" s="335"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="440" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B22" s="441" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C22" s="441" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="D22" s="441" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="E22" s="441" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="F22" s="441" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="G22" s="441" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="H22" s="441" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="I22" s="441" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="J22" s="442" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
